--- a/spreadsheet/macrofree/wafsg_checklist.en.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.en.xlsx
@@ -13459,7 +13459,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Selecting the right virtual machine instance type is critical as it directly impacts the cost of running applications on AKS. Choosing a high-performance instance without proper utilization can lead to wasteful spending, while choosing a powerful instance can lead to performance issues and increased downtime. To determine the right virtual machine instance type, consider workload characteristics, resource requirements, and availability needs.</t>
+          <t>Selecting the right virtual machine instance type is critical as it directly impacts the cost of running applications on AKS. Choosing a high-performance instance without proper utilization can lead to wasteful spending, while choosing a less powerful instance can lead to performance issues and increased downtime. To determine the right virtual machine instance type, consider workload characteristics, resource requirements, and availability needs.</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -15732,7 +15732,7 @@
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>Resiliency: If you're using provisioned throughput, consider also deploying a pay-as-you-go instance to handle overflow. You can route calls to the pay-as-you-go instance via your gateway when your provisioned throughput model is throttled. You can also use monitoring to predict when the model will be throttled and preemptively route calls to the pay-as-you-go instance.</t>
+          <t>Resiliency: If you're using provisioned throughput, consider also deploying a pay-as-you-go instance to handle overflow. You can route calls to the pay-as-you-go instance via your gateway when your provisioned throughput model is throttled.</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>4b6855b3-069d-4bb2-b9c6-f1c021803f77</t>
+          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
         </is>
       </c>
     </row>
@@ -15768,7 +15768,7 @@
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>Resiliency: Follow the guidance for large data files and import the data from an Azure blob store. Large files, 100 MB or larger, can become unstable when uploaded through multipart forms because the requests are atomic and can't be retried or resumed.</t>
+          <t>Resiliency: Follow the guidance for fine-tuning with large data files and import the data from an Azure blob store. Large files, 100 MB or larger, can become unstable when uploaded through multipart forms because the requests are atomic and can't be retried or resumed.</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>c41d1ed1-6f1d-4e6e-9dde-2d8172365170</t>
+          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/wafsg_checklist.en.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.en.xlsx
@@ -6808,7 +6808,7 @@
       <c r="B193" s="21" t="n"/>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Configure Active-Active ExpressRoute connections between on-premises and Azure.</t>
+          <t>Configure ExpressRoute circuits with Maximum or High Resiliency for production workloads.</t>
         </is>
       </c>
       <c r="D193" s="21" t="inlineStr"/>
@@ -6823,7 +6823,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b356e60e-cb41-4ee6-a8d5-290b429619f7</t>
+          <t>e58c1767-6db4-4b40-a26e-1ab8967517f4</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -6836,7 +6836,7 @@
       <c r="B194" s="21" t="n"/>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Set up availability zone aware ExpressRoute Virtual Network Gateways.</t>
+          <t>Configure Active-Active ExpressRoute connections between on-premises and Azure.</t>
         </is>
       </c>
       <c r="D194" s="21" t="inlineStr"/>
@@ -6851,7 +6851,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>877b9a2d-8171-441b-ba7f-b8c6191f12bc</t>
+          <t>b356e60e-cb41-4ee6-a8d5-290b429619f7</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -6864,7 +6864,7 @@
       <c r="B195" s="21" t="n"/>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Configure ExpressRoute Virtual Network Gateways in different regions.</t>
+          <t>Set up availability zone aware ExpressRoute Virtual Network Gateways.</t>
         </is>
       </c>
       <c r="D195" s="21" t="inlineStr"/>
@@ -6879,7 +6879,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>64ad6a67-7f17-4d55-a365-0ec8716fb135</t>
+          <t>877b9a2d-8171-441b-ba7f-b8c6191f12bc</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -6892,7 +6892,7 @@
       <c r="B196" s="21" t="n"/>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Configure site-to-site VPN as a backup to ExpressRoute private peering.</t>
+          <t>Configure ExpressRoute Virtual Network Gateways in different regions.</t>
         </is>
       </c>
       <c r="D196" s="21" t="inlineStr"/>
@@ -6907,7 +6907,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>20bbf3a5-e3d8-42eb-9b88-9c4a811a483a</t>
+          <t>64ad6a67-7f17-4d55-a365-0ec8716fb135</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -6920,7 +6920,7 @@
       <c r="B197" s="21" t="n"/>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Configure service health to receive ExpressRoute circuit maintenance notification.</t>
+          <t>Configure site-to-site VPN as a backup to ExpressRoute private peering.</t>
         </is>
       </c>
       <c r="D197" s="21" t="inlineStr"/>
@@ -6935,7 +6935,7 @@
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>198fd707-5344-46d9-a3f9-c05a90749ccb</t>
+          <t>20bbf3a5-e3d8-42eb-9b88-9c4a811a483a</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -6948,14 +6948,10 @@
       <c r="B198" s="21" t="n"/>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Plan for ExpressRoute circuit or ExpressRoute Direct</t>
-        </is>
-      </c>
-      <c r="D198" s="21" t="inlineStr">
-        <is>
-          <t>During the initial planning phase, you want to decide whether you want to configure an ExpressRoute circuit or an ExpressRoute Direct connection. An ExpressRoute circuit allows a private dedicated connection into Azure with the help of a connectivity provider. ExpressRoute Direct allows you to extend on-premises network directly into the Microsoft network at a peering location. You also need to identify the bandwidth requirement and the SKU type requirement for your business needs.</t>
-        </is>
-      </c>
+          <t>Configure service health to receive ExpressRoute circuit maintenance notifications.</t>
+        </is>
+      </c>
+      <c r="D198" s="21" t="inlineStr"/>
       <c r="E198" s="21" t="n"/>
       <c r="F198" t="inlineStr">
         <is>
@@ -6967,7 +6963,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>09e0dd1a-b1f7-46c3-8df1-48e841f53dca</t>
+          <t>da08260d-363c-4fcb-a555-ed4448d0be3a</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -6980,12 +6976,12 @@
       <c r="B199" s="21" t="n"/>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Physical layer diversity</t>
+          <t>Plan for ExpressRoute circuit or ExpressRoute Direct</t>
         </is>
       </c>
       <c r="D199" s="21" t="inlineStr">
         <is>
-          <t>For better resiliency, plan to have multiple paths between the on-premises edge and the peering locations (provider/Microsoft edge locations). This configuration can be achieved by going through different service provider or through a different location from the on-premises network.</t>
+          <t>During the initial planning phase, you want to decide whether you want to configure an ExpressRoute circuit or an ExpressRoute Direct connection. An ExpressRoute circuit allows a private dedicated connection into Azure with the help of a connectivity provider. ExpressRoute Direct allows you to extend the on-premises network directly into the Microsoft network at a peering location. You also need to identify the bandwidth requirement and the SKU type requirement for your business needs.</t>
         </is>
       </c>
       <c r="E199" s="21" t="n"/>
@@ -6999,7 +6995,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>67812ddc-7c52-4b52-9569-b3f84d591def</t>
+          <t>09e0dd1a-b1f7-46c3-8df1-48e841f53dca</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -7017,7 +7013,7 @@
       </c>
       <c r="D200" s="21" t="inlineStr">
         <is>
-          <t>To plan for disaster recovery, set up ExpressRoute circuits in more than one peering locations. You can create circuits in peering locations in the same metro or different metro and choose to work with different service providers for diverse paths through each circuit. For more information, see Designing for disaster recovery and Designing for high availability.</t>
+          <t>To plan for disaster recovery, set up ExpressRoute circuits in more than one peering locations. You can create circuits in peering locations in the same metro or different metro and choose to work with different service providers for diverse paths through each circuit. For more information, see  Designing for disaster recovery and Designing for high availability.</t>
         </is>
       </c>
       <c r="E200" s="21" t="n"/>
@@ -10303,7 +10299,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>There are limits on the policy structure, including numbers of Rules and Rule Collection Groups, total policy size, source/target destinations. Be sure to compose your policy and stay behind the documented thresholds.</t>
+          <t>There are limits on the policy structure, including numbers of Rules and Rule Collection Groups, total policy size, source/target destinations. Be sure to compose your policy and stay below the documented thresholds.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10627,7 +10623,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>In a traditional Hub &amp; Spokes architecture, configure UDRs to force traffic through Azure Firewall for `SpoketoSpoke`, `SpoketoInternet`, and `SpoketoHybrid` connectivity. In Azure Virtual WAN, instead, configure Routing Intent and Policies to redirect private and/or Internet traffic through the Azure Firewall instance integrated into the hub.</t>
+          <t>In a traditional Hub &amp; Spokes architecture, configure UDRs to force traffic through Azure Firewall for `Spoke-to-Spoke`, `Spoke-to-Internet`, and `Spoke-to-Hybrid` connectivity. In Azure Virtual WAN, instead, configure Routing Intent and Policies to redirect private and/or Internet traffic through the Azure Firewall instance integrated into the hub.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11287,7 +11283,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Azure Firewall portal experience now includes a new workbook under the Monitoring section UI, a separate installation is no more required. With the Azure Firewall Workbook, you can extract valuable insights from Azure Firewall events, delve into your application and network rules, and examine statistics regarding firewall activities across URLs, ports, and addresses.</t>
+          <t>Azure Firewall portal experience now includes a new workbook under the Monitoring section UI, a separate installation is no longer required. With the Azure Firewall Workbook, you can extract valuable insights from Azure Firewall events, delve into your application and network rules, and examine statistics regarding firewall activities across URLs, ports, and addresses.</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -11531,7 +11527,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>If Azure Firewall is required to operate in IDPS mode Alert and deny, carefully consider the performance impact as documented in this page.</t>
+          <t>If Azure Firewall is required to operate in IDPS mode Alert and deny, carefully consider the performance impact as documented in firewall performance.</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">

--- a/spreadsheet/macrofree/wafsg_checklist.en.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.en.xlsx
@@ -890,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:P700"/>
+  <dimension ref="A2:P672"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute dedicated circuits guarantee `99.95%` availability when an active-active connectivity is configured between on-premises and Azure. This mode provides higher availability of your Expressroute connection. It's also recommended to configure BFD for faster failover if there's a link failure on a connection.</t>
+          <t>This mode provides higher availability of your Expressroute connections. It's also recommended to configure BFD for faster failover if there's a link failure on a connection.</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>Create availability zone aware Virtual Network Gateway for higher resiliency and plan for Virtual Network Gateways in different region for disaster recovery and high availability.</t>
+          <t>Create availability zone aware Virtual Network Gateway for higher resiliency and plan for Virtual Network Gateways in different regions for resiliency, disaster recovery, and high availability.</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
@@ -10116,7 +10116,7 @@
     <row r="306">
       <c r="C306" t="inlineStr">
         <is>
-          <t>Deploy Azure Firewall in hub virtual networks or as part of Azure Virtual WAN hubs.</t>
+          <t>Review the list of Azure Firewall known issues. Azure Firewall products maintain an updated list of known issues. This list contains important information about by-design behavior, fixes under construction, platform limitations, and possible workarounds or mitigation strategies.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -10127,14 +10127,14 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>5820ff87-d98e-490e-93a0-28028bbb05e6</t>
+          <t>20ce14f0-d217-45ca-953e-da6acda1b73c</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="C307" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones resiliency.</t>
+          <t>Deploy Azure Firewall across multiple availability zones for a higher service-level agreement (SLA). Azure Firewall provides different SLAs depending on whether you deploy the service in a single availability zone or multiple zones. For more information, see SLAs for online services.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -10145,14 +10145,14 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>7c605481-a9d5-480f-8738-ac2022ef28ed</t>
+          <t>de630a06-a4a8-4215-bb80-cc89dd3ced08</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="C308" t="inlineStr">
         <is>
-          <t>Create Azure Firewall Policy structure.</t>
+          <t>Deploy an Azure Firewall instance in each region in multi-region environments. For traditional hub-and-spoke architectures, see Multi-region considerations. For secured Azure Virtual WAN hubs, configure routing intent and policies to secure inter-hub and branch-to-branch communications. For failure-resistant and fault-tolerant workloads, consider instances of Azure Firewall and Azure Virtual Network as regional resources.</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
@@ -10163,14 +10163,14 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>2ceafe5f-6511-42a6-9687-cebaf586b293</t>
+          <t>be394cd4-78f2-4737-8d8d-ec8f83193584</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="C309" t="inlineStr">
         <is>
-          <t>Review the Known Issue list.</t>
+          <t>Monitor Azure Firewall metrics and the resource health state. Azure Firewall integrates with Azure Resource Health. Use the Resource Health check to view the health status of Azure Firewall and address service problems that might affect your Azure Firewall resource.</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
@@ -10181,14 +10181,14 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>85a53628-bd7b-43bb-a817-b6f0c11c34c9</t>
+          <t>5f5c6480-7d26-4d6a-b375-e5786b200448</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="C310" t="inlineStr">
         <is>
-          <t>Monitor Azure Firewall health state.</t>
+          <t>Deploy Azure Firewall in hub virtual networks or as part of Virtual WAN hubs.</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
@@ -10199,19 +10199,19 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>74a2596f-1cc9-4715-8de2-5afdde7b9f9a</t>
+          <t>e1c47da5-f5ed-4300-911e-7fc916e4c488</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="C311" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager with traditional Hub &amp; Spokes or Azure Virtual WAN network topologies to deploy and manage instances of Azure Firewall.</t>
+          <t>Deploy Azure Firewall across multiple availability zones.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Easily create hub-and-spoke and transitive architectures with native security services for traffic governance and protection.  For more information on network topologies, see the Azure Cloud Adoption Framework documentation.</t>
+          <t>Deploy Azure Firewall across multiple availability zones to maintain a specific level of resiliency. If one zone experiences an outage, another zone continues to serve traffic.</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10221,19 +10221,19 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>21f4d348-c086-4e96-b5bc-91f8a3c25841</t>
+          <t>13571efe-01ca-4dd1-8cc8-fe95125e3bf2</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="C312" t="inlineStr">
         <is>
-          <t>Create Azure Firewall Policies to govern the security posture across global network environments. Assign policies to all instances of Azure Firewall.</t>
+          <t>Monitor Azure Firewall metrics in a Log Analytics workspace. Closely monitor metrics that indicate the Azure Firewall health state, such as throughput, Firewall health state, SNAT port utilization, and AZFW latency probe metrics.  Use Azure Service Health to monitor Azure Firewall health.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Azure Firewall Policies can be arranged in an hierarchical structure to overlay a central base policy. Allow for granular policies to meet the requirements of specific regions. Delegate incremental firewall policies to local security teams through role-based access control (RBAC). Some settings are specific per instance, for example DNAT Rules and DNS configuration, then multiple specialized policies might be required.</t>
+          <t>Monitor resource metrics and service health so you can detect when a service state degrades and take proactive measures to prevent failures.</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10243,19 +10243,19 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>1e604a31-46f0-4fcc-9f0e-1ca46cc3f677</t>
+          <t>09d6362f-d7a1-4c56-822c-065064bbcad7</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="C313" t="inlineStr">
         <is>
-          <t>Migrate Azure Firewall Classic Rules to Azure Firewall Manager Policies for existing deployments.</t>
+          <t>Configure Azure Firewall in forced tunneling mode if you need to route all internet-bound traffic to a designated next hop instead of directly to the internet. This recommendation doesn't apply to Virtual WAN. &lt;BR&gt;&lt;BR&gt; Azure Firewall must have direct internet connectivity. If your AzureFirewallSubnet learns a default route to your on-premises network via the Border Gateway Protocol, you must configure Azure Firewall in forced tunneling mode. You can use the forced tunneling feature to add another /26 address space for the Azure Firewall Management subnet. Name the subnet AzureFirewallManagementSubnet. If you have an existing Azure Firewall instance that you can't reconfigure in forced tunneling mode, create a UDR with a 0.0.0.0/0 route. Set the NextHopType value as Internet. To maintain internet connectivity, associate the UDR with AzureFirewallSubnet.  Set the public IP address to None to deploy a fully private data plane when you configure Azure Firewall in forced tunneling mode. But the management plane still requires a public IP for management purposes only. The internal traffic from virtual and on-premises networks doesn't use that public IP.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>For existing deployments, migrate Azure Firewall rules to Azure Firewall Manager policies. Use Azure Firewall Manager to centrally manage your firewalls and policies.  For more information, see Migrate to Azure Firewall Premium.</t>
+          <t>Use forced tunneling so you don't expose your Azure resources directly to the internet. This approach reduces the attack surface and minimizes the risk of external threats. To enforce corporate policies and compliance requirements more effectively, route all internet-bound traffic through an on-premises firewall or an NVA.</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10265,19 +10265,19 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>d17fbf01-c796-45dd-9ca4-99af38b2ae9b</t>
+          <t>7abca50a-05ca-41fc-8485-cd536ba9ec86</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="C314" t="inlineStr">
         <is>
-          <t>Review the list of Azure Firewall Known Issues.</t>
+          <t>Create rules for Firewall policies in an hierarchical structure to overlay a central base policy. For more information, see Use Azure Firewall policies to process rules. &lt;BR&gt;&lt;BR&gt; Create your rules based on the least-privilege access Zero Trust principle</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Azure Firewall Product Group maintains an updated list of known-issues at this location. This list contains important information related to by-design behavior, fixes under construction, platform limitations, along with possible workarounds or mitigation.</t>
+          <t>Organize rules in a hierarchical structure so that granular policies can meet the requirements of specific regions. Each policy can contain different sets of Destination Network Address Translation (DNAT), network, and application rules that have specific priorities, actions, and processing orders.</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10287,19 +10287,19 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>b7623c43-bb6b-4629-a655-551c92e2dffa</t>
+          <t>0d9c6369-6b1b-49db-8198-68f2344273d8</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="C315" t="inlineStr">
         <is>
-          <t>Ensure your Azure Firewall Policy adheres to Azure Firewall limits and recommendations.</t>
+          <t>Configure supported security partner providers within Firewall Manager to protect outbound connections. &lt;BR&gt;&lt;BR&gt; This scenario requires Virtual WAN with a S2S VPN gateway in the hub because it uses an IPsec tunnel to connect to the provider's infrastructure. Managed security service providers might charge extra license fees and limit throughput on IPsec connections. You can also use alternative solutions, such as Zscaler Cloud Connector.</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>There are limits on the policy structure, including numbers of Rules and Rule Collection Groups, total policy size, source/target destinations. Be sure to compose your policy and stay below the documented thresholds.</t>
+          <t>Enable security partner providers in Azure Firewall to take advantage of best-in-breed cloud security offerings, which provide advanced protection for your internet traffic. These providers offer specialized, user-aware filtering and comprehensive threat-detection capabilities that enhance your overall security posture.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10309,19 +10309,19 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>9230da4d-4e27-4106-9552-294b1a93d780</t>
+          <t>7bfae9e9-d97d-4d04-97a6-7eb31a73ed10</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="C316" t="inlineStr">
         <is>
-          <t>Deploy Azure Firewall across multiple availability zones for higher service-level agreement (SLA).</t>
+          <t>Enable Azure Firewall DNS proxy configuration. &lt;BR&gt;&lt;BR&gt; Also configure Azure Firewall to use custom DNS for forwarding DNS queries.</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Azure Firewall provides different SLAs when it's deployed in a single availability zone and when it's deployed in multiple zones. For more information, see SLA for Azure Firewall. For information about all Azure SLAs, see SLA summary for Azure services.</t>
+          <t>Enable this feature to point clients in the virtual networks to Azure Firewall as a DNS server. This feature protects internal DNS infrastructure that's not directly accessed and exposed.</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -10331,19 +10331,19 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>6a88967d-b182-437d-ac3b-1cb45ddfaa86</t>
+          <t>68949fe5-365d-4c55-b909-d52c39d24b6d</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="C317" t="inlineStr">
         <is>
-          <t>In multi-region environments, deploy an Azure Firewall instance per region.</t>
+          <t>Configure UDRs to force traffic through Azure Firewall in a traditional hub-and-spoke architecture for spoke-to-spoke, spoke-to-internet, and spoke-to-hybrid connectivity. &lt;BR&gt;&lt;BR&gt; In Virtual WAN, configure routing intent and policies to redirect private traffic or internet traffic through the Azure Firewall instance that's integrated into the hub. &lt;BR&gt;&lt;BR&gt; If you can't apply a UDR, and you only require web traffic redirection, use Azure Firewall as an explicit proxy on the outbound path. You can configure a proxy setting on the sending application, such as a web browser, when you configure Azure Firewall as a proxy.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>For traditional Hub &amp; Spokes architectures, multi-region details are explained in this article. For secured virtual hubs (Azure Virtual WAN), Routing Intent and Policies must be configured to secure inter-hub and branch-to-branch communications. For workloads designed to be resistant to failures and fault tolerant, remember to consider that instances of Azure Firewall and Azure Virtual Network as regional resources.</t>
+          <t>Send traffic through the firewall to inspect traffic and help identify and block malicious traffic. &lt;BR&gt;&lt;BR&gt; Use Azure Firewall as an explicit proxy for outbound traffic so that web traffic reaches the firewall's private IP address and therefore egresses directly from the firewall without using a UDR. This feature also facilitates the use of multiple firewalls without modifying existing network routes.</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10353,19 +10353,19 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>a4b78865-a047-4afc-b7e6-b2f54cee83cb</t>
+          <t>7269ebdb-4f21-41f7-846b-b0f90145a8ca</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="C318" t="inlineStr">
         <is>
-          <t>Monitor Azure Firewall Metrics and Resource Health state.</t>
+          <t>Use FQDN filtering in network rules. You must enable the Azure Firewall DNS proxy configuration to use FQDNs in your network rules.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Closely monitor key metrics indicator of Azure Firewall health state such as Throughput, Firewall health state, SNAT port utilization and AZFW Latency Probe metrics. Additionally, Azure Firewall now integrates with Azure Resource Health. With the Azure Firewall Resource Health check, you can now view the health status of your Azure Firewall and address service problems that might affect your Azure Firewall resource.</t>
+          <t>Use FQDNs in Azure Firewall network rules so that administrators can manage domain names instead of multiple IP addresses, which simplifies management. This dynamic resolution ensures that firewall rules automatically update when domain IPs change.</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10375,17 +10375,21 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>9621bb59-3034-4e42-8344-5ce24b47425b</t>
+          <t>dbcfaeb4-af8a-4536-aea5-b0941fe8cb1c</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="C319" t="inlineStr">
         <is>
-          <t>Determine if you need Forced Tunneling.</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr"/>
+          <t>Use Azure Firewall service tags in place of specific IP addresses to provide selective access to specific services in Azure, Microsoft Dynamics 365, and Microsoft 365.</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Use service tags in network rules so you can define access controls based on service names rather than specific IP addresses, which simplifies security management. Microsoft manages and updates these tags automatically when IP addresses change. This method ensures that your firewall rules remain accurate and effective without manual intervention.</t>
+        </is>
+      </c>
       <c r="F319" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10393,17 +10397,21 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>b0b563a2-ec75-4a12-981a-6c6138175122</t>
+          <t>a24f4843-209c-4f51-88e6-1908be48e722</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="C320" t="inlineStr">
         <is>
-          <t>Create rules for Policies based on least privilege access criteria.</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>Use FQDN tags in application rules to provide selective access to specific Microsoft services. &lt;BR&gt;&lt;BR&gt; You can use an FQDN tag in application rules to allow the required outbound network traffic through your firewall for specific Azure services, such as Microsoft 365, Windows 365, and Microsoft Intune.</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Use FQDN tags in Azure Firewall application rules to represent a group of FQDNs that are associated with well-known Microsoft services. This method simplifies the management of network security rules.</t>
+        </is>
+      </c>
       <c r="F320" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10411,17 +10419,21 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>c39df35c-43a4-4bc2-ae65-3201a1b274a4</t>
+          <t>4063f792-86cc-469b-9b6d-3c3d5e7f5d74</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="C321" t="inlineStr">
         <is>
-          <t>Leverage Threat Intelligence.</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>Enable threat intelligence on Azure Firewall in Alert and deny mode.</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Use threat intelligence to provide real-time protection against emerging threats, which reduces the risk of cyberattacks. This feature uses the Microsoft threat intelligence feed to automatically alert and block traffic from known malicious IP addresses, domains, and URLs.</t>
+        </is>
+      </c>
       <c r="F321" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10429,17 +10441,21 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>08bebd22-0d6a-469c-ae5b-fed8774452de</t>
+          <t>e8dcc3ab-b391-475c-8d78-cee55c784f06</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="C322" t="inlineStr">
         <is>
-          <t>Enable Azure Firewall DNS proxy.</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>Enable the IDPS in Alert or Alert and deny mode. Consider the performance impact of this feature.</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Enable IDPS filtering in Azure Firewall provides real-time monitoring and analysis of network traffic to detect and prevent malicious activities. This feature uses signature-based detection to swiftly identify known threats and block them before they cause harm.  For more information, see Detect abuse.</t>
+        </is>
+      </c>
       <c r="F322" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10447,17 +10463,21 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>89484b0c-7b36-4fa2-9064-ae6db7dc411a</t>
+          <t>053202f4-db7d-4b08-ad61-c5d0037b713a</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="C323" t="inlineStr">
         <is>
-          <t>Direct network traffic through Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>Use an internal enterprise certification authority (CA) to generate certificates when you use TLS inspection with Azure Firewall Premium. Use self-signed certificates only for testing and proof of concept (PoC) purposes.</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Enable TLS inspection so that Azure Firewall Premium terminates and inspects TLS connections to detect, alert, and mitigate malicious activity in HTTPS.</t>
+        </is>
+      </c>
       <c r="F323" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10465,17 +10485,21 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>a875d2e4-5476-450f-8206-aa79ecdcb2e3</t>
+          <t>ab822518-b2ff-4048-8e9f-5a86d431d063</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="C324" t="inlineStr">
         <is>
-          <t>Determine if you want to use third-party security as a service (SECaaS) providers.</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
+          <t>Use Firewall Manager to create and associate an Azure DDoS Protection plan with your hub virtual network. This approach doesn't apply to Virtual WAN.</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Configure an Azure DDoS Protection plan so that you can centrally manage DDoS protection alongside your firewall policies. This approach streamlines how you manage your network security and simplifies how you deploy and monitor processes.</t>
+        </is>
+      </c>
       <c r="F324" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10483,14 +10507,14 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>50dc96a3-9dca-4aab-97f5-9f8654d4f49c</t>
+          <t>05a6fac9-edc2-49bc-8bf8-17950c0cd710</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="C325" t="inlineStr">
         <is>
-          <t>Protect your Azure Firewall public IP addresses with DDoS.</t>
+          <t>Select an Azure Firewall SKU to deploy. Choose from three Azure Firewall SKUs: Basic, Standard, and Premium. Use Azure Firewall Premium to secure highly sensitive applications, such as payment processing. Use Azure Firewall Standard if your workload needs a Layer 3 to Layer 7 firewall and needs autoscaling to handle peak traffic periods of up to 30 Gbps. Use Azure Firewall Basic if you use SMB and require up to 250 Mbps of throughput. You can downgrade or upgrade between Standard and Premium SKUs. For more information, see Choose the right Azure Firewall SKU.</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
@@ -10501,21 +10525,17 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>98318578-48f2-4870-adc0-a6a2cf9ce25e</t>
+          <t>9220cde5-ecbc-4eb1-a5ac-65e56e2aa925</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="C326" t="inlineStr">
         <is>
-          <t>If required to route all internet-bound traffic to a designated next hop instead of going directly to the internet, configure Azure Firewall in forced tunneling mode (does not apply to Azure Virtual WAN).</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Azure Firewall must have direct internet connectivity. If your AzureFirewallSubnet learns a default route to your on-premises network via the Border Gateway Protocol, you must configure Azure Firewall in the forced tunneling mode. Using the forced tunneling feature, you'll need another /26 address space for the Azure Firewall Management subnet. You're required to name it AzureFirewallManagementSubnet.If this is an existing Azure Firewall instance that can't be reconfigured in the forced tunneling mode, create a UDR with a 0.0.0.0/0 route. Set the NextHopType value as Internet. Associate it with AzureFirewallSubnet to maintain internet connectivity.</t>
-        </is>
-      </c>
+          <t>Remove unused firewall deployments and optimize underused deployments. Stop Azure Firewall deployments that don't need to continuously run. Identify and delete unused Azure Firewall deployments. To reduce operational costs, monitor and optimize firewall instances usage, Azure Firewall Manager policies configuration, and the number of public IP addresses and policies that you use.</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10523,21 +10543,17 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>a845b563-f080-4a92-83b0-400feb87ee4e</t>
+          <t>54c37b38-2e3d-4cf9-b174-bee69a2a5b5d</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="C327" t="inlineStr">
         <is>
-          <t>Set the public IP address to None to deploy a fully private data plane when you configure Azure Firewall in the forced tunneling mode (does not apply to Azure Virtual WAN).</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>When you deploy a new Azure Firewall instance, if you enable the forced tunneling mode, you can set the public IP address to None to deploy a fully private data plane. However, the management plane still requires a public IP for management purposes only. The internal traffic from virtual and on-premises networks won't use that public IP. For more about forced tunneling, see Azure Firewall forced tunneling.</t>
-        </is>
-      </c>
+          <t>Share the same instance of Azure Firewall. You can use a central instance of Azure Firewall in the hub virtual network or Virtual WAN secure hub and share the same Azure Firewall instance across spoke virtual networks that connect to the same hub from the same region. Ensure that you don't have unexpected cross-region traffic in a hub-and-spoke topology.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10545,21 +10561,17 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>176ae9e3-7a07-4885-ab4e-72a9ea2ee7fc</t>
+          <t>a522ab1e-0659-43b3-9fad-906116bb1432</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="C328" t="inlineStr">
         <is>
-          <t>Create rules for Firewall Policies based on least privilege access criteria.</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Azure Firewall Policies can be arranged in an hierarchical structure to overlay a central base policy. Allow for granular policies to meet the requirements of specific regions. Each policy can contains different sets of DNAT, Network and Application rules with specific priority, action and processing order. Create your rules based on least privilege access Zero Trust principle . How rules are processed is explained in this article.</t>
-        </is>
-      </c>
+          <t>Optimize traffic through the firewall. Regularly review traffic that Azure Firewall processes. Find opportunities to reduce the amount of traffic that traverses the firewall.</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10567,21 +10579,17 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>f1c5e5d4-9e41-4b27-b53f-fb36ddce75b7</t>
+          <t>0976c680-8f44-46f9-ae4d-2349eaafd800</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="C329" t="inlineStr">
         <is>
-          <t>Enable IDPS in  Alert or Alert and deny mode.</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>IDPS is one of the most powerful Azure Firewall (Premium) security features and should be enabled. Based on security and application requirements, and considering the performance impact (see the Cost section below), Alert or Alert and deny modes can be selected.</t>
-        </is>
-      </c>
+          <t>Decrease the amount of log data that you store. Azure Firewall can use Azure Event Hubs to comprehensively log the traffic's metadata and send it to Log Analytics workspaces, Azure Storage, or non-Microsoft solutions. All logging solutions incur costs to process data and provide storage. Large amounts of data can incur significant costs. Consider a cost-effective approach and alternative to Log Analytics, and estimate the cost. Consider whether you need to log traffic metadata for all logging categories.</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10589,19 +10597,19 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>0722a8f4-bea5-4309-93de-d93fb93e0733</t>
+          <t>debc5298-dba5-4c67-a03a-1ca626025139</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="C330" t="inlineStr">
         <is>
-          <t>Enable Azure Firewall (DNS) proxy configuration.</t>
+          <t>Stop Azure Firewall deployments that don't need to continuously run. You might have development or testing environments that you only use during business hours. For more information, see Deallocate and allocate Azure Firewall.</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Enabling this feature points clients in the VNets to Azure Firewall as a DNS server. It will protect internal DNS infrastructure that will not be directly accessed and exposed. Azure Firewall must be also configured to use custom DNS that will be used to forward DNS queries.</t>
+          <t>Shut down these deployments during off-peak hours or when idle to reduce unnecessary expenses but maintain security and performance during critical times.</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10611,19 +10619,19 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>8afc40b9-179e-4b5d-ba89-897925ad6d09</t>
+          <t>c12bc13f-aeea-4f9c-a7c0-476028848d3c</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="C331" t="inlineStr">
         <is>
-          <t>Configure user-defined routes (UDR) to force traffic through Azure Firewall.</t>
+          <t>Regularly review traffic that Azure Firewall processes, and find originating workload optimizations. The top flows log, also known as the fat flows log, shows the top connections that contribute to the highest throughput through the firewall.</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>In a traditional Hub &amp; Spokes architecture, configure UDRs to force traffic through Azure Firewall for `Spoke-to-Spoke`, `Spoke-to-Internet`, and `Spoke-to-Hybrid` connectivity. In Azure Virtual WAN, instead, configure Routing Intent and Policies to redirect private and/or Internet traffic through the Azure Firewall instance integrated into the hub.</t>
+          <t>Optimize workloads that generate the most traffic through the firewall to reduce the volume of traffic, which decreases the load on the firewall and minimizes data-processing and bandwidth costs.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -10633,19 +10641,19 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>54cc495b-54f8-4dc9-9ed9-e20c15a8beb9</t>
+          <t>fcd6975c-5cb6-4716-9bab-fe8e7cd50e00</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="C332" t="inlineStr">
         <is>
-          <t>If not possible to apply UDR, and only web traffic redirection is required, consider using Azure Firewall as an Explicit Proxy</t>
+          <t>Identify and delete unused Azure Firewall deployments. Analyze monitoring metrics and UDRs that are associated with subnets that point to the firewall's private IP. Also consider other validations and internal documentation about your environment and deployments. For example, analyze any classic NAT, network, and application rules for Azure Firewall. And consider your settings. For example, you might configure the DNS proxy setting to Disabled.  For more information, see Monitor Azure Firewall.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>With explicit proxy feature enabled on the outbound path, you can configure a proxy setting on the sending web application (such as a web browser) with Azure Firewall configured as the proxy. As a result, web traffic will reach the firewall's private IP address and therefore egresses directly from the firewall without using a UDR. This feature also facilitates the usage of multiple firewalls without modifying existing network routes.</t>
+          <t>Use this approach to detect cost-effective deployments over time and eliminate unused resources, which prevents unnecessary costs.</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -10655,19 +10663,19 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>18462426-38d0-444b-aaec-99aa97aefc57</t>
+          <t>06d0aca0-59c3-4474-aea8-314ebc1d4367</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="C333" t="inlineStr">
         <is>
-          <t>Configure supported third-party software as a service (SaaS) security providers within Firewall Manager if you want to use these solutions to protect outbound connections.</t>
+          <t>Review your Firewall Manager policies, associations, and inheritance carefully to optimize cost. Policies are billed based on firewall associations. A policy with zero or one firewall association is free. A policy with multiple firewall associations is billed at a fixed rate. For more information, see Firewall Manager pricing.</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>You can use your familiar, best-in-breed, third-party SECaaS offerings to protect internet access for your users. This scenario does require Azure Virtual WAN with a S2S VPN Gateway in the Hub, as it uses an IPSec tunnel to connect to the provider's infrastructure. SECaaS providers might charge additional license fees and limit throughput on IPSec connections. Alternative solutions such as ZScaler Cloud Connector exist and might be more suitable.</t>
+          <t>Properly use Firewall Manager and its policies to reduce operational costs, increase efficiency, and reduce management overhead.</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -10677,19 +10685,19 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>cfcce0d3-c52d-4405-9316-d503ffcf5349</t>
+          <t>0afd66fd-36c6-44ad-8e71-cd3b247c6816</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="C334" t="inlineStr">
         <is>
-          <t>Use Fully Qualified Domain Name (FQDN) filtering in network rules.</t>
+          <t>Review all the public IP addresses in your configuration, and disassociate and delete the ones that you don't use. Evaluate source network address translation (SNAT) port usage before you remove any IP addresses.  For more information, see Monitor Azure Firewall logs and metrics and SNAT port usage.</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>You can use FQDN based on DNS resolution in Azure Firewall and firewall policies. This capability allows you to filter outbound traffic with any TCP/UDP protocol (including NTP, SSH, RDP, and more). You must enable the Azure Firewall DNS Proxy configuration to use FQDNs in your network rules. To learn how it works, see Azure Firewall FQDN filtering in network rules.</t>
+          <t>Delete unused IP addresses to reduce costs.</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -10699,21 +10707,17 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>ce2815a6-eee5-4c54-91e7-9ee1e95a191a</t>
+          <t>2cbff8d4-4f59-42dc-b186-58f7c4965dbe</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="C335" t="inlineStr">
         <is>
-          <t>Use Service Tags in Network Rules to enable selective access to specific Microsoft services.</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>A service tag represents a group of IP address prefixes to help minimize complexity for security rule creation. Using Service Tags in Network Rules, it is possible to enable outbound access to specific services in Azure, Dynamics and Office 365 without opening wide ranges of IP addresses. Azure will maintain automatically the mapping between these tags and underlying IP addresses used by each service. The list of Service Tags available to Azure Firewall are listed here: Az Firewall Service Tags.</t>
-        </is>
-      </c>
+          <t>Use Firewall Manager with traditional hub-and-spoke topologies or Virtual WAN network topologies to deploy and manage instances of Azure Firewall. Use native security services for traffic governance and protection to create hub-and-spoke and transitive architectures. For more information, see Network topology and connectivity.</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10721,21 +10725,17 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>55fe92cd-c2a0-4b0b-bd8b-691291c73651</t>
+          <t>733bab93-bd9d-43c1-a780-e977d8f4fd3d</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="C336" t="inlineStr">
         <is>
-          <t>Use FQDN Tags in Application Rules to enable selective access to specific Microsoft services.</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>An FQDN tag represents a group of fully qualified domain names (FQDNs) associated with well known Microsoft services. You can use an FQDN tag in application rules to allow the required outbound network traffic through your firewall for some specific Azure services, Office 365, Windows 365 and Intune.</t>
-        </is>
-      </c>
+          <t>Maintain regular backups of Azure Policy artifacts. If you use an infrastructure-as-code approach to maintain Azure Firewall and all dependencies, you should have backup and versioning of Azure Firewall policies in place. If you don't, you can deploy a companion mechanism that's based on an external logic app to provide an effective automated solution.</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10743,21 +10743,17 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>c9cac1b2-3969-4de0-b36f-6f9992d9ebc6</t>
+          <t>8271c7ff-1472-4a86-ab05-0538a869631c</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="C337" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager to create and associate a DDoS protection plan with your hub virtual network (does not apply to Azure Virtual WAN).</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>A DDoS protection plan provides enhanced mitigation features to defend your firewall from DDoS attacks. Azure Firewall Manager is an integrated tool to create your firewall infrastructure and DDoS protection plans. For more information, see Configure an Azure DDoS Protection Plan using Azure Firewall Manager.</t>
-        </is>
-      </c>
+          <t>Monitor Azure Firewall logs and metrics. Take advantage of diagnostic logs for firewall monitoring and troubleshooting and activity logs for auditing operations.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10765,21 +10761,17 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>e7925fd9-7502-4cb4-9b51-cbf8f546a5b2</t>
+          <t>09e15d81-89b9-458e-85a1-98ea29c9c72f</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="C338" t="inlineStr">
         <is>
-          <t>Use an Enterprise PKI to generate certificates for TLS Inspection.</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>With Azure Firewall Premium, if TLS Inspection feature is used, it is recommended to leverage an internal Enterprise Certification Authority (CA) for production environment. Self-signed certificates should be used for testing/PoC purposes only.</t>
-        </is>
-      </c>
+          <t>Analyze monitoring data to assess the overall health of the system. Use the built-in Azure Firewall monitoring workbook, familiarize yourself with Kusto Query Language (KQL) queries, and use the policy analytics dashboard to identify potential problems.</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10787,21 +10779,17 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>2e318870-f258-484d-aef6-ed2972db1f44</t>
+          <t>ab3610c2-56cf-4888-8bb3-fe3816ee0d11</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="C339" t="inlineStr">
         <is>
-          <t>Review Zero-Trust configuration guide for Azure Firewall and Application Gateway</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>If your security requirements necessitate implementing a Zero-Trust approach for web applications (inspection and encryption), it is recommended to follow this guide. In this document, how to integrate together Azure Firewall and Application Gateway will be explained, in both traditional Hub &amp; Spoke and Virtual WAN scenarios.</t>
-        </is>
-      </c>
+          <t>Define alerts for key events so that operators can quickly respond to them.</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10809,14 +10797,14 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>34821124-0275-4c49-8f1c-20eb84027df3</t>
+          <t>67eb37ee-d9b8-4aff-8aa3-71011176aa0a</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="C340" t="inlineStr">
         <is>
-          <t>Select the Azure Firewall SKU to deploy.</t>
+          <t>Take advantage of platform-provided detection mechanisms in Azure to detect abuse. Integrate Azure Firewall with Microsoft Defender for Cloud and Microsoft Sentinel if possible. Integrate with Defender for Cloud so you can visualize the status of network infrastructure and network security in one place, including Azure network security across all virtual networks and virtual hubs in different regions in Azure. Integrate with Microsoft Sentinel to provide threat-detection and prevention capabilities.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
@@ -10827,17 +10815,21 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>ffdfd2b7-e799-4c09-9c76-1471fe5f8db9</t>
+          <t>5a8645c5-e586-4562-9f0a-7893542586fd</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="C341" t="inlineStr">
         <is>
-          <t>Determine if some instances don't need permanent 24x7 allocation.</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t>Enable diagnostic logs for Azure Firewall. Use firewall logs or workbooks to monitor Azure Firewall. You can also use activity logs to audit operations on Azure Firewall resources.  Use the structured firewall logs format. Only use the previous diagnostic logs format if you have an existing tool that requires it. Don't enable both logging formats at the same time.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Enable diagnostic logs to optimize your monitoring tools and strategies for Azure Firewall.  Use structured firewall logs to structure log data so that it's easy to search, filter, and analyze. The latest monitoring tools are based on this type of log, so it's often a prerequisite.</t>
+        </is>
+      </c>
       <c r="F341" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10845,17 +10837,21 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>cca81cf9-4d7f-4e04-99e9-8ecfb533d814</t>
+          <t>1069db41-1f8c-43b3-a25f-9981cc78e397</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="C342" t="inlineStr">
         <is>
-          <t>Determine where you can optimize firewall use across workloads.</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>Use the built-in Azure Firewall workbook.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Use the Azure Firewall workbook to extract valuable insights from Azure Firewall events, analyze your application and network rules, and examine statistics about firewall activities across URLs, ports, and addresses.</t>
+        </is>
+      </c>
       <c r="F342" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10863,17 +10859,21 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>50c204ab-2e28-456c-a731-3ecf2e38d6d7</t>
+          <t>3e10f8ea-c20e-4374-9e58-52969a407dc5</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="C343" t="inlineStr">
         <is>
-          <t>Monitor and optimize firewall instances usage to determine cost-effectiveness.</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr"/>
+          <t>Monitor Azure Firewall logs and metrics, and create alerts for Azure Firewall capacity. Create alerts to monitor Throughput, Firewall health state, SNAT port utilization, and AZFW latency probe metrics.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Set up alerts for key events to notify operators before potential problems arise, help prevent disruptions, and initiate quick capacity adjustments.</t>
+        </is>
+      </c>
       <c r="F343" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10881,17 +10881,21 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>365207d2-1008-4a6e-ad87-f4191a31a004</t>
+          <t>7f972e0f-0259-4783-b9e6-82c278711b0f</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="C344" t="inlineStr">
         <is>
-          <t>Review and optimize the number of public IP addresses required and Policies used.</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t>Regularly review the policy analytics dashboard to identify potential problems.</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Use policy analytics to analyze the impact of your Azure Firewall policies. Identify potential problems in your policies, such as meeting policy limits, improper rules, and improper IP groups usage. Get recommendations to improve your security posture and rule-processing performance.</t>
+        </is>
+      </c>
       <c r="F344" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10899,17 +10903,21 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>39b1fd82-3efb-459b-b789-a9dc631f9f90</t>
+          <t>90c06dd6-c01a-4f49-9054-7073f5c774ae</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="C345" t="inlineStr">
         <is>
-          <t>Review logging requirements, estimate cost and control over time.</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>Understand KQL queries so you can use Azure Firewall logs to quickly analyze and troubleshoot problems. Azure Firewall provides sample queries.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Use KQL queries to quickly identify events inside your firewall and check to see which rule is triggered or which rule allows or blocks a request.</t>
+        </is>
+      </c>
       <c r="F345" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10917,21 +10925,17 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>46753a55-3740-4a6d-808b-fbe485bc66e5</t>
+          <t>a3aa7729-46bd-4de6-82e6-28ac9d631b7a</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="C346" t="inlineStr">
         <is>
-          <t>Deploy the proper Azure Firewall SKU.</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Azure Firewall can be deployed in three different SKUs: Basic, Standard and Premium. Azure Firewall Premium is recommended to secure highly sensitive applications (such as payment processing). Azure Firewall Standard is recommended for customers looking for Layer 3–Layer 7 firewall and needs autoscaling to handle peak traffic periods of up to 30 Gbps. Azure Firewall Basic is recommended for SMB customers with throughput needs of 250 Mbps. If required, downgrade or upgrade is possible between Standard and Premium as documented here.   For more information, see Choose the right Azure Firewall SKU to meet your needs.</t>
-        </is>
-      </c>
+          <t>Optimize your Azure Firewall configuration in accordance with the Well-Architected Framework recommendations to optimize code and infrastructure and ensure peak operation. To maintain an efficient and secure network, regularly review and optimize firewall rules. This practice helps ensure that your firewall configurations remain effective and up to date with the latest security threats.</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10939,21 +10943,17 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>ba45f704-2456-4d6a-999d-57db4dbf3ff5</t>
+          <t>9e42071b-fe43-455d-afa9-5ed2c33c7d20</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="C347" t="inlineStr">
         <is>
-          <t>Stop Azure Firewall deployments that don't need to run for 24x7.</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>You might have development or testing environments that are used only during business hours. For more information, see Deallocate and allocate Azure Firewall.</t>
-        </is>
-      </c>
+          <t>Don't use Azure Firewall for intra-virtual network traffic control. Use Azure Firewall to control the following types of traffic:</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10961,21 +10961,17 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>2ef42b67-50cc-4d54-bd3d-324ad2044fc7</t>
+          <t>1655f213-e590-45ee-8819-9a5e40f83430</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="C348" t="inlineStr">
         <is>
-          <t>Share the same instance of Azure Firewall across multiple workloads and Azure Virtual Networks.</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>You can use a central instance of Azure Firewall in the hub virtual network or Virtual WAN secure hub and share the same firewall across many spoke virtual networks that are connected to the same hub from the same region. Ensure there's no unexpected cross-region traffic as part of the hub-spoke topology.</t>
-        </is>
-      </c>
+          <t>Warm up Azure Firewall properly before performance tests. Create initial traffic that isn't part of your load tests 20 minutes before your tests. Use diagnostics settings to capture scale-up and scale-down events. You can use the Azure Load Testing service to generate the initial traffic so you can scale up Azure Firewall to the maximum number of instances.</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -10983,21 +10979,17 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>ae5816a1-1766-425a-a117-2873865a9f10</t>
+          <t>c3ae17a3-eff4-4f6e-98b9-df3a59bacfd9</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="C349" t="inlineStr">
         <is>
-          <t>Regularly review traffic processed by Azure Firewall and look for originating workload optimizations</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>Top Flows log (known in the industry as Fat Flows), shows the top connections that are contributing to the highest throughput through the firewall. It is recommended to regularly review traffic processed by the Azure Firewall and search for possible optimizations to reduce the amount of traffic traversing the firewall.</t>
-        </is>
-      </c>
+          <t>Configure an Azure Firewall subnet with a /26 address space. You need a dedicated subnet for Azure Firewall. Azure Firewall provisions more capacity as it scales.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11005,21 +10997,17 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>791f974e-8c73-46ee-9b9e-26dd3a6c6845</t>
+          <t>df91da5c-22c8-4c7c-bfe5-9a1ede0028d9</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="C350" t="inlineStr">
         <is>
-          <t>Review under-utilized Azure Firewall instances. Identify and delete unused Azure Firewall deployments.</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>To identify unused Azure Firewall deployments, start by analyzing the monitoring metrics and UDRs associated with subnets pointing to the firewall's private IP. Combine that information with other validations, such as if your instance of Azure Firewall has any rules (classic) for NAT, Network and Application, or even if the DNS Proxy setting is configured to Disabled, and with internal documentation about your environment and deployments. You can detect deployments that are cost-effective over time.  For more information about monitoring logs and metrics, see Monitor Azure Firewall logs and metrics and SNAT port utilization.</t>
-        </is>
-      </c>
+          <t>Don't enable advanced logging if you don't need it. Azure Firewall provides some advanced logging capabilities that can incur significant costs to keep active. Instead, you can use these capabilities for troubleshooting purposes only and for limited amounts of time. Disable capabilities when you don't need them. For example, top flows and flow trace logs are expensive and can cause excessive CPU and storage usage on the Azure Firewall infrastructure.</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11027,19 +11015,19 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>6590ab7b-01d8-487c-ad40-c325eada375c</t>
+          <t>ddf79c25-05f6-4085-94c4-9534ec1a05fa</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="C351" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager and its Policies to reduce operational costs, increase efficiency, and reduce management overhead.</t>
+          <t>Use the policy analytics dashboard to identify ways to optimize Azure Firewall policies.</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Review your Firewall Manager policies, associations, and inheritance carefully. Policies are billed based on firewall associations. A policy with zero or one firewall association is free of charge. A policy with multiple firewall associations is billed at a fixed rate.For more information, see Pricing - Azure Firewall Manager.</t>
+          <t>Use policy analytics to identify potential problems in your policies, such as meeting policy limits, improper rules, and improper IP groups usage. Get recommendations to improve your security posture and rule-processing performance.</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11049,19 +11037,19 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>c82f1a0b-3dd1-4da7-9006-5b870e0ea843</t>
+          <t>9a20f369-25cd-45ba-bda7-e56f1e379e15</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="C352" t="inlineStr">
         <is>
-          <t>Delete unused public IP addresses.</t>
+          <t>Place frequently used rules early in a group to optimize latency for Azure Firewall policies that have large rule sets.  For more information, see Use Azure Firewall policies to process rules.</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Validate whether all the associated public IP addresses are in use. If they aren't in use, disassociate and delete them. Evaluate SNAT port utilization before removing any IP addresses.You'll only use the number of public IPs your firewall needs. For more information, see Monitor Azure Firewall logs and metrics and SNAT port utilization.</t>
+          <t>Place frequently used rules high in a rule set to optimize processing latency. Azure Firewall processes rules based on the rule type, inheritance, rule collection group priority, and rule collection priority. Azure Firewall processes high-priority rule collection groups first. Inside a rule collection group, Azure Firewall processes rule collections that have the highest priority first.</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11071,19 +11059,19 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>58401f6a-8858-4d03-bf00-7f6d8747297a</t>
+          <t>ce0fa221-61f9-41ab-a9ed-233f5546d732</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="C353" t="inlineStr">
         <is>
-          <t>Review logging requirements.</t>
+          <t>Use IP groups to summarize IP address ranges and avoid exceeding the limit of unique source or unique destination network rules. Azure Firewall treats the IP group as a single address when you create network rules.</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Azure Firewall has the ability to comprehensively log metadata of all traffic it sees, to Log Analytics Workspaces, Storage or third party solutions through Event Hubs. However, all logging solutions incur costs for data processing and storage. At very large volumes these costs can be significant, a cost effective approach and alternative to Log Analytics should be considered and cost estimated. Consider whether it is required to log traffic metadata for all logging categories and modify in Diagnostic Settings if needed.</t>
+          <t>This approach effectively increases the number of IP addresses that you can cover without exceeding the limit. For each rule, Azure multiplies ports by IP addresses. So, if one rule has four IP address ranges and five ports, you consume 20 network rules.</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11093,17 +11081,21 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>a9f71813-ccf8-427a-9ce3-676b4123eff4</t>
+          <t>1d2f023e-7dcf-4f55-b07f-1a93c9c0ab4e</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="C354" t="inlineStr">
         <is>
-          <t>Maintain inventory and backup of Azure Firewall configuration and Policies.</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>Use Azure Firewall web categories to allow or deny outbound access in bulk, instead of explicitly building and maintaining a long list of public internet sites.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>This feature dynamically categorizes web content and permits the creation of compact application rules, which reduces operational overhead.</t>
+        </is>
+      </c>
       <c r="F354" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11111,17 +11103,21 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>c8e11b57-bc16-4a60-9c0d-aeae7239fe91</t>
+          <t>2007a892-6911-4310-b6eb-5eb3660dc8c9</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="C355" t="inlineStr">
         <is>
-          <t>Leverage diagnostic logs for firewall monitoring and troubleshooting.</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+          <t>Evaluate the performance impact of IDPS in Alert and deny mode. For more information, see Azure Firewall performance.</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Enable IDPS in Alert and deny mode to detect and prevent malicious network activity. This feature might introduce a performance penalty. Understand the effect on your workload so you can plan accordingly.</t>
+        </is>
+      </c>
       <c r="F355" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11129,17 +11125,21 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>be3e8ab7-db2a-40f7-a76a-fba15b34b88d</t>
+          <t>984c7d68-82f6-48e9-a894-a8e7717d49e2</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="C356" t="inlineStr">
         <is>
-          <t>Leverage Azure Firewall Monitoring workbook.</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>Configure Azure Firewall deployments with a minimum of five public IP addresses for deployments that are susceptible to SNAT port exhaustion.</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Azure Firewall supports 2,496 ports for each public IP address that each back-end Azure Virtual Machine Scale Sets instance uses. This configuration increases the available SNAT ports by five times.  By default, Azure Firewall deploys two Virtual Machine Scale Sets instances that support 4,992 ports for each flow destination IP, destination port, and TCP or UDP protocol. The firewall scales up to a maximum of 20 instances.</t>
+        </is>
+      </c>
       <c r="F356" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11147,14 +11147,14 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>af454d15-f640-47db-9864-7c31cbdcdffc</t>
+          <t>899877c6-618a-4814-953a-7c7ce430e407</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="C357" t="inlineStr">
         <is>
-          <t>Regularly review your Policy insights and analytics.</t>
+          <t>Estimate the traffic pattern and volume. The number of requests from the client to the Azure Front Door edge might influence your tier choice. If you need to support a high volume of requests, consider the Azure Front Door Premium tier because performance ultimately impacts availability. However, there's a cost tradeoff. These tiers are described in Performance Efficiency.</t>
         </is>
       </c>
       <c r="D357" t="inlineStr"/>
@@ -11165,14 +11165,14 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>010e0c46-9d19-46fb-9a85-4bb79828db8a</t>
+          <t>59ed40bd-06a0-4125-ab99-afc88a248aa5</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="C358" t="inlineStr">
         <is>
-          <t>Integrate Azure Firewall with Microsoft Defender for Cloud and Microsoft Sentinel.</t>
+          <t>Choose your deployment strategy. The fundamental deployment approaches are active-active and active-passive. Active-active deployment means that multiple environments or stamps that run the workload serve traffic. Active-passive deployment means that only the primary region handles all traffic, but it fails over to the secondary region when necessary. In a multiregion deployment, stamps run in different regions for higher availability with a global load balancer, like Azure Front Door, that distributes traffic. Therefore, it's important to configure the load balancer for the appropriate deployment approach.</t>
         </is>
       </c>
       <c r="D358" t="inlineStr"/>
@@ -11183,21 +11183,17 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>e455cf35-374c-4e02-9432-e0dc531b829b</t>
+          <t>51f023f3-53b4-4878-8548-2b08a6b095ab</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="C359" t="inlineStr">
         <is>
-          <t>Do not use Azure Firewall for intra-VNet traffic control.</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Azure Firewall should be used to control traffic across VNets, between VNets and on-premises networks, outbound traffic to the Internet and incoming non-HTTP/s traffic. For intra-VNet traffic control, it is recommended to use Network Security Groups.</t>
-        </is>
-      </c>
+          <t>Use the same host name on Azure Front Door and origin servers. To ensure that cookies or redirect URLs work properly, preserve the original HTTP host name when you use a reverse proxy, like a load balancer, in front of a web application.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11205,21 +11201,17 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>337df674-237d-4b82-ac92-ae45f34a6e3d</t>
+          <t>486f318a-8747-45e5-a5f4-97642d4fada6</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="C360" t="inlineStr">
         <is>
-          <t>Maintain regular backups of Azure Policy artifacts.</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>If Infrastructure-as-Code (IaC) approach is used to maintain Azure Firewall and all dependencies then backup and versioning of Azure Firewall Policies should be already in place. If not, a companion mechanism based on external Logic App can be deployed to automate and provide an effective solution.</t>
-        </is>
-      </c>
+          <t>Implement the health endpoint monitoring pattern. Your application should expose health endpoints, which aggregate the state of the critical services and dependencies that your application needs to serve requests. Azure Front Door health probes use the endpoint to detect origin servers' health. For more information, see Health Endpoint Monitoring pattern.</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11227,21 +11219,17 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>174e4ca6-77d4-4b83-8f05-0c54c43792ec</t>
+          <t>9bc96e35-d25f-4521-86f8-8cadefb23576</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="C361" t="inlineStr">
         <is>
-          <t>Enable Diagnostic Logs for Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>Diagnostic Logs is a key component for many monitoring tools and strategies for Azure Firewall and should be enabled. You can monitor Azure Firewall by using firewall logs or workbooks. You can also use activity logs for auditing operations on Azure Firewall resources.</t>
-        </is>
-      </c>
+          <t>Take advantage of the built-in content delivery network functionality in Azure Front Door. The content delivery network feature of Azure Front Door has hundreds of edge locations and can help withstand distributed denial of service (DDoS) attacks. These capabilities help improve reliability.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11249,21 +11237,17 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>7e27b44b-e8c0-4f25-9fce-78a85810d715</t>
+          <t>96c8dc89-cafe-411e-9080-35c13fffb8b3</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="C362" t="inlineStr">
         <is>
-          <t>Use Structured Firewall Logs format.</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>Structured Firewall Logs are a type of log data that are organized in a specific new format. They use a predefined schema to structure log data in a way that makes it easy to search, filter, and analyze. The latest monitoring tools are based on this type of logs hence it is often a pre-requisite. Use the previous Diagnostic Logs format only if there is an existing tool with a pre-requisite on that. Do not enable both logging formats at the same time.</t>
-        </is>
-      </c>
+          <t>Consider a redundant traffic management option. Azure Front Door is a globally distributed service that runs as a singleton in an environment. Azure Front Door is a potential single point of failure in the system. If the service fails, then clients can't access your application during the downtime.</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11271,19 +11255,19 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>078ab6f4-2ef5-4f91-856c-be9e3c2748a1</t>
+          <t>750bc3ba-30aa-44fc-88aa-bc93cdf29cdf</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="C363" t="inlineStr">
         <is>
-          <t>Use the built-in Azure Firewall Monitoring Workbook.</t>
+          <t>Choose a routing method that supports your deployment strategy.  The weighted method, which distributes traffic based on the configured weight coefficient, supports active-active models.  A priority-based value that configures the primary region to receive all traffic and send traffic to the secondary region as a backup supports active-passive models.  Combine the preceding methods with latency so that the origin with the lowest latency receives traffic.</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Azure Firewall portal experience now includes a new workbook under the Monitoring section UI, a separate installation is no longer required. With the Azure Firewall Workbook, you can extract valuable insights from Azure Firewall events, delve into your application and network rules, and examine statistics regarding firewall activities across URLs, ports, and addresses.</t>
+          <t>You can select the best origin resource by using a series of decision steps and your design. The selected origin serves traffic within the allowable latency range in the specified ratio of weights.</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -11293,19 +11277,19 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>a246ca16-d2da-4ebc-ad28-0bcbb0813be0</t>
+          <t>1a6fba56-5098-4506-9be0-940fe556996c</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="C364" t="inlineStr">
         <is>
-          <t>Monitor key metrics and create alerts for indicators of the utilization of Azure Firewall capacity.</t>
+          <t>Support redundancy by having multiple origins in one or more back-end pools. Always have redundant instances of your application and make sure each instance exposes an endpoint or origin. You can place those origins in one or more back-end pools.</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Alerts should be created to monitor at least Throughput, Firewall health state, SNAT port utilization and AZFW Latency Probe metrics.For information about monitoring logs and metrics, see Monitor Azure Firewall logs and metrics.</t>
+          <t>Multiple origins support redundancy by distributing traffic across multiple instances of the application. If one instance is unavailable, then other back-end origins can still receive traffic.</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -11315,19 +11299,19 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>0c405dff-403a-4ead-94d9-5539ba1eaea6</t>
+          <t>00f51ce2-46a9-4051-ab0e-762743d0837d</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="C365" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall integration with Microsoft Defender for Cloud and Microsoft Sentinel.</t>
+          <t>Set up health probes on the origin. Configure Azure Front Door to conduct health checks to determine if the back-end instance is available and ready to continue receiving requests.</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>If these tools are available in the environment, it is recommended to leverage integration with Microsoft Defender for Cloud and Microsoft Sentinel solutions. With Microsoft Defender for Cloud integration, you can visualize the all-up status of network infrastructure and network security in one place, including Azure Network Security across all VNets and Virtual Hubs spread across different regions in Azure. Integration with Microsoft Sentinel provides threat detection and prevention capabilities.</t>
+          <t>Enabled health probes are part of the health monitoring pattern implementation. Health probes make sure that Azure Front Door only routes traffic to instances that are healthy enough to handle requests.  For more information, see Best practices on health probes.</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -11337,19 +11321,19 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>6643f4d1-ee99-4466-9175-164787d00fc3</t>
+          <t>17fbec2c-ddb4-4490-946c-a151ae0fadd4</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="C366" t="inlineStr">
         <is>
-          <t>Regularly review Policy Analytics dashboard to identify potential issues.</t>
+          <t>Set a timeout on forwarding requests to the back end.  Adjust the timeout setting according to your endpoints' needs. If you don't, Azure Front Door might close the connection before the origin sends the response.  You can also lower the default timeout for Azure Front Door if all of your origins have a shorter timeout.  For more information, see Troubleshooting unresponsive requests.</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Policy Analytics is a new feature that provides insights into the impact of your Azure Firewall policies. It helps you identify potential issues (hitting policy limits, low utilization rules, redundant rules, rules too generic, IP Groups usage recommendation) in your policies and provides recommendations to improve your security posture and rule processing performance.</t>
+          <t>Timeouts help prevent performance issues and availability issues by terminating requests that take longer than expected to complete.</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -11359,19 +11343,19 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>43d91873-4442-40ae-b2a3-263bc7fdcaab</t>
+          <t>1a308f11-1d93-4d57-bd84-cbd8f6198dd2</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="C367" t="inlineStr">
         <is>
-          <t>Become familiar with KQL (Kusto Query Language) queries to allow quick analysis and troubleshooting using Azure Firewall logs.</t>
+          <t>Use the same host name on Azure Front Door and your origin. Azure Front Door can rewrite the host header of incoming requests, which is useful when you have multiple custom domain names that route to one origin. However, rewriting the host header might cause issues with request cookies and URL redirection.</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Sample queries are provided for Azure Firewall. Those will enable you to quickly identify what's happening inside your firewall and check to see which rule was triggered, or which rule is allowing/blocking a request.</t>
+          <t>Set the same host name to prevent malfunction with session affinity, authentication, and authorization. For more information, see Preserve the original HTTP host name between a reverse proxy and its back-end web application.</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -11381,17 +11365,21 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>8bc24ea6-da9e-48b8-a05c-4fce251d2046</t>
+          <t>7af90aa7-b21f-432f-858b-2d872c752d7f</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="C368" t="inlineStr">
         <is>
-          <t>Regularly review and optimize firewall rules.</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
+          <t>Decide if your application requires session affinity. If you have high reliability requirements, we recommend that you disable session affinity.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>With session affinity, user connections stay on the same origin during the user session. If that origin becomes unavailable, the user experience might be disrupted.</t>
+        </is>
+      </c>
       <c r="F368" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11399,17 +11387,21 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>9469b3e2-6be2-470b-a10b-9fb0150c5733</t>
+          <t>f66a8d49-8d0a-4952-9db2-ac2e526f08ad</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="C369" t="inlineStr">
         <is>
-          <t>Review policy requirements and opportunities to summarize IP ranges and URLs list.</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>Take advantage of the rate-limiting rules that are included with a web application firewall (WAF).</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Limit requests to prevent clients from sending too much traffic to your application. Rate limiting can help you avoid problems like a retry storm.</t>
+        </is>
+      </c>
       <c r="F369" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11417,14 +11409,14 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>9efe3606-1aa2-4e06-bf6a-2e5214cf080f</t>
+          <t>63faaf18-da4b-4274-ac3c-d955f2a2e01b</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="C370" t="inlineStr">
         <is>
-          <t>Assess your SNAT port requirements.</t>
+          <t>Review the security baseline for Azure Front Door.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
@@ -11435,14 +11427,14 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>93db9b9d-c43d-47e2-a1cf-e81841274059</t>
+          <t>ad186a96-5de2-4bf7-acd4-5b534cdb3e97</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="C371" t="inlineStr">
         <is>
-          <t>Plan load tests to test auto-scale performance in your environment.</t>
+          <t>Protect the back-end servers. The front end acts as the single point of ingress to the application.</t>
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
@@ -11453,14 +11445,14 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>fbe59997-e12b-497b-bdbd-d2a5e3f728e7</t>
+          <t>b31346d7-4fde-42c2-82fe-2e4d54aa8f1b</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="C372" t="inlineStr">
         <is>
-          <t>Do not enable diagnostic tools and logging if not required.</t>
+          <t>Allow only authorized access to the control plane. Use Azure Front Door role-based access control (RBAC) to restrict access to only the identities that need it.</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
@@ -11471,21 +11463,17 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>c68f8c08-fe1e-4515-a877-67daaa008ab0</t>
+          <t>903b1844-994a-49e8-8e08-6ef445aec4f7</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="C373" t="inlineStr">
         <is>
-          <t>Use Policy Analytics dashboard to identify potential optimizations for Firewall Policies.</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Policy Analytics is a new feature that provides insights into the impact of your Azure Firewall policies. It helps you identify potential issues (hitting policy limits, low utilization rules, redundant rules, rules too generic, IP Groups usage recommendation) in your policies and provides recommendations to improve your security posture and rule processing performance.</t>
-        </is>
-      </c>
+          <t>Block common threats at the edge. WAF is integrated with Azure Front Door. Enable WAF rules on the front ends to protect applications from common exploits and vulnerabilities at the network edge, closer to the attack source.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11493,21 +11481,17 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>cbbaf175-2b8e-4a1f-af5a-a9cbfb798ffb</t>
+          <t>329c0516-9a14-45ea-ad04-fe75453c8d88</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="C374" t="inlineStr">
         <is>
-          <t>Consider Web Categories to allow or deny outbound access in bulk.</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>Instead of explicitly building and maintaining a long list of public Internet sites, consider the usage of Azure Firewall Web Categories. This feature will dynamically categorize web content and will permit the creation of compact Application Rules.</t>
-        </is>
-      </c>
+          <t>Protect Azure Front Door against unexpected traffic. Azure Front Door uses the basic plan of Azure DDoS protection to protect application endpoints from DDoS attacks. If you need to expose other public IP addresses from your application, consider adding the DDoS Protection standard plan for those addresses for advanced protection and detection capabilities.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11515,21 +11499,17 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>b8bc28b7-69d4-49d3-8a1e-8dd7ba71ebbe</t>
+          <t>d323ca3c-f7df-4f7e-b7c9-698d2bdad3e2</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="C375" t="inlineStr">
         <is>
-          <t>Evaluate the performance impact of IDPS in Alert and deny mode.</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>If Azure Firewall is required to operate in IDPS mode Alert and deny, carefully consider the performance impact as documented in firewall performance.</t>
-        </is>
-      </c>
+          <t>Protect data in transit. Enable end-to-end Transport Layer Security (TLS), HTTP to HTTPS redirection, and managed TLS certificates when applicable. For more information, see TLS best practices for Azure Front Door.</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11537,21 +11517,17 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>b91be607-0c6b-4c0d-bdd2-367879f7632d</t>
+          <t>fcb4a654-3e3b-408c-9538-a1dfefdef774</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="C376" t="inlineStr">
         <is>
-          <t>Assess potential SNAT port exhaustion problem.</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Azure Firewall currently supports 2496 ports per Public IP address per backend Virtual Machine Scale Set instance. By default, there are two Virtual Machine Scale Set instances. So, there are 4992 ports per flow destination IP, destination port and protocol (TCP or UDP). The firewall scales up to a maximum of 20 instances. You can work around the limits by configuring Azure Firewall deployments with a minimum of five public IP addresses for deployments susceptible to SNAT exhaustion.</t>
-        </is>
-      </c>
+          <t>Monitor anomalous activity. Regularly review the logs to check for attacks and false positives. Send WAF logs from Azure Front Door to your organization's centralized security information and event management (SIEM), such as Microsoft Sentinel, to detect threat patterns and incorporate preventative measures in the workload design.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11559,19 +11535,19 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>a5847147-e7ef-48d1-ba16-d896fdce1b9f</t>
+          <t>451f9871-3ca1-40b9-a1f6-c5eb0a37213b</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="C377" t="inlineStr">
         <is>
-          <t>Properly warm up Azure Firewall before any performance test.</t>
+          <t>Enable WAF rule sets that detect and block potentially malicious traffic. This feature is available on the Premium tier. We recommend these rule sets:  - Default- Bot protection- IP restriction- Geo-filtering- Rate limiting</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Create initial traffic that isn't part of your load tests 20 minutes before the test. Use diagnostics settings to capture scale-up and scale-down events. You can use the Azure Load Testing service to generate the initial traffic. Allows the Azure Firewall instance to scale up its instances to the maximum.</t>
+          <t>Default rule sets are updated frequently based on OWASP top-10 attack types and information from Microsoft Threat Intelligence.  The specialized rule sets detect certain use cases. For example, bot rules classify bots as good, bad, or unknown based on the client IP addresses. They also block bad bots and known IP addresses and restrict traffic based on geographical location of the callers.  By using a combination of rule sets, you can detect and block attacks with various intents.</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -11581,19 +11557,19 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>908a8bfa-9e9f-4199-8b5a-f2a031ab22e0</t>
+          <t>711c450c-ac42-4570-b2fd-22319b4a7913</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="C378" t="inlineStr">
         <is>
-          <t>Configure an Azure Firewall subnet (AzureFirewallSubnet) with a /26 address space.</t>
+          <t>Create exclusions for managed rule sets.  Test a WAF policy in detection mode for a few weeks and adjust any false positives before you deploy it.</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Azure Firewall is a dedicated deployment in your virtual network. Within your virtual network, a dedicated subnet is required for the instance of Azure Firewall. Azure Firewall provisions more capacity as it scales.A /26 address space for its subnets ensures that the firewall has enough IP addresses available to accommodate the scaling. Azure Firewall doesn't need a subnet bigger than /26. The Azure Firewall subnet name must be AzureFirewallSubnet.</t>
+          <t>Reduce false positives and allow legitimate requests for your application.</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -11603,19 +11579,19 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>d0e66443-59f1-48cb-995f-eaa6688c4f3b</t>
+          <t>a6fe49f4-0b1f-4677-af1f-b766f073ac6c</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="C379" t="inlineStr">
         <is>
-          <t>Do not enable advanced logging if not required</t>
+          <t>Enable end-to-end TLS, HTTP to HTTPS redirection, and managed TLS certificates when applicable.  Review the TLS best practices for Azure Front Door.  Use TLS version 1.2 as the minimum allowed version with ciphers that are relevant for your application.  Azure Front Door managed certificates should be your default choice for ease of operations. However, if you want to manage the lifecycle of the certificates, use your own certificates in Azure Front Door custom domain endpoints and store them in Key Vault.</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Azure Firewall provides some advanced logging capabilities that can be expensive to maintain always active. Instead, they should be used for troubleshooting purposes only, and limited in duration, then disabled when no more necessary. For example, Top flows and Flow trace logs are expensive can cause excessive CPU and storage usage on the Azure Firewall infrastructure.</t>
+          <t>TLS ensures that data exchanges between the browser, Azure Front Door, and the back-end origins are encrypted to prevent tampering.  Key Vault offers managed certificate support and simple certificate renewal and rotation.</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -11625,14 +11601,14 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>2c51e141-6e45-42cd-8c22-c55b219ffe83</t>
+          <t>450b511f-9e82-45ce-986b-769ea00dbeaa</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="C380" t="inlineStr">
         <is>
-          <t>Estimate the traffic pattern and volume. The number of requests from the client to the Azure Front Door edge might influence your tier choice. If you need to support a high volume of requests, consider the Azure Front Door Premium tier because performance ultimately impacts availability. However, there's a cost tradeoff. These tiers are described in Performance Efficiency.</t>
+          <t>Review Azure Front Door tiers and pricing. Use the pricing calculator to estimate the realistic costs for each tier. Compare the features and suitability of each tier for your scenario. For instance, only the Premium tier supports connecting to your origin via Private Link.</t>
         </is>
       </c>
       <c r="D380" t="inlineStr"/>
@@ -11643,14 +11619,14 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>59ed40bd-06a0-4125-ab99-afc88a248aa5</t>
+          <t>baeb625f-93ac-4181-be7b-07f474584985</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="C381" t="inlineStr">
         <is>
-          <t>Choose your deployment strategy. The fundamental deployment approaches are active-active and active-passive. Active-active deployment means that multiple environments or stamps that run the workload serve traffic. Active-passive deployment means that only the primary region handles all traffic, but it fails over to the secondary region when necessary. In a multiregion deployment, stamps run in different regions for higher availability with a global load balancer, like Azure Front Door, that distributes traffic. Therefore, it's important to configure the load balancer for the appropriate deployment approach.</t>
+          <t>Consider bandwidth costs. The bandwidth costs of Azure Front Door depend on the tier that you choose and the type of data transfer. Azure Front Door provides built-in reports for billable metrics. To assess your costs related to bandwidth and where you can focus your optimization efforts, see Azure Front Door reports.</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -11661,14 +11637,14 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>51f023f3-53b4-4878-8548-2b08a6b095ab</t>
+          <t>ed02627c-4a6d-4d6e-982f-a1fbee4a7259</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="C382" t="inlineStr">
         <is>
-          <t>Use the same host name on Azure Front Door and origin servers. To ensure that cookies or redirect URLs work properly, preserve the original HTTP host name when you use a reverse proxy, like a load balancer, in front of a web application.</t>
+          <t>Optimize incoming requests. Azure Front Door bills the incoming requests. You can set restrictions in your design configuration.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr"/>
@@ -11679,14 +11655,14 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>486f318a-8747-45e5-a5f4-97642d4fada6</t>
+          <t>e2e0bb7e-521d-4729-9579-5c9539a68867</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="C383" t="inlineStr">
         <is>
-          <t>Implement the health endpoint monitoring pattern. Your application should expose health endpoints, which aggregate the state of the critical services and dependencies that your application needs to serve requests. Azure Front Door health probes use the endpoint to detect origin servers' health. For more information, see Health Endpoint Monitoring pattern.</t>
+          <t>Use resources efficiently. Azure Front Door uses a routing method that helps with resource optimization. Unless the workload is extremely latency sensitive, distribute traffic evenly across all environments to effectively use deployed resources.</t>
         </is>
       </c>
       <c r="D383" t="inlineStr"/>
@@ -11697,14 +11673,14 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>9bc96e35-d25f-4521-86f8-8cadefb23576</t>
+          <t>337e7030-494e-4be5-8920-9144cb02c399</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="C384" t="inlineStr">
         <is>
-          <t>Take advantage of the built-in content delivery network functionality in Azure Front Door. The content delivery network feature of Azure Front Door has hundreds of edge locations and can help withstand distributed denial of service (DDoS) attacks. These capabilities help improve reliability.</t>
+          <t>Consider using a shared instance that's provided by the organization. Costs incurred from centralized services are shared between the workloads. However, consider the tradeoff with reliability. For mission-critical applications that have high availability requirements, we recommend an autonomous instance.</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
@@ -11715,14 +11691,14 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>96c8dc89-cafe-411e-9080-35c13fffb8b3</t>
+          <t>add1a775-b13c-477b-acc7-38dbcccd51fe</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="C385" t="inlineStr">
         <is>
-          <t>Consider a redundant traffic management option. Azure Front Door is a globally distributed service that runs as a singleton in an environment. Azure Front Door is a potential single point of failure in the system. If the service fails, then clients can't access your application during the downtime.</t>
+          <t>Pay attention to the amount of data logged. Costs related to both bandwidth and storage can accrue if certain requests aren't necessary or if logging data is retained for a long period of time.</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -11733,19 +11709,19 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>750bc3ba-30aa-44fc-88aa-bc93cdf29cdf</t>
+          <t>48f2f718-1ae7-476f-a0a1-d6b83e47bbaa</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="C386" t="inlineStr">
         <is>
-          <t>Choose a routing method that supports your deployment strategy.  The weighted method, which distributes traffic based on the configured weight coefficient, supports active-active models.  A priority-based value that configures the primary region to receive all traffic and send traffic to the secondary region as a backup supports active-passive models.  Combine the preceding methods with latency so that the origin with the lowest latency receives traffic.</t>
+          <t>Use caching for endpoints that support it.</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>You can select the best origin resource by using a series of decision steps and your design. The selected origin serves traffic within the allowable latency range in the specified ratio of weights.</t>
+          <t>Caching optimizes data transfer costs because it reduces the number of calls from your Azure Front Door instance to the origin.</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -11755,19 +11731,19 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>1a6fba56-5098-4506-9be0-940fe556996c</t>
+          <t>5a9023b8-c181-41d5-aeb5-9c09a85b0792</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="C387" t="inlineStr">
         <is>
-          <t>Support redundancy by having multiple origins in one or more back-end pools. Always have redundant instances of your application and make sure each instance exposes an endpoint or origin. You can place those origins in one or more back-end pools.</t>
+          <t>Consider enabling file compression. For this configuration, the application must support compression and caching must be enabled.</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Multiple origins support redundancy by distributing traffic across multiple instances of the application. If one instance is unavailable, then other back-end origins can still receive traffic.</t>
+          <t>Compression reduces bandwidth consumption and improves performance.</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -11777,19 +11753,19 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>00f51ce2-46a9-4051-ab0e-762743d0837d</t>
+          <t>84da68ee-7bb0-4a7d-ad70-d53c186ffd3e</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="C388" t="inlineStr">
         <is>
-          <t>Set up health probes on the origin. Configure Azure Front Door to conduct health checks to determine if the back-end instance is available and ready to continue receiving requests.</t>
+          <t>Disable health checks in single back-end pools.If you have only one origin configured in your Azure Front Door origin group, these calls are unnecessary.</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Enabled health probes are part of the health monitoring pattern implementation. Health probes make sure that Azure Front Door only routes traffic to instances that are healthy enough to handle requests.  For more information, see Best practices on health probes.</t>
+          <t>You can save on bandwidth costs by disabling requests that aren't required to make routing decisions.</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -11799,21 +11775,17 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>17fbec2c-ddb4-4490-946c-a151ae0fadd4</t>
+          <t>5d3ad5cb-d897-4ae7-8d1c-ae8398c79ed6</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="C389" t="inlineStr">
         <is>
-          <t>Set a timeout on forwarding requests to the back end.  Adjust the timeout setting according to your endpoints' needs. If you don't, Azure Front Door might close the connection before the origin sends the response.  You can also lower the default timeout for Azure Front Door if all of your origins have a shorter timeout.  For more information, see Troubleshooting unresponsive requests.</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>Timeouts help prevent performance issues and availability issues by terminating requests that take longer than expected to complete.</t>
-        </is>
-      </c>
+          <t>Use infrastructure as code (IaC) technologies. Use IaC technologies like Bicep and Azure Resource Manager templates to provision the Azure Front Door instance. These declarative approaches provide consistency and straightforward maintenance. For example, by using IaC technologies, you can easily adopt new ruleset versions.</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11821,21 +11793,17 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>1a308f11-1d93-4d57-bd84-cbd8f6198dd2</t>
+          <t>5e8bfd0e-20d9-441f-814d-c2b49e7033ea</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="C390" t="inlineStr">
         <is>
-          <t>Use the same host name on Azure Front Door and your origin. Azure Front Door can rewrite the host header of incoming requests, which is useful when you have multiple custom domain names that route to one origin. However, rewriting the host header might cause issues with request cookies and URL redirection.</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>Set the same host name to prevent malfunction with session affinity, authentication, and authorization. For more information, see Preserve the original HTTP host name between a reverse proxy and its back-end web application.</t>
-        </is>
-      </c>
+          <t>Simplify configurations. Use Azure Front Door to easily manage configurations. For example, suppose your architecture supports microservices. Azure Front Door supports redirection capabilities, so you can use path-based redirection to target individual services.</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11843,21 +11811,17 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>7af90aa7-b21f-432f-858b-2d872c752d7f</t>
+          <t>e9bd20e3-6e61-4907-9b84-4bd50b867875</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="C391" t="inlineStr">
         <is>
-          <t>Decide if your application requires session affinity. If you have high reliability requirements, we recommend that you disable session affinity.</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>With session affinity, user connections stay on the same origin during the user session. If that origin becomes unavailable, the user experience might be disrupted.</t>
-        </is>
-      </c>
+          <t>Handle progressive exposure by using Azure Front Door routing methods. For a weighted load balancing approach you can use a canary deployment to send a specific percentage of traffic to a back end. This approach helps you test new features and releases in a controlled environment before you roll them out.</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11865,21 +11829,17 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>f66a8d49-8d0a-4952-9db2-ac2e526f08ad</t>
+          <t>bb3943fb-6d97-458d-be6a-d9b71e8898d7</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="C392" t="inlineStr">
         <is>
-          <t>Take advantage of the rate-limiting rules that are included with a web application firewall (WAF).</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>Limit requests to prevent clients from sending too much traffic to your application. Rate limiting can help you avoid problems like a retry storm.</t>
-        </is>
-      </c>
+          <t>Collect and analyze Azure Front Door operational data as part of your workload monitoring. Capture relevant Azure Front Door logs and metrics with Azure Monitor Logs. This data helps you troubleshoot, understand user behaviors, and optimize operations.</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11887,14 +11847,14 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>63faaf18-da4b-4274-ac3c-d955f2a2e01b</t>
+          <t>5e1264a9-c6cc-4d4e-8e73-7ca4b3f05c17</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="C393" t="inlineStr">
         <is>
-          <t>Review the security baseline for Azure Front Door.</t>
+          <t>Offload certificate management to Azure. Ease the operational burden associated with certification rotation and renewals.</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
@@ -11905,17 +11865,21 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>ad186a96-5de2-4bf7-acd4-5b534cdb3e97</t>
+          <t>8bdff2ab-0800-45ef-acab-ff7d320856aa</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="C394" t="inlineStr">
         <is>
-          <t>Protect the back-end servers. The front end acts as the single point of ingress to the application.</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>Use HTTP to HTTPS redirection to support forward compatibility.</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>When redirection is enabled, Azure Front Door automatically redirects clients that are using older protocol to use HTTPS for a secure experience.</t>
+        </is>
+      </c>
       <c r="F394" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11923,17 +11887,21 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>b31346d7-4fde-42c2-82fe-2e4d54aa8f1b</t>
+          <t>829f4fea-1653-4093-aaf7-93b6a30aae1f</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="C395" t="inlineStr">
         <is>
-          <t>Allow only authorized access to the control plane. Use Azure Front Door role-based access control (RBAC) to restrict access to only the identities that need it.</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>Capture logs and metrics.  Include resource activity logs, access logs, health probe logs, and WAF logs. Set up alerts.</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Monitoring ingress flow is a crucial part of monitoring an application. You want to track requests and make performance and security improvements. You need data to debug your Azure Front Door configuration.  With alerts in place, you can get instant notifications of any critical operational issues.</t>
+        </is>
+      </c>
       <c r="F395" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11941,17 +11909,21 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>903b1844-994a-49e8-8e08-6ef445aec4f7</t>
+          <t>8ad83783-d01c-4772-a76b-39f7c9d61cc7</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="C396" t="inlineStr">
         <is>
-          <t>Block common threats at the edge. WAF is integrated with Azure Front Door. Enable WAF rules on the front ends to protect applications from common exploits and vulnerabilities at the network edge, closer to the attack source.</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>Review the built-in analytics reports.</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>A holistic view of your Azure Front Door profile helps drive improvements based on traffic and security reports through WAF metrics.</t>
+        </is>
+      </c>
       <c r="F396" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11959,17 +11931,21 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>329c0516-9a14-45ea-ad04-fe75453c8d88</t>
+          <t>e5e56ee9-79e4-4fa8-9fdb-600748d7df10</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="C397" t="inlineStr">
         <is>
-          <t>Protect Azure Front Door against unexpected traffic. Azure Front Door uses the basic plan of Azure DDoS protection to protect application endpoints from DDoS attacks. If you need to expose other public IP addresses from your application, consider adding the DDoS Protection standard plan for those addresses for advanced protection and detection capabilities.</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
+          <t>Use managed TLS certificates when possible.</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Azure Front Door can issue and manage certificates for you. This feature eliminates the need for certificate renewals and minimizes the risk of an outage due to an invalid or expired TLS certificate.</t>
+        </is>
+      </c>
       <c r="F397" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11977,17 +11953,21 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>d323ca3c-f7df-4f7e-b7c9-698d2bdad3e2</t>
+          <t>c2fcfdfb-fedb-4b47-93ac-1988250f76cd</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="C398" t="inlineStr">
         <is>
-          <t>Protect data in transit. Enable end-to-end Transport Layer Security (TLS), HTTP to HTTPS redirection, and managed TLS certificates when applicable. For more information, see TLS best practices for Azure Front Door.</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr"/>
+          <t>Use wildcard TLS certificates.</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>You don't need to modify the configuration to add or specify each subdomain separately.</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -11995,14 +11975,14 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>fcb4a654-3e3b-408c-9538-a1dfefdef774</t>
+          <t>0d7deaf4-ec0e-4e32-8b6b-64f3190d10f6</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="C399" t="inlineStr">
         <is>
-          <t>Monitor anomalous activity. Regularly review the logs to check for attacks and false positives. Send WAF logs from Azure Front Door to your organization's centralized security information and event management (SIEM), such as Microsoft Sentinel, to detect threat patterns and incorporate preventative measures in the workload design.</t>
+          <t>Plan capacity by analyzing your expected traffic patterns. Conduct thorough testing to understand how your application performs under different loads. Consider factors like simultaneous transactions, request rates, and data transfer.</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -12013,21 +11993,17 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>451f9871-3ca1-40b9-a1f6-c5eb0a37213b</t>
+          <t>d18003c9-2d90-4e52-b503-5fcdb4ffcd96</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="C400" t="inlineStr">
         <is>
-          <t>Enable WAF rule sets that detect and block potentially malicious traffic. This feature is available on the Premium tier. We recommend these rule sets:  - Default- Bot protection- IP restriction- Geo-filtering- Rate limiting</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>Default rule sets are updated frequently based on OWASP top-10 attack types and information from Microsoft Threat Intelligence.  The specialized rule sets detect certain use cases. For example, bot rules classify bots as good, bad, or unknown based on the client IP addresses. They also block bad bots and known IP addresses and restrict traffic based on geographical location of the callers.  By using a combination of rule sets, you can detect and block attacks with various intents.</t>
-        </is>
-      </c>
+          <t>Analyze performance data by regularly reviewing Azure Front Door reports. These reports provide insights into various metrics that serve as performance indicators at the technology level.</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12035,21 +12011,17 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>711c450c-ac42-4570-b2fd-22319b4a7913</t>
+          <t>87c450a0-6a4a-453c-ae38-b8f21952ab79</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="C401" t="inlineStr">
         <is>
-          <t>Create exclusions for managed rule sets.  Test a WAF policy in detection mode for a few weeks and adjust any false positives before you deploy it.</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>Reduce false positives and allow legitimate requests for your application.</t>
-        </is>
-      </c>
+          <t>Optimize data transfers.</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12057,21 +12029,17 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>a6fe49f4-0b1f-4677-af1f-b766f073ac6c</t>
+          <t>a9d9ffe4-3fa7-48c8-bc1d-d0685e495dbe</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="C402" t="inlineStr">
         <is>
-          <t>Enable end-to-end TLS, HTTP to HTTPS redirection, and managed TLS certificates when applicable.  Review the TLS best practices for Azure Front Door.  Use TLS version 1.2 as the minimum allowed version with ciphers that are relevant for your application.  Azure Front Door managed certificates should be your default choice for ease of operations. However, if you want to manage the lifecycle of the certificates, use your own certificates in Azure Front Door custom domain endpoints and store them in Key Vault.</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>TLS ensures that data exchanges between the browser, Azure Front Door, and the back-end origins are encrypted to prevent tampering.  Key Vault offers managed certificate support and simple certificate renewal and rotation.</t>
-        </is>
-      </c>
+          <t>Optimize the use of health probes. Get health information from health probes only when the state of the origins change. Strike a balance between monitoring accuracy and minimizing unnecessary traffic.</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12079,14 +12047,14 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>450b511f-9e82-45ce-986b-769ea00dbeaa</t>
+          <t>161bc803-0586-4d21-b2ea-018d78209565</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="C403" t="inlineStr">
         <is>
-          <t>Review Azure Front Door tiers and pricing. Use the pricing calculator to estimate the realistic costs for each tier. Compare the features and suitability of each tier for your scenario. For instance, only the Premium tier supports connecting to your origin via Private Link.</t>
+          <t>Review the origin routing method. Azure Front Door provides various routing methods, including latency-based, priority-based, weighted, and session affinity-based routing, to the origin. These methods significantly affect your application's performance. To learn more about the best traffic routing option for your scenario, see Traffic routing methods to origin.</t>
         </is>
       </c>
       <c r="D403" t="inlineStr"/>
@@ -12097,14 +12065,14 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>baeb625f-93ac-4181-be7b-07f474584985</t>
+          <t>8596ddcf-3f3c-4b1c-baa1-a7eb844b2fb6</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="C404" t="inlineStr">
         <is>
-          <t>Consider bandwidth costs. The bandwidth costs of Azure Front Door depend on the tier that you choose and the type of data transfer. Azure Front Door provides built-in reports for billable metrics. To assess your costs related to bandwidth and where you can focus your optimization efforts, see Azure Front Door reports.</t>
+          <t>Review the location of origin servers. Your origin servers' location impacts the responsiveness of your application. Origin servers should be closer to the users. Azure Front Door ensures that users from a specific location access the nearest Azure Front Door entry point. The performance benefits include faster user experience, better use of latency-based routing by Azure Front Door, and minimized data transfer time by using caching, which stores content closer to users.</t>
         </is>
       </c>
       <c r="D404" t="inlineStr"/>
@@ -12115,17 +12083,21 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>ed02627c-4a6d-4d6e-982f-a1fbee4a7259</t>
+          <t>205d3288-088c-4f24-af39-f9cb610c54a1</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="C405" t="inlineStr">
         <is>
-          <t>Optimize incoming requests. Azure Front Door bills the incoming requests. You can set restrictions in your design configuration.</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr"/>
+          <t>Enable caching.  You can optimize query strings for caching. For purely static content, ignore query strings to maximize your use of the cache.  If your application uses query strings, consider including them in the cache key. Including the query strings in the cache key allows Azure Front Door to serve cached responses or other responses, based on your configuration.</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Azure Front Door offers a robust content delivery network solution that caches content at the edge of the network. Caching reduces the load on the back-end servers and reduces data movement across the network, which helps offload bandwidth usage.</t>
+        </is>
+      </c>
       <c r="F405" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12133,17 +12105,21 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>e2e0bb7e-521d-4729-9579-5c9539a68867</t>
+          <t>2f6a39a1-884a-4661-accd-f534bf795a96</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="C406" t="inlineStr">
         <is>
-          <t>Use resources efficiently. Azure Front Door uses a routing method that helps with resource optimization. Unless the workload is extremely latency sensitive, distribute traffic evenly across all environments to effectively use deployed resources.</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr"/>
+          <t>Use file compression when you're accessing downloadable content.</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Compression in Azure Front Door helps deliver content in the optimal format, has a smaller payload, and delivers content to the users faster.</t>
+        </is>
+      </c>
       <c r="F406" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12151,17 +12127,21 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>337e7030-494e-4be5-8920-9144cb02c399</t>
+          <t>09c90ce3-ade6-413a-9c1b-45d33d6d9069</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="C407" t="inlineStr">
         <is>
-          <t>Consider using a shared instance that's provided by the organization. Costs incurred from centralized services are shared between the workloads. However, consider the tradeoff with reliability. For mission-critical applications that have high availability requirements, we recommend an autonomous instance.</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr"/>
+          <t>When you configure health probes in Azure Front Door, consider using `HEAD` requests instead of `GET` requests.  The health probe reads only the status code, not the content.</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>`HEAD` requests let you query a state change without fetching its entire content.</t>
+        </is>
+      </c>
       <c r="F407" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12169,17 +12149,21 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>add1a775-b13c-477b-acc7-38dbcccd51fe</t>
+          <t>15daeecf-bcbf-4c46-b196-030839fd4864</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="C408" t="inlineStr">
         <is>
-          <t>Pay attention to the amount of data logged. Costs related to both bandwidth and storage can accrue if certain requests aren't necessary or if logging data is retained for a long period of time.</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr"/>
+          <t>Evaluate whether you should enable session affinity when requests from the same user should be directed to the same back-end server.  From a reliability perspective, we don't recommend this approach. If you use this option, the application should gracefully recover without disrupting user sessions.  There's also a tradeoff on load balancing because it restricts the flexibility of distributing traffic across multiple back ends evenly.</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Optimize performance and maintain continuity for user sessions, especially when applications rely on maintaining state information locally.</t>
+        </is>
+      </c>
       <c r="F408" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12187,21 +12171,17 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>48f2f718-1ae7-476f-a0a1-d6b83e47bbaa</t>
+          <t>2a92f55e-a422-49f4-9a26-8ba819a17323</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="C409" t="inlineStr">
         <is>
-          <t>Use caching for endpoints that support it.</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>Caching optimizes data transfer costs because it reduces the number of calls from your Azure Front Door instance to the origin.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: For critical workloads, use availability zones for your AKS clusters.</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12209,21 +12189,17 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>5a9023b8-c181-41d5-aeb5-9c09a85b0792</t>
+          <t>ad7540f5-4cb1-4fc5-b168-e1cd97a0aef6</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="C410" t="inlineStr">
         <is>
-          <t>Consider enabling file compression. For this configuration, the application must support compression and caching must be enabled.</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>Compression reduces bandwidth consumption and improves performance.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Plan the IP address space to ensure your cluster can reliably scale, including handling of failover traffic in multi-cluster topologies.</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12231,21 +12207,17 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>84da68ee-7bb0-4a7d-ad70-d53c186ffd3e</t>
+          <t>904fdfa5-af9a-4195-b683-e3bb7627b394</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="C411" t="inlineStr">
         <is>
-          <t>Disable health checks in single back-end pools.If you have only one origin configured in your Azure Front Door origin group, these calls are unnecessary.</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>You can save on bandwidth costs by disabling requests that aren't required to make routing decisions.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Review the Best practices for monitoring Kubernetes with Azure Monitor to determine the best monitoring strategy for your workloads.</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
       <c r="F411" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12253,14 +12225,14 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>5d3ad5cb-d897-4ae7-8d1c-ae8398c79ed6</t>
+          <t>00c83f06-95ab-41c2-aef0-c770e177066f</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="C412" t="inlineStr">
         <is>
-          <t>Use infrastructure as code (IaC) technologies. Use IaC technologies like Bicep and Azure Resource Manager templates to provision the Azure Front Door instance. These declarative approaches provide consistency and straightforward maintenance. For example, by using IaC technologies, you can easily adopt new ruleset versions.</t>
+          <t>Workload architecture: Ensure workloads are built to support horizontal scaling and report application readiness and health.</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
@@ -12271,14 +12243,14 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>5e8bfd0e-20d9-441f-814d-c2b49e7033ea</t>
+          <t>fa12c27b-df70-41fd-a93a-680e3cacf7ac</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="C413" t="inlineStr">
         <is>
-          <t>Simplify configurations. Use Azure Front Door to easily manage configurations. For example, suppose your architecture supports microservices. Azure Front Door supports redirection capabilities, so you can use path-based redirection to target individual services.</t>
+          <t>Cluster and workload architectures: Ensure your workload is running on user node pools and chose the right size SKU. At a minimum, include two nodes for user node pools and three nodes for the system node pool.</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
@@ -12289,14 +12261,14 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>e9bd20e3-6e61-4907-9b84-4bd50b867875</t>
+          <t>f2297ffc-fec7-43c6-9187-9739264c9d66</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="C414" t="inlineStr">
         <is>
-          <t>Handle progressive exposure by using Azure Front Door routing methods. For a weighted load balancing approach you can use a canary deployment to send a specific percentage of traffic to a back end. This approach helps you test new features and releases in a controlled environment before you roll them out.</t>
+          <t>Cluster architecture: Use the AKS Uptime SLA to meet availability targets for production workloads.</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
@@ -12307,17 +12279,21 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>bb3943fb-6d97-458d-be6a-d9b71e8898d7</t>
+          <t>0b542d27-1846-4d1b-9c5e-bd7c0d079cb3</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="C415" t="inlineStr">
         <is>
-          <t>Collect and analyze Azure Front Door operational data as part of your workload monitoring. Capture relevant Azure Front Door logs and metrics with Azure Monitor Logs. This data helps you troubleshoot, understand user behaviors, and optimize operations.</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr"/>
+          <t>Cluster and workload architectures: Control pod scheduling using node selectors and affinity.</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Allows the Kubernetes scheduler to logically isolate workloads by hardware in the node. Unlike tolerations, pods without a matching node selector can be scheduled on labeled nodes, which allows unused resources on the nodes to consume, but gives priority to pods that define the matching node selector. Use node affinity for more flexibility, which allows you to define what happens if the pod can't be matched with a node.</t>
+        </is>
+      </c>
       <c r="F415" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12325,17 +12301,21 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>5e1264a9-c6cc-4d4e-8e73-7ca4b3f05c17</t>
+          <t>b11892cd-f678-4399-bac8-b98095e250c6</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="C416" t="inlineStr">
         <is>
-          <t>Offload certificate management to Azure. Ease the operational burden associated with certification rotation and renewals.</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr"/>
+          <t>Cluster architecture: Ensure proper selection of network plugin based on network requirements and cluster sizing.</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Azure CNI is required for specific scenarios, for example, Windows-based node pools, specific networking requirements and Kubernetes Network Policies. Reference Kubenet versus Azure CNI for more information.</t>
+        </is>
+      </c>
       <c r="F416" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12343,19 +12323,19 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>8bdff2ab-0800-45ef-acab-ff7d320856aa</t>
+          <t>9e3e8182-95e7-4953-9a2b-9cc2f77bf717</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="C417" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection to support forward compatibility.</t>
+          <t>Cluster and workload architectures: Use the AKS Uptime SLA for production grade clusters.</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>When redirection is enabled, Azure Front Door automatically redirects clients that are using older protocol to use HTTPS for a secure experience.</t>
+          <t>The AKS Uptime SLA guarantees: - `99.95%` availability of the Kubernetes API server endpoint for AKS Clusters that use Azure Availability Zones, or  - `99.9%` availability for AKS Clusters that don't use Azure Availability Zones.</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -12365,19 +12345,19 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>829f4fea-1653-4093-aaf7-93b6a30aae1f</t>
+          <t>4bfaa73e-a949-404a-a93b-a2b0a7feeff5</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="C418" t="inlineStr">
         <is>
-          <t>Capture logs and metrics.  Include resource activity logs, access logs, health probe logs, and WAF logs. Set up alerts.</t>
+          <t>Cluster architecture: Use availability zones to maximize resilience within an Azure region by distributing AKS agent nodes across physically separate data centers.</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Monitoring ingress flow is a crucial part of monitoring an application. You want to track requests and make performance and security improvements. You need data to debug your Azure Front Door configuration.  With alerts in place, you can get instant notifications of any critical operational issues.</t>
+          <t>By spreading node pools across multiple zones, nodes in one node pool will continue running even if another zone has gone down. If colocality requirements exist, either a regular VMSS-based AKS deployment into a single zone or proximity placement groups can be used to minimize internode latency.</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -12387,19 +12367,19 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>8ad83783-d01c-4772-a76b-39f7c9d61cc7</t>
+          <t>74ff8612-55b7-4029-81bc-da363b133f16</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="C419" t="inlineStr">
         <is>
-          <t>Review the built-in analytics reports.</t>
+          <t>Cluster architecture: Adopt a multiregion strategy by deploying AKS clusters deployed across different Azure regions to maximize availability and provide business continuity.</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>A holistic view of your Azure Front Door profile helps drive improvements based on traffic and security reports through WAF metrics.</t>
+          <t>Internet facing workloads should leverage Azure Front Door or Azure Traffic Manager to route traffic globally across AKS clusters.</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -12409,19 +12389,19 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>e5e56ee9-79e4-4fa8-9fdb-600748d7df10</t>
+          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="C420" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates when possible.</t>
+          <t>Cluster and workload architectures: Define Pod resource requests and limits in application deployment manifests, and enforce with Azure Policy.</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Azure Front Door can issue and manage certificates for you. This feature eliminates the need for certificate renewals and minimizes the risk of an outage due to an invalid or expired TLS certificate.</t>
+          <t>Container CPU and memory resource limits are necessary to prevent resource exhaustion in your Kubernetes cluster.</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -12431,19 +12411,19 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>c2fcfdfb-fedb-4b47-93ac-1988250f76cd</t>
+          <t>f1a92d3f-eab5-4dc2-b0e8-75865842f205</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="C421" t="inlineStr">
         <is>
-          <t>Use wildcard TLS certificates.</t>
+          <t>Cluster and workload architectures: Keep the System node pool isolated from application workloads.</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>You don't need to modify the configuration to add or specify each subdomain separately.</t>
+          <t>System node pools require a VM SKU of at least 2 vCPUs and 4 GB memory, but 4 vCPU or more is recommended. Reference System and user node pools for detailed requirements.</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -12453,17 +12433,21 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>0d7deaf4-ec0e-4e32-8b6b-64f3190d10f6</t>
+          <t>55429203-5f2a-4ed1-9107-22d2c47b8ef1</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="C422" t="inlineStr">
         <is>
-          <t>Plan capacity by analyzing your expected traffic patterns. Conduct thorough testing to understand how your application performs under different loads. Consider factors like simultaneous transactions, request rates, and data transfer.</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr"/>
+          <t>Cluster and workload architectures: Separate applications to dedicated node pools based on specific requirements.</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Applications may share the same configuration and need GPU-enabled VMs, CPU or memory optimized VMs, or the ability to scale-to-zero. Avoid large number of node pools to reduce extra management overhead.</t>
+        </is>
+      </c>
       <c r="F422" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12471,17 +12455,21 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>d18003c9-2d90-4e52-b503-5fcdb4ffcd96</t>
+          <t>3603ec74-ada6-4050-baa3-fb25386fb7df</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="C423" t="inlineStr">
         <is>
-          <t>Analyze performance data by regularly reviewing Azure Front Door reports. These reports provide insights into various metrics that serve as performance indicators at the technology level.</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr"/>
+          <t>Cluster architecture: Use a NAT gateway for clusters that run workloads that make many concurrent outbound connections.</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>To avoid reliability issues with Azure Load Balancer limitations with high concurrent outbound traffic, us a NAT Gateway instead to support reliable egress traffic at scale.</t>
+        </is>
+      </c>
       <c r="F423" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12489,14 +12477,14 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>87c450a0-6a4a-453c-ae38-b8f21952ab79</t>
+          <t>d441f009-ca99-4caf-9544-c71de5949d10</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="C424" t="inlineStr">
         <is>
-          <t>Optimize data transfers.</t>
+          <t>Cluster architecture: Use Managed Identities to avoid managing and rotating service principles.</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
@@ -12507,14 +12495,14 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>a9d9ffe4-3fa7-48c8-bc1d-d0685e495dbe</t>
+          <t>ff274266-a326-4c2c-9b85-7ce50c679b36</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="C425" t="inlineStr">
         <is>
-          <t>Optimize the use of health probes. Get health information from health probes only when the state of the origins change. Strike a balance between monitoring accuracy and minimizing unnecessary traffic.</t>
+          <t>Cluster architecture: Use Kubernetes role-based access control (RBAC) with Microsoft Entra ID for least privilege access and minimize granting administrator privileges to protect configuration, and secrets access.</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
@@ -12525,14 +12513,14 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>161bc803-0586-4d21-b2ea-018d78209565</t>
+          <t>d44b3684-99d7-4946-ab75-fb58d9d8626e</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="C426" t="inlineStr">
         <is>
-          <t>Review the origin routing method. Azure Front Door provides various routing methods, including latency-based, priority-based, weighted, and session affinity-based routing, to the origin. These methods significantly affect your application's performance. To learn more about the best traffic routing option for your scenario, see Traffic routing methods to origin.</t>
+          <t>Cluster architecture: Use Microsoft Defender for containers with Azure Sentinel to detect and quickly respond to threats across your cluster and workloads running on them.</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
@@ -12543,14 +12531,14 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>8596ddcf-3f3c-4b1c-baa1-a7eb844b2fb6</t>
+          <t>12e0cc02-b585-4d6f-97be-1b073e57522c</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="C427" t="inlineStr">
         <is>
-          <t>Review the location of origin servers. Your origin servers' location impacts the responsiveness of your application. Origin servers should be closer to the users. Azure Front Door ensures that users from a specific location access the nearest Azure Front Door entry point. The performance benefits include faster user experience, better use of latency-based routing by Azure Front Door, and minimized data transfer time by using caching, which stores content closer to users.</t>
+          <t>Cluster architecture: Deploy a private AKS cluster to ensure cluster management traffic to your API server remains on your private network. Or use the API server allow list for non-private clusters.</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
@@ -12561,21 +12549,17 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>205d3288-088c-4f24-af39-f9cb610c54a1</t>
+          <t>8e9c196f-b93a-46c5-9507-1e5cad83dd21</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="C428" t="inlineStr">
         <is>
-          <t>Enable caching.  You can optimize query strings for caching. For purely static content, ignore query strings to maximize your use of the cache.  If your application uses query strings, consider including them in the cache key. Including the query strings in the cache key allows Azure Front Door to serve cached responses or other responses, based on your configuration.</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>Azure Front Door offers a robust content delivery network solution that caches content at the edge of the network. Caching reduces the load on the back-end servers and reduces data movement across the network, which helps offload bandwidth usage.</t>
-        </is>
-      </c>
+          <t>Workload architecture: Use a Web Application Firewall to secure HTTP(S) traffic.</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12583,21 +12567,17 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>2f6a39a1-884a-4661-accd-f534bf795a96</t>
+          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="C429" t="inlineStr">
         <is>
-          <t>Use file compression when you're accessing downloadable content.</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>Compression in Azure Front Door helps deliver content in the optimal format, has a smaller payload, and delivers content to the users faster.</t>
-        </is>
-      </c>
+          <t>Workload architecture: Ensure your CI/CID pipeline is hardened with container-aware scanning.</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12605,19 +12585,19 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>09c90ce3-ade6-413a-9c1b-45d33d6d9069</t>
+          <t>feba8909-0760-4a87-833a-b36fabbe722e</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="C430" t="inlineStr">
         <is>
-          <t>When you configure health probes in Azure Front Door, consider using `HEAD` requests instead of `GET` requests.  The health probe reads only the status code, not the content.</t>
+          <t>Cluster architecture: Use Microsoft Entra integration.</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>`HEAD` requests let you query a state change without fetching its entire content.</t>
+          <t>Using Microsoft Entra ID centralizes the identity management component. Any change in user account or group status is automatically updated in access to the AKS cluster. The developers and application owners of your Kubernetes cluster need access to different resources.</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -12627,19 +12607,19 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>15daeecf-bcbf-4c46-b196-030839fd4864</t>
+          <t>463da713-377d-46e1-a9cf-a384a0657537</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="C431" t="inlineStr">
         <is>
-          <t>Evaluate whether you should enable session affinity when requests from the same user should be directed to the same back-end server.  From a reliability perspective, we don't recommend this approach. If you use this option, the application should gracefully recover without disrupting user sessions.  There's also a tradeoff on load balancing because it restricts the flexibility of distributing traffic across multiple back ends evenly.</t>
+          <t>Cluster architecture: Authenticate with Microsoft Entra ID to Azure Container Registry.</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Optimize performance and maintain continuity for user sessions, especially when applications rely on maintaining state information locally.</t>
+          <t>AKS and Microsoft Entra ID enables authentication with Azure Container Registry without the use of `imagePullSecrets` secrets. Review Authenticate with Azure Container Registry from Azure Kubernetes Service for more information.</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -12649,17 +12629,21 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>2a92f55e-a422-49f4-9a26-8ba819a17323</t>
+          <t>f9f7946f-b9b6-40d1-9f30-0bfb38be5c74</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="C432" t="inlineStr">
         <is>
-          <t>Cluster architecture: For critical workloads, use availability zones for your AKS clusters.</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr"/>
+          <t>Cluster architecture: Secure network traffic to your API server with private AKS cluster.</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>By default, network traffic between your node pools and the API server travels the Microsoft backbone network; by using a private cluster, you can ensure network traffic to your API server remains on the private network only.</t>
+        </is>
+      </c>
       <c r="F432" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12667,17 +12651,21 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>ad7540f5-4cb1-4fc5-b168-e1cd97a0aef6</t>
+          <t>10d61300-19e4-403c-bf22-a554c56b4afc</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="C433" t="inlineStr">
         <is>
-          <t>Cluster architecture: Plan the IP address space to ensure your cluster can reliably scale, including handling of failover traffic in multi-cluster topologies.</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr"/>
+          <t>Cluster architecture: For non-private AKS clusters, use API server authorized IP ranges.</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>When using public clusters, you can still limit the traffic that can reach your clusters API server by using the authorized IP range feature. Include sources like the public IPs of your deployment build agents, operations management, and node pools' egress point (such as Azure Firewall).</t>
+        </is>
+      </c>
       <c r="F433" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12685,17 +12673,21 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>904fdfa5-af9a-4195-b683-e3bb7627b394</t>
+          <t>b845e9a6-c5f3-4cf7-a956-6f1ffde88569</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="C434" t="inlineStr">
         <is>
-          <t>Cluster architecture: Enable Container insights to monitor your cluster and configure alerts for reliability-impacting events.</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr"/>
+          <t>Cluster architecture: Protect the API server with Microsoft Entra RBAC.</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Securing access to the Kubernetes API Server is one of the most important things you can do to secure your cluster. Integrate Kubernetes role-based access control (RBAC) with Microsoft Entra ID to control access to the API server. Disable local accounts to enforce all cluster access using Microsoft Entra ID-based identities.</t>
+        </is>
+      </c>
       <c r="F434" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12703,17 +12695,21 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>2c1ab1ce-ee84-4737-b426-d236a98d3ae5</t>
+          <t>0b3a4624-de6e-4cfe-af5b-19ad4708087d</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="C435" t="inlineStr">
         <is>
-          <t>Workload architecture: Ensure workloads are built to support horizontal scaling and report application readiness and health.</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr"/>
+          <t>Cluster architecture: Use Azure network policies or Calico.</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Secure and control network traffic between pods in a cluster.</t>
+        </is>
+      </c>
       <c r="F435" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12721,17 +12717,21 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>fa12c27b-df70-41fd-a93a-680e3cacf7ac</t>
+          <t>caabd1f2-e6a9-4c55-9115-349d1d6716bb</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="C436" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Ensure your workload is running on user node pools and chose the right size SKU. At a minimum, include two nodes for user node pools and three nodes for the system node pool.</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr"/>
+          <t>Cluster architecture: Secure clusters and pods with Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Azure Policy can help to apply at-scale enforcement and safeguards on your clusters in a centralized, consistent manner. It can also control what functions pods are granted and if anything is running against company policy.</t>
+        </is>
+      </c>
       <c r="F436" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12739,17 +12739,21 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>f2297ffc-fec7-43c6-9187-9739264c9d66</t>
+          <t>d65686d0-3988-49b5-8a98-59818ba81c50</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="C437" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use the AKS Uptime SLA to meet availability targets for production workloads.</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr"/>
+          <t>Cluster architecture: Secure container access to resources.</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Limit access to actions that containers can perform. Provide the least number of permissions, and avoid the use of root or privileged escalation.</t>
+        </is>
+      </c>
       <c r="F437" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12757,19 +12761,19 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>0b542d27-1846-4d1b-9c5e-bd7c0d079cb3</t>
+          <t>f1e41c15-87e4-4135-ab6c-fb6803194f12</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="C438" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Control pod scheduling using node selectors and affinity.</t>
+          <t>Workload architecture: Use a Web Application Firewall to secure HTTP(S) traffic.</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Allows the Kubernetes scheduler to logically isolate workloads by hardware in the node. Unlike tolerations, pods without a matching node selector can be scheduled on labeled nodes, which allows unused resources on the nodes to consume, but gives priority to pods that define the matching node selector. Use node affinity for more flexibility, which allows you to define what happens if the pod can't be matched with a node.</t>
+          <t>To scan incoming traffic for potential attacks, use a web application firewall such as Azure Web Application Firewall (WAF) on Azure Application Gateway or Azure Front Door.</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -12779,19 +12783,19 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>b11892cd-f678-4399-bac8-b98095e250c6</t>
+          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="C439" t="inlineStr">
         <is>
-          <t>Cluster architecture: Ensure proper selection of network plugin based on network requirements and cluster sizing.</t>
+          <t>Cluster architecture: Control cluster egress traffic.</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Azure CNI is required for specific scenarios, for example, Windows-based node pools, specific networking requirements and Kubernetes Network Policies. Reference Kubenet versus Azure CNI for more information.</t>
+          <t>Ensure your cluster's outbound traffic is passing through a network security point such as Azure Firewall or an HTTP proxy.</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -12801,19 +12805,19 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>9e3e8182-95e7-4953-9a2b-9cc2f77bf717</t>
+          <t>fa580200-65eb-4cc8-9c23-a5e68f1d86a7</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="C440" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Use the AKS Uptime SLA for production grade clusters.</t>
+          <t>Cluster architecture: Use the open-source Microsoft Entra Workload ID and Secrets Store CSI Driver with Azure Key Vault.</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>The AKS Uptime SLA guarantees: - `99.95%` availability of the Kubernetes API server endpoint for AKS Clusters that use Azure Availability Zones, or  - `99.9%` availability for AKS Clusters that don't use Azure Availability Zones.</t>
+          <t>Protect and rotate secrets, certificates, and connection strings in Azure Key Vault with strong encryption. Provides an access audit log, and keeps core secrets out of the deployment pipeline.</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -12823,19 +12827,19 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>4bfaa73e-a949-404a-a93b-a2b0a7feeff5</t>
+          <t>0f5b5089-02fc-4f46-839c-7ff86610366a</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="C441" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Configure monitoring of cluster with Container insights.</t>
+          <t>Cluster architecture: Use Microsoft Defender for Containers.</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Container insights help monitor the health and performance of controllers, nodes, and containers that are available in Kubernetes through the Metrics API. Integration with Prometheus enables collection of application and workload metrics.</t>
+          <t>Monitor and maintain the security of your clusters, containers, and their applications.</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -12845,21 +12849,17 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>6661db46-26b0-4cc9-9002-f52bce55ca03</t>
+          <t>d2895e72-e9c1-4af7-9e5a-53edc92423e7</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="C442" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use availability zones to maximize resilience within an Azure region by distributing AKS agent nodes across physically separate data centers.</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>By spreading node pools across multiple zones, nodes in one node pool will continue running even if another zone has gone down. If colocality requirements exist, either a regular VMSS-based AKS deployment into a single zone or proximity placement groups can be used to minimize internode latency.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Use appropriate VM SKU per node pool and reserved instances where long-term capacity is expected.</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
       <c r="F442" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12867,21 +12867,17 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>74ff8612-55b7-4029-81bc-da363b133f16</t>
+          <t>c5148caa-6478-4ba8-993b-1a8640716d66</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="C443" t="inlineStr">
         <is>
-          <t>Cluster architecture: Adopt a multiregion strategy by deploying AKS clusters deployed across different Azure regions to maximize availability and provide business continuity.</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>Internet facing workloads should leverage Azure Front Door or Azure Traffic Manager to route traffic globally across AKS clusters.</t>
-        </is>
-      </c>
+          <t>Cluster and workload architectures: Use appropriate managed disk tier and size.</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
       <c r="F443" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12889,21 +12885,17 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
+          <t>90ac2d0c-790e-4b2b-be35-60a55a19397a</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="C444" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Define Pod resource requests and limits in application deployment manifests, and enforce with Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>Container CPU and memory resource limits are necessary to prevent resource exhaustion in your Kubernetes cluster.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Review performance metrics, starting with CPU, memory, storage, and network, to identify cost optimization opportunities by cluster, nodes, and namespace.</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
       <c r="F444" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12911,21 +12903,17 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>f1a92d3f-eab5-4dc2-b0e8-75865842f205</t>
+          <t>df9bb42d-c34f-488f-a50c-0624ca247647</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="C445" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Keep the System node pool isolated from application workloads.</t>
-        </is>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>System node pools require a VM SKU of at least 2 vCPUs and 4 GB memory, but 4 vCPU or more is recommended. Reference System and user node pools for detailed requirements.</t>
-        </is>
-      </c>
+          <t>Cluster and workload architecture: Use autoscalers to scale in when workloads are less active.</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
       <c r="F445" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12933,19 +12921,19 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>55429203-5f2a-4ed1-9107-22d2c47b8ef1</t>
+          <t>43ffe0b7-7bc4-42b0-a370-af4a943b19c0</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="C446" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Separate applications to dedicated node pools based on specific requirements.</t>
+          <t>Cluster and workload architectures: Align SKU selection and managed disk size with workload requirements.</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Applications may share the same configuration and need GPU-enabled VMs, CPU or memory optimized VMs, or the ability to scale-to-zero. Avoid large number of node pools to reduce extra management overhead.</t>
+          <t>Matching your selection to your workload demands ensures you don't pay for unneeded resources.</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -12955,19 +12943,19 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>3603ec74-ada6-4050-baa3-fb25386fb7df</t>
+          <t>c4ce3529-2891-41f1-aa3f-e87a791b01a3</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="C447" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use a NAT gateway for clusters that run workloads that make many concurrent outbound connections.</t>
+          <t>Cluster architecture: Select the right virtual machine instance type.</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>To avoid reliability issues with Azure Load Balancer limitations with high concurrent outbound traffic, us a NAT Gateway instead to support reliable egress traffic at scale.</t>
+          <t>Selecting the right virtual machine instance type is critical as it directly impacts the cost of running applications on AKS. Choosing a high-performance instance without proper utilization can lead to wasteful spending, while choosing a less powerful instance can lead to performance issues and increased downtime. To determine the right virtual machine instance type, consider workload characteristics, resource requirements, and availability needs.</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -12977,17 +12965,21 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>d441f009-ca99-4caf-9544-c71de5949d10</t>
+          <t>1088060f-7467-48db-950d-5890503e2974</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="C448" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use Managed Identities to avoid managing and rotating service principles.</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
+          <t>Cluster architecture: Select virtual machines based on the Arm architecture.</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>AKS supports creating ARM64 Ubuntu agent nodes, as well as a of mix Intel and ARM architecture nodes within a cluster that can bring better performance at a lower cost.</t>
+        </is>
+      </c>
       <c r="F448" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -12995,17 +12987,21 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>ff274266-a326-4c2c-9b85-7ce50c679b36</t>
+          <t>ce50c713-ad3e-4781-9193-63485491aa48</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="C449" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use Kubernetes role-based access control (RBAC) with Microsoft Entra ID for least privilege access and minimize granting administrator privileges to protect configuration, and secrets access.</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr"/>
+          <t>Cluster architecture: Select Azure Spot Virtual Machines.</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Spot VMs allow you to take advantage of unutilized Azure capacity with significant discounts (up to 90% as compared to pay-as-you-go prices). If Azure needs capacity back, the Azure infrastructure evicts the Spot nodes.</t>
+        </is>
+      </c>
       <c r="F449" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13013,17 +13009,21 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>d44b3684-99d7-4946-ab75-fb58d9d8626e</t>
+          <t>7a281f48-217a-4668-aa30-c9d2c84d0d72</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="C450" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use Microsoft Defender for containers with Azure Sentinel to detect and quickly respond to threats across your cluster and workloads running on them.</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr"/>
+          <t>Cluster architecture: Select the appropriate region.</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Due to many factors, cost of resources varies per region in Azure. Evaluate the cost, latency, and compliance requirements to ensure you are running your workload cost-effectively and it doesn't affect your end-users or create extra networking charges.</t>
+        </is>
+      </c>
       <c r="F450" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13031,17 +13031,21 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>12e0cc02-b585-4d6f-97be-1b073e57522c</t>
+          <t>433efe5b-3776-459c-8560-058f87773838</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="C451" t="inlineStr">
         <is>
-          <t>Cluster architecture: Deploy a private AKS cluster to ensure cluster management traffic to your API server remains on your private network. Or use the API server allow list for non-private clusters.</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr"/>
+          <t>Workload architecture: Maintain small and optimized images.</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Streamlining your images helps reduce costs since new nodes need to download these images. Build images in a way that allows the container start as soon as possible to help avoid user request failures or timeouts while the application is starting up, potentially leading to overprovisioning.</t>
+        </is>
+      </c>
       <c r="F451" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13049,17 +13053,21 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>8e9c196f-b93a-46c5-9507-1e5cad83dd21</t>
+          <t>65d3f70e-457a-4d62-8140-de2b0c4f7f99</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="C452" t="inlineStr">
         <is>
-          <t>Workload architecture: Use a Web Application Firewall to secure HTTP(S) traffic.</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr"/>
+          <t>Cluster architecture: Enable Cluster Autoscaler to automatically reduce the number of agent nodes in response to excess resource capacity.</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Automatically scaling down the number of nodes in your AKS cluster lets you run an efficient cluster when demand is low and scale up when demand returns.</t>
+        </is>
+      </c>
       <c r="F452" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13067,17 +13075,21 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
+          <t>b4d583e3-7268-41d9-9e93-0394bed77298</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="C453" t="inlineStr">
         <is>
-          <t>Workload architecture: Ensure your CI/CID pipeline is hardened with container-aware scanning.</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr"/>
+          <t>Cluster architecture: Enable Node Autoprovision to automate VM SKU selection.</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Node Autoprovision simplifies the SKU selection process and decides, based on pending pod resource requirements, the optimal VM configuration to run workloads in the most efficient and cost effective manner.</t>
+        </is>
+      </c>
       <c r="F453" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13085,19 +13097,19 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>feba8909-0760-4a87-833a-b36fabbe722e</t>
+          <t>48ae7de4-26f7-457c-b1a4-a18467b7401d</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="C454" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use Microsoft Entra integration.</t>
+          <t>Workload architecture: Use the Horizontal Pod Autoscaler.</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Using Microsoft Entra ID centralizes the identity management component. Any change in user account or group status is automatically updated in access to the AKS cluster. The developers and application owners of your Kubernetes cluster need access to different resources.</t>
+          <t>Adjust the number of pods in a deployment depending on CPU utilization or other select metrics, which support cluster scale-in operations.</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -13107,19 +13119,19 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>463da713-377d-46e1-a9cf-a384a0657537</t>
+          <t>d3194174-d037-4a35-9cd5-244d377cfabb</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="C455" t="inlineStr">
         <is>
-          <t>Cluster architecture: Authenticate with Microsoft Entra ID to Azure Container Registry.</t>
+          <t>Workload architecture: Use Vertical Pod Autoscaler (preview).</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>AKS and Microsoft Entra ID enables authentication with Azure Container Registry without the use of `imagePullSecrets` secrets. Review Authenticate with Azure Container Registry from Azure Kubernetes Service for more information.</t>
+          <t>Rightsize your pods and dynamically set requests and limits based on historic usage.</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -13129,19 +13141,19 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>f9f7946f-b9b6-40d1-9f30-0bfb38be5c74</t>
+          <t>091dc052-7bf8-4dd1-aca1-d514ddcb2aa8</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="C456" t="inlineStr">
         <is>
-          <t>Cluster architecture: Secure network traffic to your API server with private AKS cluster.</t>
+          <t>Workload architecture: Use Kubernetes Event Driven Autoscaling (KEDA).</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>By default, network traffic between your node pools and the API server travels the Microsoft backbone network; by using a private cluster, you can ensure network traffic to your API server remains on the private network only.</t>
+          <t>Scale based on the number of events being processed. Choose from a rich catalogue of 50+ KEDA scalers.</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -13151,19 +13163,19 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>10d61300-19e4-403c-bf22-a554c56b4afc</t>
+          <t>fe3d7c5f-f5a9-4b5e-a4f9-81bf76930967</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="C457" t="inlineStr">
         <is>
-          <t>Cluster architecture: For non-private AKS clusters, use API server authorized IP ranges.</t>
+          <t>Cluster and workload architectures: Adopt a cloud financial discipline and cultural practice to drive ownership of cloud usage.</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>When using public clusters, you can still limit the traffic that can reach your clusters API server by using the authorized IP range feature. Include sources like the public IPs of your deployment build agents, operations management, and node pools' egress point (such as Azure Firewall).</t>
+          <t>The foundation of enabling cost optimization is the spread of a cost saving cluster. A financial operations approach (FinOps) is often used to help organizations reduce cloud costs. It is a practice involving collaboration between finance, operations, and engineering teams to drive alignment on cost saving goals and bring transparency to cloud costs.</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -13173,19 +13185,19 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>b845e9a6-c5f3-4cf7-a956-6f1ffde88569</t>
+          <t>3a7d1aa1-37a0-40aa-acbf-ff1852c15c93</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="C458" t="inlineStr">
         <is>
-          <t>Cluster architecture: Protect the API server with Microsoft Entra RBAC.</t>
+          <t>Cluster architecture: Sign up for Azure Reservations or Azure Savings Plan.</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Securing access to the Kubernetes API Server is one of the most important things you can do to secure your cluster. Integrate Kubernetes role-based access control (RBAC) with Microsoft Entra ID to control access to the API server. Disable local accounts to enforce all cluster access using Microsoft Entra ID-based identities.</t>
+          <t>If you properly planned for capacity, your workload is predictable and exists for an extended period of time, sign up for an Azure Reservation or a savings plan to further reduce your resource costs.</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -13195,19 +13207,19 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>0b3a4624-de6e-4cfe-af5b-19ad4708087d</t>
+          <t>ed669535-43d7-4988-9ec5-3b70762e54eb</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="C459" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use Azure network policies or Calico.</t>
+          <t>Cluster architecture: Configure the AKS Cost Analysis add-on.</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Secure and control network traffic between pods in a cluster.</t>
+          <t>The cost analysis cluster extension enables you to obtain granular insight into costs associated with various Kubernetes resources in your clusters or namespaces.</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -13217,21 +13229,17 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>caabd1f2-e6a9-4c55-9115-349d1d6716bb</t>
+          <t>6588bddb-d7b6-41a6-8b87-628a758df2fe</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="C460" t="inlineStr">
         <is>
-          <t>Cluster architecture: Secure clusters and pods with Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>Azure Policy can help to apply at-scale enforcement and safeguards on your clusters in a centralized, consistent manner. It can also control what functions pods are granted and if anything is running against company policy.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Use a template-based deployment using Bicep, Terraform, or others. Make sure that all deployments are repeatable, traceable, and stored in a source code repo.</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
       <c r="F460" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13239,21 +13247,17 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>d65686d0-3988-49b5-8a98-59818ba81c50</t>
+          <t>38e28f4f-7465-4e3a-bf05-4d6072d4bae6</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="C461" t="inlineStr">
         <is>
-          <t>Cluster architecture: Secure container access to resources.</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>Limit access to actions that containers can perform. Provide the least number of permissions, and avoid the use of root or privileged escalation.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Build an automated process to ensure your clusters are bootstrapped with the necessary cluster-wide configurations and deployments. This is often performed using GitOps.</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
       <c r="F461" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13261,21 +13265,17 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>f1e41c15-87e4-4135-ab6c-fb6803194f12</t>
+          <t>1255b75f-0f3b-4fd7-96c5-17e4e30bbe11</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="C462" t="inlineStr">
         <is>
-          <t>Workload architecture: Use a Web Application Firewall to secure HTTP(S) traffic.</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>To scan incoming traffic for potential attacks, use a web application firewall such as Azure Web Application Firewall (WAF) on Azure Application Gateway or Azure Front Door.</t>
-        </is>
-      </c>
+          <t>Workload architecture: Use a repeatable and automated deployment processes for your workload within your software development lifecycle.</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
       <c r="F462" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13283,21 +13283,17 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
+          <t>07b2d10f-e373-484e-9ece-f182a1b714b2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="C463" t="inlineStr">
         <is>
-          <t>Cluster architecture: Control cluster egress traffic.</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>Ensure your cluster's outbound traffic is passing through a network security point such as Azure Firewall or an HTTP proxy.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Enable diagnostics settings to ensure control plane or core API server interactions are logged.</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
       <c r="F463" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13305,21 +13301,17 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>fa580200-65eb-4cc8-9c23-a5e68f1d86a7</t>
+          <t>6ec1af22-6132-43a6-9286-20333ee6e244</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="C464" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use the open-source Microsoft Entra Workload ID and Secrets Store CSI Driver with Azure Key Vault.</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>Protect and rotate secrets, certificates, and connection strings in Azure Key Vault with strong encryption. Provides an access audit log, and keeps core secrets out of the deployment pipeline.</t>
-        </is>
-      </c>
+          <t>Cluster and workload architectures: Review the Best practices for monitoring Kubernetes with Azure Monitor to determine the best monitoring strategy for your workloads.</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
       <c r="F464" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13327,21 +13319,17 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>0f5b5089-02fc-4f46-839c-7ff86610366a</t>
+          <t>98844a97-9372-4cd2-ad68-aae36a43de4c</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="C465" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use Microsoft Defender for Containers.</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>Monitor and maintain the security of your clusters, containers, and their applications.</t>
-        </is>
-      </c>
+          <t>Workload architecture: The workload should be designed to emit telemetry that can be collected, which should also include liveliness and readiness statuses.</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
       <c r="F465" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13349,14 +13337,14 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>d2895e72-e9c1-4af7-9e5a-53edc92423e7</t>
+          <t>20301c55-a815-4a3a-83ec-fe6d1789e697</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="C466" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use appropriate VM SKU per node pool and reserved instances where long-term capacity is expected.</t>
+          <t>Cluster and workload architectures: Use chaos engineering practices that target Kubernetes to identify application or platform reliability issues.</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
@@ -13367,14 +13355,14 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>c5148caa-6478-4ba8-993b-1a8640716d66</t>
+          <t>13d37985-5266-4064-97f0-7c7aa7491941</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="C467" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Use appropriate managed disk tier and size.</t>
+          <t>Workload architecture: Optimize your workload to operate and deploy efficiently in a container.</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -13385,14 +13373,14 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>90ac2d0c-790e-4b2b-be35-60a55a19397a</t>
+          <t>d96fea7e-598f-4f59-95c6-d75fc8db1c7a</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="C468" t="inlineStr">
         <is>
-          <t>Cluster architecture: Review performance metrics, starting with CPU, memory, storage, and network, to identify cost optimization opportunities by cluster, nodes, and namespace.</t>
+          <t>Cluster and workload architectures: Enforce cluster and workload governance using Azure Policy.</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
@@ -13403,17 +13391,21 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>df9bb42d-c34f-488f-a50c-0624ca247647</t>
+          <t>8e8fbde0-f037-4eec-bac2-634ab73d7b0a</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="C469" t="inlineStr">
         <is>
-          <t>Cluster and workload architecture: Use autoscalers to scale in when workloads are less active.</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
+          <t>Cluster and workload architectures: Review AKS best practices documentation.</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>To build and run applications successfully in AKS, there are key considerations to understand and implement. These areas include multi-tenancy and scheduler features, cluster, and pod security, or business continuity and disaster recovery.</t>
+        </is>
+      </c>
       <c r="F469" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13421,19 +13413,19 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>43ffe0b7-7bc4-42b0-a370-af4a943b19c0</t>
+          <t>95ee25c6-37fc-47c0-a3e1-eea5c1324edb</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="C470" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Align SKU selection and managed disk size with workload requirements.</t>
+          <t>Cluster and workload architectures: Review Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Matching your selection to your workload demands ensures you don't pay for unneeded resources.</t>
+          <t>Azure Chaos Studio can help simulate faults and trigger disaster recovery situations.</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -13443,19 +13435,19 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>c4ce3529-2891-41f1-aa3f-e87a791b01a3</t>
+          <t>2695b4b9-e125-4644-a27c-977eefdbce73</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="C471" t="inlineStr">
         <is>
-          <t>Cluster architecture: Select the right virtual machine instance type.</t>
+          <t>Cluster architecture: Adopt a multiregion strategy by deploying AKS clusters deployed across different Azure regions to maximize availability and provide business continuity.</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Selecting the right virtual machine instance type is critical as it directly impacts the cost of running applications on AKS. Choosing a high-performance instance without proper utilization can lead to wasteful spending, while choosing a less powerful instance can lead to performance issues and increased downtime. To determine the right virtual machine instance type, consider workload characteristics, resource requirements, and availability needs.</t>
+          <t>Internet facing workloads should leverage Azure Front Door or Azure Traffic Manager to route traffic globally across AKS clusters.</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -13465,19 +13457,19 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>1088060f-7467-48db-950d-5890503e2974</t>
+          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="C472" t="inlineStr">
         <is>
-          <t>Cluster architecture: Select virtual machines based on the Arm architecture.</t>
+          <t>Cluster architecture: Operationalize clusters and pods configuration standards with Azure Policy.</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>AKS supports creating ARM64 Ubuntu agent nodes, as well as a of mix Intel and ARM architecture nodes within a cluster that can bring better performance at a lower cost.</t>
+          <t>Azure Policy can help to apply at-scale enforcement and safeguards on your clusters in a centralized, consistent manner. It can also control what functions pods are granted and if anything is running against company policy.</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -13487,19 +13479,19 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>ce50c713-ad3e-4781-9193-63485491aa48</t>
+          <t>02f47a84-6d0c-4243-a5ab-743c85dcce67</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="C473" t="inlineStr">
         <is>
-          <t>Cluster architecture: Select Azure Spot Virtual Machines.</t>
+          <t>Workload architecture: Use platform capabilities in your release engineering process.</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Spot VMs allow you to take advantage of unutilized Azure capacity with significant discounts (up to 90% as compared to pay-as-you-go prices). If Azure needs capacity back, the Azure infrastructure evicts the Spot nodes.</t>
+          <t>Kubernetes and ingress controllers support many advanced deployment patterns for inclusion in your release engineering process. Consider patterns like blue-green deployments or canary releases.</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -13509,19 +13501,19 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>7a281f48-217a-4668-aa30-c9d2c84d0d72</t>
+          <t>ecbf4266-e97a-4b02-8d02-ca2fd42cea5b</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="C474" t="inlineStr">
         <is>
-          <t>Cluster architecture: Select the appropriate region.</t>
+          <t>Cluster and workload architectures: For mission-critical workloads, use stamp-level blue/green deployments.</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Due to many factors, cost of resources varies per region in Azure. Evaluate the cost, latency, and compliance requirements to ensure you are running your workload cost-effectively and it doesn't affect your end-users or create extra networking charges.</t>
+          <t>Automate your mission-critical design areas, including deployment and testing.</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -13531,21 +13523,17 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>433efe5b-3776-459c-8560-058f87773838</t>
+          <t>4646ab36-8c28-4740-afac-c9819f0f6ac9</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="C475" t="inlineStr">
         <is>
-          <t>Workload architecture: Maintain small and optimized images.</t>
-        </is>
-      </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>Streamlining your images helps reduce costs since new nodes need to download these images. Build images in a way that allows the container start as soon as possible to help avoid user request failures or timeouts while the application is starting up, potentially leading to overprovisioning.</t>
-        </is>
-      </c>
+          <t>Cluster and workload architectures: Perform and iterate on a detailed capacity plan exercise that includes SKU, autoscale settings, IP addressing, and failover considerations.</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13553,21 +13541,17 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>65d3f70e-457a-4d62-8140-de2b0c4f7f99</t>
+          <t>de0e6d8d-65a5-46b0-891b-2ad2aa09de11</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="C476" t="inlineStr">
         <is>
-          <t>Cluster architecture: Enable Cluster Autoscaler to automatically reduce the number of agent nodes in response to excess resource capacity.</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>Automatically scaling down the number of nodes in your AKS cluster lets you run an efficient cluster when demand is low and scale up when demand returns.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Enable cluster autoscaler to automatically adjust the number of agent nodes in response workload demands.</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13575,21 +13559,17 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>b4d583e3-7268-41d9-9e93-0394bed77298</t>
+          <t>b78aea0e-3fd2-4dcc-b617-34a26892aa76</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="C477" t="inlineStr">
         <is>
-          <t>Cluster architecture: Enable Node Autoprovision to automate VM SKU selection.</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>Node Autoprovision simplifies the SKU selection process and decides, based on pending pod resource requirements, the optimal VM configuration to run workloads in the most efficient and cost effective manner.</t>
-        </is>
-      </c>
+          <t>Cluster architecture: Use the Horizontal pod autoscaler to adjust the number of pods in a deployment depending on CPU utilization or other select metrics.</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13597,21 +13577,17 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>48ae7de4-26f7-457c-b1a4-a18467b7401d</t>
+          <t>9b168db7-a88b-4e2c-b555-bc525c7e48da</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="C478" t="inlineStr">
         <is>
-          <t>Workload architecture: Use the Horizontal Pod Autoscaler.</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
-        <is>
-          <t>Adjust the number of pods in a deployment depending on CPU utilization or other select metrics, which support cluster scale-in operations.</t>
-        </is>
-      </c>
+          <t>Cluster and workload architectures: Perform ongoing load testing activities that exercise both the pod and cluster autoscaler.</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13619,21 +13595,17 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>d3194174-d037-4a35-9cd5-244d377cfabb</t>
+          <t>deadeedd-dab6-4774-84df-f5223ed6ede1</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="C479" t="inlineStr">
         <is>
-          <t>Workload architecture: Use Vertical Pod Autoscaler (preview).</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>Rightsize your pods and dynamically set requests and limits based on historic usage.</t>
-        </is>
-      </c>
+          <t>Cluster and workload architectures: Separate workloads into different node pools allowing independent scalling.</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
       <c r="F479" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13641,19 +13613,19 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>091dc052-7bf8-4dd1-aca1-d514ddcb2aa8</t>
+          <t>7b1e9a65-2d5d-4eeb-a349-136895131b06</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="C480" t="inlineStr">
         <is>
-          <t>Workload architecture: Use Kubernetes Event Driven Autoscaling (KEDA).</t>
+          <t>Cluster and workload architectures: Develop a detailed capacity plan and continually review and revise.</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Scale based on the number of events being processed. Choose from a rich catalogue of 50+ KEDA scalers.</t>
+          <t>After formalizing your capacity plan, it should be frequently updated by continuously observing the resource utilization of the cluster.</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -13663,19 +13635,19 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>fe3d7c5f-f5a9-4b5e-a4f9-81bf76930967</t>
+          <t>7b4e5e8b-6e55-4db7-a330-19990bd1e0d2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="C481" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Adopt a cloud financial discipline and cultural practice to drive ownership of cloud usage.</t>
+          <t>Cluster architecture: Enable cluster autoscaler to automatically adjust the number of agent nodes in response to resource constraints.</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>The foundation of enabling cost optimization is the spread of a cost saving cluster. A financial operations approach (FinOps) is often used to help organizations reduce cloud costs. It is a practice involving collaboration between finance, operations, and engineering teams to drive alignment on cost saving goals and bring transparency to cloud costs.</t>
+          <t>The ability to automatically scale up or down the number of nodes in your AKS cluster lets you run an efficient, cost-effective cluster.</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -13685,19 +13657,19 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>3a7d1aa1-37a0-40aa-acbf-ff1852c15c93</t>
+          <t>631272b4-9ca7-4e6f-ae9b-3c55946b3924</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="C482" t="inlineStr">
         <is>
-          <t>Cluster architecture: Sign up for Azure Reservations or Azure Savings Plan.</t>
+          <t>Cluster and workload architectures: Separate workloads into different node pools and consider scaling user node pools.</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>If you properly planned for capacity, your workload is predictable and exists for an extended period of time, sign up for an Azure Reservation or a savings plan to further reduce your resource costs.</t>
+          <t>Unlike System node pools that always require running nodes, user node pools allow you to scale up or down.</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -13707,19 +13679,19 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>ed669535-43d7-4988-9ec5-3b70762e54eb</t>
+          <t>85ffe644-7c4b-4f2d-b2fa-ed8e7c8d2e84</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="C483" t="inlineStr">
         <is>
-          <t>Cluster architecture: Configure monitoring of cluster with Container insights.</t>
+          <t>Workload architecture: Use AKS advanced scheduler features.</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Container insights help provides actionable insights into your clusters idle and unallocated resources. Container insights also supports collecting Prometheus metrics and integrates with Azure Managed Grafana to get a holistic view of your application and infrastructure.</t>
+          <t>Helps control balancing of resources for workloads that require them.</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -13729,19 +13701,19 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>5742c5ca-120a-4b6e-a5cf-51f13b04966c</t>
+          <t>bb7f1396-6a84-4e6d-b6d8-5fc48b4c2b5f</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="C484" t="inlineStr">
         <is>
-          <t>Cluster architecture: Configure the AKS Cost Analysis add-on.</t>
+          <t>Workload architecture: Use meaningful workload scaling metrics.</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>The cost analysis cluster extension enables you to obtain granular insight into costs associated with various Kubernetes resources in your clusters or namespaces.</t>
+          <t>Not all scale decisions can be derived from CPU or memory metrics. Often scale considerations will come from more complex or even external data points. Use KEDA to build a meaningful auto scale ruleset based on signals that are specific to your workload.</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -13751,14 +13723,14 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>6588bddb-d7b6-41a6-8b87-628a758df2fe</t>
+          <t>bc908693-9e21-478c-9fde-e92ba949c89e</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="C485" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use a template-based deployment using Bicep, Terraform, or others. Make sure that all deployments are repeatable, traceable, and stored in a source code repo.</t>
+          <t>Resiliency: Deploy models to environments that support availability zones, such as AKS. By ensuring deployments are distributed across availability zones, you're ensuring a deployment is available even in the event of a datacenter failure. For enhanced reliability and availability, consider a multi-region deployment topology.</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
@@ -13769,14 +13741,14 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>38e28f4f-7465-4e3a-bf05-4d6072d4bae6</t>
+          <t>f4804af8-4f42-450d-916c-5593c145ccf9</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="C486" t="inlineStr">
         <is>
-          <t>Cluster architecture: Build an automated process to ensure your clusters are bootstrapped with the necessary cluster-wide configurations and deployments. This is often performed using GitOps.</t>
+          <t>Resiliency: Ensure you have sufficient compute for both training and inferencing. Through resource planning, make sure your compute SKU and scale settings meet the requirements of your workload.</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
@@ -13787,14 +13759,14 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>1255b75f-0f3b-4fd7-96c5-17e4e30bbe11</t>
+          <t>995d097a-0de2-4431-947f-561b49a60f21</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="C487" t="inlineStr">
         <is>
-          <t>Workload architecture: Use a repeatable and automated deployment processes for your workload within your software development lifecycle.</t>
+          <t>Resiliency: Segregate Machine Learning workspaces used for exploratory work from those used for production.</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -13805,14 +13777,14 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>07b2d10f-e373-484e-9ece-f182a1b714b2</t>
+          <t>d494b7f5-ad32-471f-9fc7-18945ca454ab</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="C488" t="inlineStr">
         <is>
-          <t>Cluster architecture: Enable diagnostics settings to ensure control plane or core API server interactions are logged.</t>
+          <t>Resiliency: When using managed online endpoints for inferencing, use a release strategy such as blue-green deployments to minimize downtime and reduce the risk associated with deploying new versions.</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
@@ -13823,14 +13795,14 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>6ec1af22-6132-43a6-9286-20333ee6e244</t>
+          <t>6f1dd2cc-e0af-4203-ab0b-b7c65b7b18ae</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="C489" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Enable Container insights to collect metrics, logs, and diagnostics to monitor the availability and performance of the cluster and workloads running on it.</t>
+          <t>Business requirements: Select your use of compute clusters, compute instances, and externalized inference hosts based on reliability needs, considering service-level agreements (SLAs) as a factor.</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
@@ -13841,14 +13813,14 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>4811307d-53ce-4cf9-b022-2c2ab1be5596</t>
+          <t>558fcdcf-33e7-4385-82fd-424bc8ae64bc</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="C490" t="inlineStr">
         <is>
-          <t>Workload architecture: The workload should be designed to emit telemetry that can be collected, which should also include liveliness and readiness statuses.</t>
+          <t>Recovery: Ensure you have self-healing capabilities, such as checkpointing features supported by Machine Learning, when training large models.</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -13859,14 +13831,14 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>20301c55-a815-4a3a-83ec-fe6d1789e697</t>
+          <t>de5be058-1d22-4f38-96aa-3fbca5071a8f</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="C491" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Use chaos engineering practices that target Kubernetes to identify application or platform reliability issues.</t>
+          <t>Recovery: Ensure you have a recovery strategy defined. Machine Learning doesn't have automatic failover. Therefore, you must design a strategy that encompasses the workspace and all its dependencies, such as Key Vault, Azure Storage, and Azure Container Registry.</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -13877,17 +13849,21 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>13d37985-5266-4064-97f0-7c7aa7491941</t>
+          <t>20104165-9764-4920-98dd-63fddc5f58d3</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="C492" t="inlineStr">
         <is>
-          <t>Workload architecture: Optimize your workload to operate and deploy efficiently in a container.</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr"/>
+          <t>Multi-region model deployment: For enhanced reliability and availability, consider a multi-region deployment environment when possible.</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>A multi-region deployment ensures that your Machine Learning workloads continue to run even if one region experiences an outage. Multi-region deployment improves load distribution across regions, potentially enhancing performance for users located in different geographical areas. For more information, see Failover for business continuity and disaster recovery.</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13895,17 +13871,21 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>d96fea7e-598f-4f59-95c6-d75fc8db1c7a</t>
+          <t>046ff188-7d68-492f-850c-c65ee0c9a962</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="C493" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Enforce cluster and workload governance using Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr"/>
+          <t>Model training resiliency: Use checkpointing features supported by Machine Learning including Azure Container for PyTorch, the TensorFlow Estimator class, or the Run object and the FileDataset class that support model checkpointing.</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Model checkpointing periodically saves the state of your machine learning model during training, so that it can be restored in case of interruption, failure, or termination. For more information, see Boost checkpoint speed and reduce cost with Nebula.</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13913,19 +13893,19 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>8e8fbde0-f037-4eec-bac2-634ab73d7b0a</t>
+          <t>8eaf992c-ccd9-495f-b625-d4f544d38d38</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="C494" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Review AKS best practices documentation.</t>
+          <t>Use the Dedicated virtual machine tier for compute clusters: Use the Dedicated virtual machine tier for compute clusters for batch inferencing to ensure your batch job isn't preempted.</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>To build and run applications successfully in AKS, there are key considerations to understand and implement. These areas include multi-tenancy and scheduler features, cluster, and pod security, or business continuity and disaster recovery.</t>
+          <t>Low-priority virtual machines come at a reduced price but are preemptible. Clusters that use the Dedicated virtual machine tier aren't preempted.</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -13935,21 +13915,17 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>95ee25c6-37fc-47c0-a3e1-eea5c1324edb</t>
+          <t>19720202-b456-44c4-8ff1-28eaa20e1a7d</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="C495" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Review Azure Chaos Studio.</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>Azure Chaos Studio can help simulate faults and trigger disaster recovery situations.</t>
-        </is>
-      </c>
+          <t>Availability: Reduce the attack surface of the Machine Learning workspace by restricting access to the workspace to resources within the virtual network.</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
       <c r="F495" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13957,21 +13933,17 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>2695b4b9-e125-4644-a27c-977eefdbce73</t>
+          <t>303116b4-65cb-43e5-8ceb-7bebaf16b568</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="C496" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Configure monitoring of cluster with Container insights.</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>Container insights help monitor the performance of containers by collecting memory and processor metrics from controllers, nodes, and containers that are available in Kubernetes through the Metrics API and container logs.</t>
-        </is>
-      </c>
+          <t>Confidentiality: Guard against data exfiltration from the Machine Learning workspace by implementing network isolation. Ensure access to all external resources is explicitly approved and access to all other external resources isn't permitted.</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
       <c r="F496" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -13979,21 +13951,17 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>6661db46-26b0-4cc9-9002-f52bce55ca03</t>
+          <t>eb9cc8b2-c9a3-4fe7-9578-8918ab53eae6</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="C497" t="inlineStr">
         <is>
-          <t>Workload architecture: Monitor application performance with Azure Monitor.</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>Configure Application Insights for code-based monitoring of applications running in an AKS cluster.</t>
-        </is>
-      </c>
+          <t>Integrity: Implement access controls that authenticate and authorize the Machine Learning workspace for external resources based on the least privilege principle.</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
       <c r="F497" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14001,21 +13969,17 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>405f6de4-e769-4066-8e8c-f7887a66d42a</t>
+          <t>1cb53633-f0c7-45f4-a98b-76b0314a94ba</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="C498" t="inlineStr">
         <is>
-          <t>Workload architecture: Configure scraping of Prometheus metrics with Container insights.</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>Container insights, which are part of Azure Monitor, provide a seamless onboarding experience to collect Prometheus metrics. Reference Configure scraping of Prometheus metrics for more information.</t>
-        </is>
-      </c>
+          <t>Integrity: Implement use case segregation for Machine Learning workspaces by setting up workspaces based on specific use cases or projects. This approach adheres to the principle of least privilege by ensuring that workspaces are only accessible to individuals that require access to data and experimentation assets for the use case or project.</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
       <c r="F498" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14023,21 +13987,17 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>3c42907d-254e-4b0f-b579-7362e0f37eaa</t>
+          <t>30341513-1f91-480e-bc19-8031f1851087</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="C499" t="inlineStr">
         <is>
-          <t>Cluster architecture: Adopt a multiregion strategy by deploying AKS clusters deployed across different Azure regions to maximize availability and provide business continuity.</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>Internet facing workloads should leverage Azure Front Door or Azure Traffic Manager to route traffic globally across AKS clusters.</t>
-        </is>
-      </c>
+          <t>Integrity: Regulate access to foundational models. Ensure only approved registries have access to models in the model registry.</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
       <c r="F499" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14045,21 +14005,17 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
+          <t>1274dc7a-a81c-409d-8cd6-e3bda0ee8687</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="C500" t="inlineStr">
         <is>
-          <t>Cluster architecture: Operationalize clusters and pods configuration standards with Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr">
-        <is>
-          <t>Azure Policy can help to apply at-scale enforcement and safeguards on your clusters in a centralized, consistent manner. It can also control what functions pods are granted and if anything is running against company policy.</t>
-        </is>
-      </c>
+          <t>Integrity: Regulate access to approved container registries. Ensure Machine Learning compute can only access approved registries.</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
       <c r="F500" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14067,21 +14023,17 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>02f47a84-6d0c-4243-a5ab-743c85dcce67</t>
+          <t>ca17ad83-954c-4eba-a30f-9e7c3c2079f6</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="C501" t="inlineStr">
         <is>
-          <t>Workload architecture: Use platform capabilities in your release engineering process.</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>Kubernetes and ingress controllers support many advanced deployment patterns for inclusion in your release engineering process. Consider patterns like blue-green deployments or canary releases.</t>
-        </is>
-      </c>
+          <t>Integrity: Regulate the Python packages that can be run on Machine Learning compute. Regulating the Python packages ensures only trusted packages are run.</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
       <c r="F501" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14089,21 +14041,17 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>ecbf4266-e97a-4b02-8d02-ca2fd42cea5b</t>
+          <t>1ffe0cf7-a26a-4018-bef8-4d7fdf3291e2</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="C502" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: For mission-critical workloads, use stamp-level blue/green deployments.</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>Automate your mission-critical design areas, including deployment and testing.</t>
-        </is>
-      </c>
+          <t>Integrity: Require code used for training in Machine Learning compute environments to be signed. Requiring code signing ensures that the code running is from a trusted source and hasn't been tampered with.</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
       <c r="F502" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14111,14 +14059,14 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>4646ab36-8c28-4740-afac-c9819f0f6ac9</t>
+          <t>8d9aea78-3ebe-4ec6-968d-3daa07abc239</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="C503" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Perform and iterate on a detailed capacity plan exercise that includes SKU, autoscale settings, IP addressing, and failover considerations.</t>
+          <t>Confidentiality: Adhere to the principle of least privilege for role-based access control (RBAC) to the Machine Learning workspace and related resources, such as the workspace storage account, to ensure individuals have only the necessary permissions for their role, thereby minimizing potential security risks.</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
@@ -14129,14 +14077,14 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>de0e6d8d-65a5-46b0-891b-2ad2aa09de11</t>
+          <t>a6664b76-0292-4bd4-841e-859b65a569c0</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="C504" t="inlineStr">
         <is>
-          <t>Cluster architecture: Enable cluster autoscaler to automatically adjust the number of agent nodes in response workload demands.</t>
+          <t>Integrity: Establish trust and verified access by implementing encryption for data at rest and data in transit.</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
@@ -14147,17 +14095,21 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>b78aea0e-3fd2-4dcc-b617-34a26892aa76</t>
+          <t>2a509fe2-ce1d-410c-a5cb-780eb8dfaf15</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="C505" t="inlineStr">
         <is>
-          <t>Cluster architecture: Use the Horizontal pod autoscaler to adjust the number of pods in a deployment depending on CPU utilization or other select metrics.</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr"/>
+          <t>Security baseline: To enhance the security and compliance of your Machine Learning Service, apply the Azure security baseline for Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>The security baseline provides tailored guidance on crucial security aspects such as network security, identity management, data protection, and privileged access. For optimal security, use Microsoft Defender for Cloud to monitor these aspects.</t>
+        </is>
+      </c>
       <c r="F505" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14165,17 +14117,21 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>9b168db7-a88b-4e2c-b555-bc525c7e48da</t>
+          <t>0e30e670-0c69-4c8a-82f5-b88494e56879</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="C506" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Perform ongoing load testing activities that exercise both the pod and cluster autoscaler.</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr"/>
+          <t>Managed virtual network isolation: Configure managed virtual network isolation for Machine Learning. When you enable managed virtual network isolation, a managed virtual network is created for the workspace. Managed compute resources you create for the workspace automatically use this managed virtual network. If you can't implement managed virtual network isolation, then you must follow the network topology recommendations to separate compute into a dedicated subnet away from the rest of the resources in the solution, including the private endpoints for workspace resources.</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Managed virtual network isolation enhances security by isolating your workspace from other networks, reducing the risk of unauthorized access. In a scenario in which a breach occurs in another network within your organization, the isolated network of your Machine Learning workspace remains unaffected, protecting your machine learning workloads.</t>
+        </is>
+      </c>
       <c r="F506" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14183,17 +14139,21 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>deadeedd-dab6-4774-84df-f5223ed6ede1</t>
+          <t>aeb66f5c-45bc-45d8-a7bf-a6bd5c6e5f9a</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="C507" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Separate workloads into different node pools allowing independent scalling.</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr"/>
+          <t>Machine Learning network isolation: Configure a private endpoint for your Machine Learning workspace and connect to the workspace over that private endpoint.</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Machine Learning network isolation enhances security by ensuring that access to your workspace is secure and controlled. With a private endpoint configured for your workspace, you can then limit access to your workspace to only occur over the private IP addresses.</t>
+        </is>
+      </c>
       <c r="F507" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14201,19 +14161,19 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>7b1e9a65-2d5d-4eeb-a349-136895131b06</t>
+          <t>af44fe21-713a-435f-97bd-34ec8221f729</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="C508" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Develop a detailed capacity plan and continually review and revise.</t>
+          <t>Allow only approved outbound access: Configure the outbound mode on the Machine Learning workspace managed outbound access to `Allow only approved outbound` to minimize the risk of data exfiltration. Configure private endpoints, service tags, or fully qualified domain names (FQDNs) for resources that you need to access.</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>After formalizing your capacity plan, it should be frequently updated by continuously observing the resource utilization of the cluster.</t>
+          <t>This configuration minimizes the risk of data exfiltration, improving data security. With this configuration enabled, a malicious actor who gains access to your system can’t send your data to an unapproved external destination.</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -14223,19 +14183,19 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>7b4e5e8b-6e55-4db7-a330-19990bd1e0d2</t>
+          <t>d1cdc5a5-eb9a-43d7-ad74-6169482b28d0</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="C509" t="inlineStr">
         <is>
-          <t>Cluster architecture: Enable cluster autoscaler to automatically adjust the number of agent nodes in response to resource constraints.</t>
+          <t>Virtual network isolation for dependent services: Configure dependent services, such as Storage, Key Vault, and Container Registry with private endpoints and disable public access.</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>The ability to automatically scale up or down the number of nodes in your AKS cluster lets you run an efficient, cost-effective cluster.</t>
+          <t>Network isolation bolsters security by restricting access to Azure platform as a service (PaaS) solutions to private IP addresses only.</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -14245,19 +14205,19 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>631272b4-9ca7-4e6f-ae9b-3c55946b3924</t>
+          <t>0d8346f9-f2fe-4a4e-b153-662c5c6e4510</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="C510" t="inlineStr">
         <is>
-          <t>Cluster and workload architectures: Separate workloads into different node pools and consider scaling user node pools.</t>
+          <t>Managed identity: Use managed identities for authentication between Machine Learning and other services.</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Unlike System node pools that always require running nodes, user node pools allow you to scale up or down.</t>
+          <t>Managed identities improve security by eliminating the need to store credentials and manually manage and rotate service principals.</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -14267,19 +14227,19 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>85ffe644-7c4b-4f2d-b2fa-ed8e7c8d2e84</t>
+          <t>bf2a8ddf-263e-46fb-b73a-ca8b9ba168e7</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="C511" t="inlineStr">
         <is>
-          <t>Workload architecture: Use AKS advanced scheduler features.</t>
+          <t>Disable local authentication: Disable local authentication for Machine Learning compute clusters and instances.</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Helps control balancing of resources for workloads that require them.</t>
+          <t>Disabling local authentication increases the security of your Machine Learning compute and provides centralized control and management of identities and resource credentials.</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -14289,19 +14249,19 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>bb7f1396-6a84-4e6d-b6d8-5fc48b4c2b5f</t>
+          <t>70477454-0ddb-4ad6-9342-1ad6290bbb06</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="C512" t="inlineStr">
         <is>
-          <t>Workload architecture: Use meaningful workload scaling metrics.</t>
+          <t>Disable the public SSH port: Ensure the public Secure Shell (SSH) port is closed on the Machine Learning compute cluster by setting `remoteLoginPortPublicAccess` to `Disabled`. Apply a similar configuration if you use a different compute.</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Not all scale decisions can be derived from CPU or memory metrics. Often scale considerations will come from more complex or even external data points. Use KEDA to build a meaningful auto scale ruleset based on signals that are specific to your workload.</t>
+          <t>Disabling SSH access helps prevent unauthorized individuals from gaining access and potentially causing harm to your system and protects you against brute force attacks.</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -14311,17 +14271,21 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>bc908693-9e21-478c-9fde-e92ba949c89e</t>
+          <t>cbd359bc-8057-4a9c-9183-c4fc1e70a69b</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="C513" t="inlineStr">
         <is>
-          <t>Resiliency: Deploy models to environments that support availability zones, such as AKS. By ensuring deployments are distributed across availability zones, you're ensuring a deployment is available even in the event of a datacenter failure. For enhanced reliability and availability, consider a multi-region deployment topology.</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr"/>
+          <t>Don't provision public IP addresses for Machine Learning compute: Set enableNodePublicIp to `false` when provisioning Machine Learning compute clusters or compute instances. Apply a similar configuration if you use a different compute.</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Refrain from provisioning public IP addresses to enhance security by limiting the potential for unauthorized access to your compute instance or clusters.</t>
+        </is>
+      </c>
       <c r="F513" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14329,17 +14293,21 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>f4804af8-4f42-450d-916c-5593c145ccf9</t>
+          <t>cc532133-2bba-484f-b316-035b93b3ee6a</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="C514" t="inlineStr">
         <is>
-          <t>Resiliency: Ensure you have sufficient compute for both training and inferencing. Through resource planning, make sure your compute SKU and scale settings meet the requirements of your workload.</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr"/>
+          <t>Get the latest operating system image: Recreate compute instances to get the latest operating system image.</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Using the latest images ensures you're maintaining a consistent, stable, and secure environment, including ensuring you have the latest security patches.</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14347,17 +14315,21 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>995d097a-0de2-4431-947f-561b49a60f21</t>
+          <t>cb49b636-1011-43a0-a12b-25378f677153</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="C515" t="inlineStr">
         <is>
-          <t>Resiliency: Segregate Machine Learning workspaces used for exploratory work from those used for production.</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr"/>
+          <t>Strict Machine Learning workspace access controls: Use Microsoft Entra ID groups to manage workspace access and adhere to the principle of least privilege for RBAC.</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Strict workspace access controls enhance security by ensuring that individuals have only the necessary permissions for their role. A data scientist, for instance, might have access to run experiments but not to modify security settings, minimizing potential security risks.</t>
+        </is>
+      </c>
       <c r="F515" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14365,17 +14337,21 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>d494b7f5-ad32-471f-9fc7-18945ca454ab</t>
+          <t>17cac647-8c6f-4a6f-a66d-c436e17c91c8</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="C516" t="inlineStr">
         <is>
-          <t>Resiliency: When using managed online endpoints for inferencing, use a release strategy such as blue-green deployments to minimize downtime and reduce the risk associated with deploying new versions.</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
+          <t>Restrict model catalog deployments: Restrict model deployments to specific registries.</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Restricting the deployments from the model catalog to specific registries ensures you only deploy models to approved registries. This approach helps regulate access to the open-source foundational models.</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14383,17 +14359,21 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>6f1dd2cc-e0af-4203-ab0b-b7c65b7b18ae</t>
+          <t>18a61ee3-34d2-484a-a740-3c90d23c64b9</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="C517" t="inlineStr">
         <is>
-          <t>Business requirements: Select your use of compute clusters, compute instances, and externalized inference hosts based on reliability needs, considering service-level agreements (SLAs) as a factor.</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
+          <t>Encrypt data at rest: Consider using customer-managed keys with Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Encrypting data at rest enhances data security by ensuring that sensitive data is encrypted by using keys directly managed by you. If you have a regulatory requirement to manage your own encryption keys, use this feature to comply with that requirement.</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14401,17 +14381,21 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>558fcdcf-33e7-4385-82fd-424bc8ae64bc</t>
+          <t>5e14c11e-83fb-40f1-a8dc-d96767d73a13</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="C518" t="inlineStr">
         <is>
-          <t>Recovery: Ensure you have self-healing capabilities, such as checkpointing features supported by Machine Learning, when training large models.</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
+          <t>Minimize the risk of data exfiltration: Implement data exfiltration prevention. For example, create a service endpoint policy to filter egress virtual network traffic and permit data exfiltration only to specific Azure Storage accounts.</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Minimize the risk of data exfiltration by limiting inbound and outbound requirements.</t>
+        </is>
+      </c>
       <c r="F518" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14419,14 +14403,14 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>de5be058-1d22-4f38-96aa-3fbca5071a8f</t>
+          <t>6782cd14-a63d-466c-a7c9-8a92afe3b396</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="C519" t="inlineStr">
         <is>
-          <t>Recovery: Ensure you have a recovery strategy defined. Machine Learning doesn't have automatic failover. Therefore, you must design a strategy that encompasses the workspace and all its dependencies, such as Key Vault, Azure Storage, and Azure Container Registry.</t>
+          <t>Usage optimization: Choose the appropriate resources to ensure that they align with your workload requirements. For example, choose between CPUs or GPUs, various SKUs, or low versus regular-priority VMs.</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -14437,21 +14421,17 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>20104165-9764-4920-98dd-63fddc5f58d3</t>
+          <t>cac38d1e-d21e-4af5-834d-d607469c6439</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="C520" t="inlineStr">
         <is>
-          <t>Multi-region model deployment: For enhanced reliability and availability, consider a multi-region deployment environment when possible.</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>A multi-region deployment ensures that your Machine Learning workloads continue to run even if one region experiences an outage. Multi-region deployment improves load distribution across regions, potentially enhancing performance for users located in different geographical areas. For more information, see Failover for business continuity and disaster recovery.</t>
-        </is>
-      </c>
+          <t>Usage optimization: Ensure compute resources that aren't being used are scaled down or shut down when idle to reduce waste.</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr"/>
       <c r="F520" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14459,21 +14439,17 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>046ff188-7d68-492f-850c-c65ee0c9a962</t>
+          <t>8e98fc4b-2fa4-44b9-9aa7-1c01f67aecb7</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="C521" t="inlineStr">
         <is>
-          <t>Model training resiliency: Use checkpointing features supported by Machine Learning including Azure Container for PyTorch, the TensorFlow Estimator class, or the Run object and the FileDataset class that support model checkpointing.</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>Model checkpointing periodically saves the state of your machine learning model during training, so that it can be restored in case of interruption, failure, or termination. For more information, see Boost checkpoint speed and reduce cost with Nebula.</t>
-        </is>
-      </c>
+          <t>Usage optimization: Apply policies and configure quotas to comply with the design's upper and lower limits.</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14481,21 +14457,17 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>8eaf992c-ccd9-495f-b625-d4f544d38d38</t>
+          <t>dfafcc35-c8fb-429b-92c0-53f045884794</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="C522" t="inlineStr">
         <is>
-          <t>Use the Dedicated virtual machine tier for compute clusters: Use the Dedicated virtual machine tier for compute clusters for batch inferencing to ensure your batch job isn't preempted.</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>Low-priority virtual machines come at a reduced price but are preemptible. Clusters that use the Dedicated virtual machine tier aren't preempted.</t>
-        </is>
-      </c>
+          <t>Usage optimization: Test parallelizing training workloads to determine if training requirements can be met on lower cost SKUs.</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
       <c r="F522" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14503,14 +14475,14 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>19720202-b456-44c4-8ff1-28eaa20e1a7d</t>
+          <t>14149f48-97d8-4614-9236-681f5fd42b34</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="C523" t="inlineStr">
         <is>
-          <t>Availability: Reduce the attack surface of the Machine Learning workspace by restricting access to the workspace to resources within the virtual network.</t>
+          <t>Rate optimization: Purchase Azure Reserved Virtual Machine Instances if you have a good estimate of usage over the next one to three years.</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
@@ -14521,14 +14493,14 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>303116b4-65cb-43e5-8ceb-7bebaf16b568</t>
+          <t>945e262b-3a0f-4ac9-ac51-69b5500f9ee6</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="C524" t="inlineStr">
         <is>
-          <t>Confidentiality: Guard against data exfiltration from the Machine Learning workspace by implementing network isolation. Ensure access to all external resources is explicitly approved and access to all other external resources isn't permitted.</t>
+          <t>Monitor and optimize: Monitor your resource usage such as CPU and GPU usage when training models. If the resources aren't being fully used, modify your code to better use resources or scale down to smaller or cheaper VM sizes.</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
@@ -14539,17 +14511,21 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>eb9cc8b2-c9a3-4fe7-9578-8918ab53eae6</t>
+          <t>563a3c8d-4168-4f18-a056-efb624734ecf</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="C525" t="inlineStr">
         <is>
-          <t>Integrity: Implement access controls that authenticate and authorize the Machine Learning workspace for external resources based on the least privilege principle.</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
+          <t>Optimize compute resources: Optimize your compute resources based on the requirements of your workload. Choose the SKU that best suits your workload:&lt;ul&gt;&lt;li&gt;General Purpose – Balanced CPU to memory ratio, good for all purposes.&lt;/li&gt;&lt;li&gt;Compute Optimized – High CPU to memory ratio, good for math-heavy computations.&lt;/li&gt;&lt;li&gt;Memory Optimized – High memory to CPU, good for in-memory computations or database applications.&lt;/li&gt;&lt;li&gt;M Series – Very large machines that have huge amounts of memory and CPU. &lt;/li&gt;&lt;li&gt; GPU – Better for models with a high number of variables that can benefit from higher parallelism and specialized core instructions. Typical applications are deep learning, image or video processing, scientific simulations, data mining, and taking advantage of GPU development frameworks. Test with multiple families and document the results as your baseline. As your model and data evolve, the most adequate compute resource might change. Monitor execution times and reevaluate as needed.</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Selecting the right compute is critical as it directly impacts the cost of running your workload. Choosing a GPU or a high-performance SKU without proper usage can lead to wasteful spending, while choosing undersized compute can lead to prohibitively long training times and performance problems.</t>
+        </is>
+      </c>
       <c r="F525" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14557,17 +14533,21 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>1cb53633-f0c7-45f4-a98b-76b0314a94ba</t>
+          <t>3d87f935-99a6-4aee-aac2-069994de09ff</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="C526" t="inlineStr">
         <is>
-          <t>Integrity: Implement use case segregation for Machine Learning workspaces by setting up workspaces based on specific use cases or projects. This approach adheres to the principle of least privilege by ensuring that workspaces are only accessible to individuals that require access to data and experimentation assets for the use case or project.</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
+          <t>Optimize compute scaling: Configure your compute clusters for autoscaling to ensure you only use what you need.For training clusters, set the minimum number of nodes to 0 and configure the amount of time the node is idle to an appropriate time. For less iterative experimentation, reduce the time to save costs. For more iterative experimentation, use a higher time to prevent paying for scaling up or down after each change.</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Configure autoscaling for compute clusters to scale down when their usage is low.  Set the minimum number of nodes to 0 for training clusters to scale down to 0 when not in use.</t>
+        </is>
+      </c>
       <c r="F526" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14575,17 +14555,21 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>30341513-1f91-480e-bc19-8031f1851087</t>
+          <t>d30cfeeb-6c61-4a9d-9a56-c8296cec72cb</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="C527" t="inlineStr">
         <is>
-          <t>Integrity: Regulate access to foundational models. Ensure only approved registries have access to models in the model registry.</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
+          <t>Set training termination policies: Set early termination policies to limit the duration of training runs or terminate them early.</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Setting termination policies can help you save costs by stopping nonperforming runs early.</t>
+        </is>
+      </c>
       <c r="F527" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14593,17 +14577,21 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>1274dc7a-a81c-409d-8cd6-e3bda0ee8687</t>
+          <t>098a7bee-444c-4351-aeb1-8bd97036299c</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="C528" t="inlineStr">
         <is>
-          <t>Integrity: Regulate access to approved container registries. Ensure Machine Learning compute can only access approved registries.</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
+          <t>Use low-priority virtual machines for batch workloads: Consider using low-priority virtual machines for batch workloads that aren't time-sensitive and in which interruptions are recoverable.</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Low-priority virtual machines enable a large amount of compute power to be used for a low cost. They take advantage of surplus capacity in Azure.</t>
+        </is>
+      </c>
       <c r="F528" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14611,17 +14599,21 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>ca17ad83-954c-4eba-a30f-9e7c3c2079f6</t>
+          <t>41f2dd91-5765-4dfb-9db0-9b3e976b4afb</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="C529" t="inlineStr">
         <is>
-          <t>Integrity: Regulate the Python packages that can be run on Machine Learning compute. Regulating the Python packages ensures only trusted packages are run.</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
+          <t>Enable idle shutdown for compute instances: Enable idle shutdown for compute instances or schedule a start and stop time if usage time is known.</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>By default, compute instances are available to you, accruing cost. Configuring compute instances to shut down when idle or configuring a schedule for them saves cost when they aren't in use.</t>
+        </is>
+      </c>
       <c r="F529" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14629,17 +14621,21 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>1ffe0cf7-a26a-4018-bef8-4d7fdf3291e2</t>
+          <t>e3150ddd-f553-425f-bb91-249a9598e25e</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="C530" t="inlineStr">
         <is>
-          <t>Integrity: Require code used for training in Machine Learning compute environments to be signed. Requiring code signing ensures that the code running is from a trusted source and hasn't been tampered with.</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
+          <t>Parallelize training workloads: Consider parallelizing training workloads. Test running them with the help of the parallel components in Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Parallel workloads can be run on multiple smaller instances, potentially yielding cost savings.</t>
+        </is>
+      </c>
       <c r="F530" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14647,17 +14643,21 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>8d9aea78-3ebe-4ec6-968d-3daa07abc239</t>
+          <t>8b47ec85-0e9e-428b-9290-c590a7f4ab1a</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="C531" t="inlineStr">
         <is>
-          <t>Confidentiality: Adhere to the principle of least privilege for role-based access control (RBAC) to the Machine Learning workspace and related resources, such as the workspace storage account, to ensure individuals have only the necessary permissions for their role, thereby minimizing potential security risks.</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
+          <t>Azure Reserved VM Instances: Purchase Azure Reserved VM Instances if you have a good estimate of usage over the next one to three years. Take advantage of reserved capacity options for services when you have good estimates of usage.</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Purchase Azure Reserved VM Instances to prepay for virtual machine usage and provide discounts with pay-as-you-go pricing. The discount is automatically applied for virtual machine usage that matches the reservation.</t>
+        </is>
+      </c>
       <c r="F531" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14665,14 +14665,14 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>a6664b76-0292-4bd4-841e-859b65a569c0</t>
+          <t>b4470844-d54d-4a1c-980c-37d09e17940d</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="C532" t="inlineStr">
         <is>
-          <t>Integrity: Establish trust and verified access by implementing encryption for data at rest and data in transit.</t>
+          <t>Development standards: Take advantage of Machine Learning model catalogs and registries to store, version, and share machine learning assets.</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
@@ -14683,21 +14683,17 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>2a509fe2-ce1d-410c-a5cb-780eb8dfaf15</t>
+          <t>4dace40c-2627-4eb1-9d18-4a6c03901283</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="C533" t="inlineStr">
         <is>
-          <t>Security baseline: To enhance the security and compliance of your Machine Learning Service, apply the Azure security baseline for Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>The security baseline provides tailored guidance on crucial security aspects such as network security, identity management, data protection, and privileged access. For optimal security, use Microsoft Defender for Cloud to monitor these aspects.</t>
-        </is>
-      </c>
+          <t>Automate for efficiency: Follow good machine learning operations (MLOps) practices. When possible, build end-to-end automated pipelines for data preparation, training, and scoring processes. In development, use scripts instead of notebooks for training models, as scripts are easier to integrate into automated pipelines.</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14705,21 +14701,17 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>0e30e670-0c69-4c8a-82f5-b88494e56879</t>
+          <t>2fe1daf9-b388-4d25-8ff8-39908ada7f27</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="C534" t="inlineStr">
         <is>
-          <t>Managed virtual network isolation: Configure managed virtual network isolation for Machine Learning. When you enable managed virtual network isolation, a managed virtual network is created for the workspace. Managed compute resources you create for the workspace automatically use this managed virtual network. If you can't implement managed virtual network isolation, then you must follow the network topology recommendations to separate compute into a dedicated subnet away from the rest of the resources in the solution, including the private endpoints for workspace resources.</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>Managed virtual network isolation enhances security by isolating your workspace from other networks, reducing the risk of unauthorized access. In a scenario in which a breach occurs in another network within your organization, the isolated network of your Machine Learning workspace remains unaffected, protecting your machine learning workloads.</t>
-        </is>
-      </c>
+          <t>Deploy with confidence: Implement infrastructure as code (IaC) for Machine Learning workspaces, compute clusters, compute instances, and other deployment environments.</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14727,21 +14719,17 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>aeb66f5c-45bc-45d8-a7bf-a6bd5c6e5f9a</t>
+          <t>7b5de736-4956-4313-82be-0a0ff07d7ab6</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="C535" t="inlineStr">
         <is>
-          <t>Machine Learning network isolation: Configure a private endpoint for your Machine Learning workspace and connect to the workspace over that private endpoint.</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>Machine Learning network isolation enhances security by ensuring that access to your workspace is secure and controlled. With a private endpoint configured for your workspace, you can then limit access to your workspace to only occur over the private IP addresses.</t>
-        </is>
-      </c>
+          <t>Observability: Monitor the performance of your deployed models including data drift.</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
       <c r="F535" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14749,21 +14737,17 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>af44fe21-713a-435f-97bd-34ec8221f729</t>
+          <t>f8196404-8f76-4e65-9b32-46d8d777d1d3</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="C536" t="inlineStr">
         <is>
-          <t>Allow only approved outbound access: Configure the outbound mode on the Machine Learning workspace managed outbound access to `Allow only approved outbound` to minimize the risk of data exfiltration. Configure private endpoints, service tags, or fully qualified domain names (FQDNs) for resources that you need to access.</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>This configuration minimizes the risk of data exfiltration, improving data security. With this configuration enabled, a malicious actor who gains access to your system can’t send your data to an unapproved external destination.</t>
-        </is>
-      </c>
+          <t>Observability: If your models are deployed to online endpoints, enable Application Insights to monitor online endpoints and deployments. Monitor training infrastructure to ensure you're meeting your baseline requirements.</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14771,21 +14755,17 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>d1cdc5a5-eb9a-43d7-ad74-6169482b28d0</t>
+          <t>d212d648-752b-480f-bda5-0d45d0185312</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="C537" t="inlineStr">
         <is>
-          <t>Virtual network isolation for dependent services: Configure dependent services, such as Storage, Key Vault, and Container Registry with private endpoints and disable public access.</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>Network isolation bolsters security by restricting access to Azure platform as a service (PaaS) solutions to private IP addresses only.</t>
-        </is>
-      </c>
+          <t>Simplicity: Use curated environments optimized for Machine Learning, when available.</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
       <c r="F537" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14793,19 +14773,19 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>0d8346f9-f2fe-4a4e-b153-662c5c6e4510</t>
+          <t>afd5b803-c151-4b8d-ae08-63cc8961a378</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="C538" t="inlineStr">
         <is>
-          <t>Managed identity: Use managed identities for authentication between Machine Learning and other services.</t>
+          <t>Minimize Machine Learning workspace instances: Minimize the number of workspaces, when possible, to reduce maintenance.</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Managed identities improve security by eliminating the need to store credentials and manually manage and rotate service principals.</t>
+          <t>Limiting the number of workspaces reduces the maintenance effort and cost of operation. For requirements, such as security, you might need multiple separate workspaces. Minimize the number of workspaces when possible.</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -14815,19 +14795,19 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>bf2a8ddf-263e-46fb-b73a-ca8b9ba168e7</t>
+          <t>bb6c4c2f-65f4-4fab-ada7-ebe079bde9cb</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="C539" t="inlineStr">
         <is>
-          <t>Disable local authentication: Disable local authentication for Machine Learning compute clusters and instances.</t>
+          <t>Take advantage of model catalogs and registries: Take advantage of Machine Learning model catalogs and registries to store, version, and share machine learning assets.Use Machine Learning model catalogs to help you implement A/B testing and deployment of models.</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Disabling local authentication increases the security of your Machine Learning compute and provides centralized control and management of identities and resource credentials.</t>
+          <t>Use Machine Learning model registries to store and version your machine learning models to track changes and maintain lineage with the job and datasets used for training. With Machine Learning model catalogs, your data science teams can discover, evaluate, and fine tune pretrained foundational machine learning models. Storing versioned models in Machine Learning model registries supports deployment strategies such as A/B releases, canary releases, and rollbacks.</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -14837,19 +14817,19 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>70477454-0ddb-4ad6-9342-1ad6290bbb06</t>
+          <t>31841d05-3372-4bd4-b8bc-efcaaee1bd88</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="C540" t="inlineStr">
         <is>
-          <t>Disable the public SSH port: Ensure the public Secure Shell (SSH) port is closed on the Machine Learning compute cluster by setting `remoteLoginPortPublicAccess` to `Disabled`. Apply a similar configuration if you use a different compute.</t>
+          <t>Monitor model performance: Monitor the performance of your deployed models, and detect data drift on datasets.</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Disabling SSH access helps prevent unauthorized individuals from gaining access and potentially causing harm to your system and protects you against brute force attacks.</t>
+          <t>Monitoring deployed models ensures your models meet the performance requirements.Monitoring data drift helps you detect changes in the input data that can lead to a decline in your model’s performance. Managing data drift helps you ensure that your model provides accurate results over time.</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -14859,19 +14839,19 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>cbd359bc-8057-4a9c-9183-c4fc1e70a69b</t>
+          <t>90a72a7e-6fb5-4e02-a159-7a4d907eb098</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="C541" t="inlineStr">
         <is>
-          <t>Don't provision public IP addresses for Machine Learning compute: Set enableNodePublicIp to `false` when provisioning Machine Learning compute clusters or compute instances. Apply a similar configuration if you use a different compute.</t>
+          <t>Monitor infrastructure: If your models are deployed to online endpoints, enable Application Insights to monitor online endpoints and deployments.Monitor training infrastructure to ensure you're meeting your baseline requirements.Ensure you're collecting resource logs for Machine Learning.</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Refrain from provisioning public IP addresses to enhance security by limiting the potential for unauthorized access to your compute instance or clusters.</t>
+          <t>Monitoring endpoints gives you visibility into metrics such as request latency and requests per minute. You can compare your performance versus your baseline and use this information to make changes to compute resources accordingly. Monitoring metrics such as network bytes can alert you if you're approaching quota limits and prevent throttling.Likewise, monitoring your training environment provides you with the information to make changes to your training environment. Use that information to decide to scale in or out, scale up or down with different performant SKUs, or choose between CPUs or GPUs.</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -14881,19 +14861,19 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>cc532133-2bba-484f-b316-035b93b3ee6a</t>
+          <t>b1d87076-b253-47ae-8727-97f804e49a3c</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="C542" t="inlineStr">
         <is>
-          <t>Get the latest operating system image: Recreate compute instances to get the latest operating system image.</t>
+          <t>Curate model training environments: Use curated environments optimized for Machine Learning, when available.</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Using the latest images ensures you're maintaining a consistent, stable, and secure environment, including ensuring you have the latest security patches.</t>
+          <t>Curated environments are pre-created environments provided by Machine Learning that speed up deployment time and reduce deployment and training latency. Using curated environments improves training and deployment success rates and avoids unnecessary image builds. Curated environments, such as Azure Container for PyTorch, can also be optimized for training large models on Machine Learning.</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -14903,21 +14883,17 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>cb49b636-1011-43a0-a12b-25378f677153</t>
+          <t>4c6895ce-abd9-4c90-a386-c31bc0681869</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="C543" t="inlineStr">
         <is>
-          <t>Strict Machine Learning workspace access controls: Use Microsoft Entra ID groups to manage workspace access and adhere to the principle of least privilege for RBAC.</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>Strict workspace access controls enhance security by ensuring that individuals have only the necessary permissions for their role. A data scientist, for instance, might have access to run experiments but not to modify security settings, minimizing potential security risks.</t>
-        </is>
-      </c>
+          <t>Performance targets: Determine the acceptable training time and retrain frequency for your model. Setting a clear target for training time, along with testing, helps you determine the compute resources, CPU versus GPU, and CPU SKUs required to meet the training time goal.</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="F543" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14925,21 +14901,17 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>17cac647-8c6f-4a6f-a66d-c436e17c91c8</t>
+          <t>82ffebb1-2e91-46a4-b796-3fa55c4c20e3</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="C544" t="inlineStr">
         <is>
-          <t>Restrict model catalog deployments: Restrict model deployments to specific registries.</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>Restricting the deployments from the model catalog to specific registries ensures you only deploy models to approved registries. This approach helps regulate access to the open-source foundational models.</t>
-        </is>
-      </c>
+          <t>Performance targets: Define the acceptable performance targets for your deployed models including response time, requests per second, error rate, and uptime. Performance targets act as a benchmark for your deployed model's efficiency. Targets can help you make CPU versus GPU determinations, CPU SKU choices, and scaling requirements.</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="F544" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14947,21 +14919,17 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>18a61ee3-34d2-484a-a740-3c90d23c64b9</t>
+          <t>5e526216-1b94-4cfe-86ef-bbce971f7f3a</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="C545" t="inlineStr">
         <is>
-          <t>Encrypt data at rest: Consider using customer-managed keys with Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>Encrypting data at rest enhances data security by ensuring that sensitive data is encrypted by using keys directly managed by you. If you have a regulatory requirement to manage your own encryption keys, use this feature to comply with that requirement.</t>
-        </is>
-      </c>
+          <t>Meet capacity requirements: Choose the right compute resources for model training.</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
       <c r="F545" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14969,21 +14937,17 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>5e14c11e-83fb-40f1-a8dc-d96767d73a13</t>
+          <t>2d6ddbe2-2bcc-4629-a316-5d56d74ef68a</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="C546" t="inlineStr">
         <is>
-          <t>Minimize the risk of data exfiltration: Implement data exfiltration prevention. For example, create a service endpoint policy to filter egress virtual network traffic and permit data exfiltration only to specific Azure Storage accounts.</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>Minimize the risk of data exfiltration by limiting inbound and outbound requirements.</t>
-        </is>
-      </c>
+          <t>Meet capacity requirements: Choose the right compute resources for model deployments.</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -14991,14 +14955,14 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>6782cd14-a63d-466c-a7c9-8a92afe3b396</t>
+          <t>0ab74767-80ac-454e-aab6-b546e38411f8</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="C547" t="inlineStr">
         <is>
-          <t>Usage optimization: Choose the appropriate resources to ensure that they align with your workload requirements. For example, choose between CPUs or GPUs, various SKUs, or low versus regular-priority VMs.</t>
+          <t>Meet capacity requirements: Choose deployment environments with autoscaling capabilities to add and remove capacity as demand fluctuates.</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
@@ -15009,14 +14973,14 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>cac38d1e-d21e-4af5-834d-d607469c6439</t>
+          <t>d47bd862-5302-4ecb-a551-37cb0d15e802</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="C548" t="inlineStr">
         <is>
-          <t>Usage optimization: Ensure compute resources that aren't being used are scaled down or shut down when idle to reduce waste.</t>
+          <t>Achieve and sustain performance: Continuously monitor the performance of your deployed models, review results, and take appropriate actions.</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
@@ -15027,14 +14991,14 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>8e98fc4b-2fa4-44b9-9aa7-1c01f67aecb7</t>
+          <t>e10dead3-58c0-40b2-aa9b-39c64a68c555</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="C549" t="inlineStr">
         <is>
-          <t>Usage optimization: Apply policies and configure quotas to comply with the design's upper and lower limits.</t>
+          <t>Achieve and sustain performance: Continuously monitor the performance of your infrastructure of deployed models, review results, and take appropriate actions. Monitor training infrastructure to ensure you're meeting your requirements for training time.</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
@@ -15045,17 +15009,21 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>dfafcc35-c8fb-429b-92c0-53f045884794</t>
+          <t>e257de8e-a8ef-4b91-81a3-3d832682b1eb</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="C550" t="inlineStr">
         <is>
-          <t>Usage optimization: Test parallelizing training workloads to determine if training requirements can be met on lower cost SKUs.</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr"/>
+          <t>Select appropriate compute services for model training: Consider Machine Learning compute clusters over compute instances for model training if you require autoscaling.Optimize your compute resources based on the training requirements. First choose between CPUs and GPUs. Default to CPUs, but consider GPUs for workloads such as deep learning, image or video processing, or large amounts of data. Next, choose the image SKU that best suits your workload.Use testing to choose the compute option that optimizes cost against training time when determining your baseline.</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Selecting the right compute is critical as it directly impacts the training time. Choosing the right SKU and CPU versus GPU ensures your model training can meet your requirements and performance targets. Choosing a low-performance SKU that's overused can lead to prohibitively long training times and performance problems. Compute clusters provide the ability to improve performance by scaling out workloads that support horizontal scaling. This method provides flexibility for handling workloads with different demands and lets you add or remove machines as needed.</t>
+        </is>
+      </c>
       <c r="F550" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15063,17 +15031,21 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>14149f48-97d8-4614-9236-681f5fd42b34</t>
+          <t>352a223c-dabd-46da-8752-56a87c6f18b7</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="C551" t="inlineStr">
         <is>
-          <t>Rate optimization: Purchase Azure Reserved Virtual Machine Instances if you have a good estimate of usage over the next one to three years.</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr"/>
+          <t>Model deployment environment scaling: Use the deployment environment’s autoscale capabilities. For AKS deployment environments, use the cluster autoscaler to scale to meet demand. For online endpoints, automatically scale via integration with the Azure Monitor autoscale feature.</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Autoscaling adjusts the number of instances of the deployed model to match demand.</t>
+        </is>
+      </c>
       <c r="F551" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15081,17 +15053,21 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>945e262b-3a0f-4ac9-ac51-69b5500f9ee6</t>
+          <t>683ae603-156f-4186-8a82-aa2907fbb9bd</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="C552" t="inlineStr">
         <is>
-          <t>Monitor and optimize: Monitor your resource usage such as CPU and GPU usage when training models. If the resources aren't being fully used, modify your code to better use resources or scale down to smaller or cheaper VM sizes.</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr"/>
+          <t>Monitor model performance: Monitor the performance of your deployed models.</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Tracking the performance of models in production alerts you to potential problems such as data drift, prediction drift, data quality, and feature attribution drift.Monitoring data drift helps you detect changes in the input data that can lead to a decline in your model’s performance. Managing data drift helps you ensure that your model provides accurate results over time.</t>
+        </is>
+      </c>
       <c r="F552" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15099,19 +15075,19 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>563a3c8d-4168-4f18-a056-efb624734ecf</t>
+          <t>eccdaab6-7458-4967-9cd4-da6a89e3ce8c</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="C553" t="inlineStr">
         <is>
-          <t>Optimize compute resources: Optimize your compute resources based on the requirements of your workload. Choose the SKU that best suits your workload:&lt;ul&gt;&lt;li&gt;General Purpose – Balanced CPU to memory ratio, good for all purposes.&lt;/li&gt;&lt;li&gt;Compute Optimized – High CPU to memory ratio, good for math-heavy computations.&lt;/li&gt;&lt;li&gt;Memory Optimized – High memory to CPU, good for in-memory computations or database applications.&lt;/li&gt;&lt;li&gt;M Series – Very large machines that have huge amounts of memory and CPU. &lt;/li&gt;&lt;li&gt; GPU – Better for models with a high number of variables that can benefit from higher parallelism and specialized core instructions. Typical applications are deep learning, image or video processing, scientific simulations, data mining, and taking advantage of GPU development frameworks. Test with multiple families and document the results as your baseline. As your model and data evolve, the most adequate compute resource might change. Monitor execution times and reevaluate as needed.</t>
+          <t>Monitor infrastructure: Monitor online endpoints and integrate with Monitor to track and monitor the appropriate metrics and logs. Enable Application Insights when creating online deployments.Monitor training infrastructure and review resource usage such as memory and CPU or GPU usage when training models to ensure you're meeting your baseline requirements.</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Selecting the right compute is critical as it directly impacts the cost of running your workload. Choosing a GPU or a high-performance SKU without proper usage can lead to wasteful spending, while choosing undersized compute can lead to prohibitively long training times and performance problems.</t>
+          <t>Monitoring endpoints gives you visibility into metrics such as request latency and requests per minute. You can compare your performance versus your baseline and use this information to make changes to compute resources accordingly. Monitoring metrics such as network bytes can alert you if you're approaching quota limits and prevent throttling.Likewise, monitoring your training environment provides you with the information to make changes to your training environment. Use that information to decide to scale in or out, scale up or down with different performant SKUs, or choose between CPUs or GPUs.</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -15121,21 +15097,17 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>3d87f935-99a6-4aee-aac2-069994de09ff</t>
+          <t>76b80c26-8252-416e-aae1-ace03a9403dd</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="C554" t="inlineStr">
         <is>
-          <t>Optimize compute scaling: Configure your compute clusters for autoscaling to ensure you only use what you need.For training clusters, set the minimum number of nodes to 0 and configure the amount of time the node is idle to an appropriate time. For less iterative experimentation, reduce the time to save costs. For more iterative experimentation, use a higher time to prevent paying for scaling up or down after each change.</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>Configure autoscaling for compute clusters to scale down when their usage is low.  Set the minimum number of nodes to 0 for training clusters to scale down to 0 when not in use.</t>
-        </is>
-      </c>
+          <t>Resiliency: Choose the appropriate deployment option of either pay-as-you-go or provisioned throughput based on your use case. Because reserved capacity increases resiliency, choose provisioned throughput for production solutions. The pay-as-you-go approach is ideal for dev/test environments.</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr"/>
       <c r="F554" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15143,21 +15115,17 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>d30cfeeb-6c61-4a9d-9a56-c8296cec72cb</t>
+          <t>154d9075-f8f8-4dc8-b8f4-651d875d5dfe</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="C555" t="inlineStr">
         <is>
-          <t>Set training termination policies: Set early termination policies to limit the duration of training runs or terminate them early.</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>Setting termination policies can help you save costs by stopping nonperforming runs early.</t>
-        </is>
-      </c>
+          <t>Redundancy: Add the appropriate gateways in front of your Azure OpenAI deployments. The gateway must have the capability to withstand transient failures like throttling and also route to multiple Azure OpenAI instances. Consider routing to instances in different regions to build regional redundancy.</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr"/>
       <c r="F555" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15165,21 +15133,17 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>098a7bee-444c-4351-aeb1-8bd97036299c</t>
+          <t>571ddd3c-601e-46a7-bf80-c52f04a301fb</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="C556" t="inlineStr">
         <is>
-          <t>Use low-priority virtual machines for batch workloads: Consider using low-priority virtual machines for batch workloads that aren't time-sensitive and in which interruptions are recoverable.</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>Low-priority virtual machines enable a large amount of compute power to be used for a low cost. They take advantage of surplus capacity in Azure.</t>
-        </is>
-      </c>
+          <t>Resiliency: If you're using provisioned throughput, consider also deploying a pay-as-you-go instance to handle overflow. You can route calls to the pay-as-you-go instance via your gateway when your provisioned throughput model is throttled.</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr"/>
       <c r="F556" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15187,21 +15151,17 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>41f2dd91-5765-4dfb-9db0-9b3e976b4afb</t>
+          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="C557" t="inlineStr">
         <is>
-          <t>Enable idle shutdown for compute instances: Enable idle shutdown for compute instances or schedule a start and stop time if usage time is known.</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>By default, compute instances are available to you, accruing cost. Configuring compute instances to shut down when idle or configuring a schedule for them saves cost when they aren't in use.</t>
-        </is>
-      </c>
+          <t>Resiliency: Monitor capacity usage to ensure you aren't exceeding throughput limits. Regularly review capacity usage to achieve more accurate forecasting and help prevent service interruptions due to capacity constraints.</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr"/>
       <c r="F557" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15209,21 +15169,17 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>e3150ddd-f553-425f-bb91-249a9598e25e</t>
+          <t>7fd57f22-417b-47d5-88c9-ab7a2ceb5599</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="C558" t="inlineStr">
         <is>
-          <t>Parallelize training workloads: Consider parallelizing training workloads. Test running them with the help of the parallel components in Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>Parallel workloads can be run on multiple smaller instances, potentially yielding cost savings.</t>
-        </is>
-      </c>
+          <t>Resiliency: Follow the guidance for fine-tuning with large data files and import the data from an Azure blob store. Large files, 100 MB or larger, can become unstable when uploaded through multipart forms because the requests are atomic and can't be retried or resumed.</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr"/>
       <c r="F558" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15231,21 +15187,17 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>8b47ec85-0e9e-428b-9290-c590a7f4ab1a</t>
+          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="C559" t="inlineStr">
         <is>
-          <t>Azure Reserved VM Instances: Purchase Azure Reserved VM Instances if you have a good estimate of usage over the next one to three years. Take advantage of reserved capacity options for services when you have good estimates of usage.</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>Purchase Azure Reserved VM Instances to prepay for virtual machine usage and provide discounts with pay-as-you-go pricing. The discount is automatically applied for virtual machine usage that matches the reservation.</t>
-        </is>
-      </c>
+          <t>Recovery: Define a recovery strategy that includes a recovery plan for models that are fine-tuned and for training data uploaded to Azure OpenAI. Because Azure OpenAI doesn't have automatic failover, you must design a strategy that encompasses the entire service and all dependencies, such as storage that contains training data.</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr"/>
       <c r="F559" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15253,17 +15205,21 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>b4470844-d54d-4a1c-980c-37d09e17940d</t>
+          <t>088c617d-fce0-4fab-b4cd-9f9eb6a96cff</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="C560" t="inlineStr">
         <is>
-          <t>Development standards: Take advantage of Machine Learning model catalogs and registries to store, version, and share machine learning assets.</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr"/>
+          <t>Monitor rate limits for pay-as-you-go: If you're using the pay-as-you-go approach, manage rate limits for your model deployments and monitor usage of tokens per minute (TPM) and requests per minute (RPM).</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>This important throughput information provides information required to ensure that you assign enough TPM from your quota to meet the demand for your deployments.Assigning enough quota prevents throttling of calls to your deployed models.</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15271,17 +15227,21 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>4dace40c-2627-4eb1-9d18-4a6c03901283</t>
+          <t>f109deb2-54f9-4405-a9f0-f90fd0f76adf</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="C561" t="inlineStr">
         <is>
-          <t>Automate for efficiency: Follow good machine learning operations (MLOps) practices. When possible, build end-to-end automated pipelines for data preparation, training, and scoring processes. In development, use scripts instead of notebooks for training models, as scripts are easier to integrate into automated pipelines.</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
+          <t>Monitor provision-managed utilization for provisioned throughput: If you're using the provisioned throughput payment model, monitor provision-managed utilization.</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>It's important to monitor provision-managed utilization to ensure it doesn't exceed 100%, to prevent throttling of calls to your deployed models.</t>
+        </is>
+      </c>
       <c r="F561" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15289,17 +15249,21 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>2fe1daf9-b388-4d25-8ff8-39908ada7f27</t>
+          <t>ef12f5c3-dbe2-4040-be82-724eebc6f87e</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="C562" t="inlineStr">
         <is>
-          <t>Deploy with confidence: Implement infrastructure as code (IaC) for Machine Learning workspaces, compute clusters, compute instances, and other deployment environments.</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr"/>
+          <t>Tune content filters: Tune content filters to minimize false positives from overly aggressive filters.</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Content filters block prompts or completions based on an opaque risk analysis. Ensure content filters are tuned to allow expected usage for your workload.</t>
+        </is>
+      </c>
       <c r="F562" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15307,14 +15271,14 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>7b5de736-4956-4313-82be-0a0ff07d7ab6</t>
+          <t>efcf5f6a-02bb-4cc8-8018-055ebf2e57e0</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="C563" t="inlineStr">
         <is>
-          <t>Observability: Monitor the performance of your deployed models including data drift.</t>
+          <t>Protect confidentiality: If you upload training data to Azure OpenAI, use customer-managed keys for data encryption, implement a key-rotation strategy, and delete training, validation, and training results data. If you use an external data store for training data, follow security best practices for that store. For example, for Azure Blob Storage, use customer-managed keys for encryption and implement a key-rotation strategy. Use managed identity-based access, implement a network perimeter by using private endpoints, and enable access logs.</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
@@ -15325,14 +15289,14 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>f8196404-8f76-4e65-9b32-46d8d777d1d3</t>
+          <t>a61b826b-9f3b-4f51-8e0e-a32a92865386</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="C564" t="inlineStr">
         <is>
-          <t>Observability: If your models are deployed to online endpoints, enable Application Insights to monitor online endpoints and deployments. Monitor training infrastructure to ensure you're meeting your baseline requirements.</t>
+          <t>Protect confidentiality: Guard against data exfiltration by limiting the outbound URLs that Azure OpenAI resources can access.</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
@@ -15343,14 +15307,14 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>d212d648-752b-480f-bda5-0d45d0185312</t>
+          <t>9f4bdfff-2c6c-4662-9139-1de51d2dbd20</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="C565" t="inlineStr">
         <is>
-          <t>Simplicity: Use curated environments optimized for Machine Learning, when available.</t>
+          <t>Protect integrity: Implement access controls to authenticate and authorize user access to the system by using the least-privilege principle and by using individual identities instead of keys.</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
@@ -15361,21 +15325,17 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>afd5b803-c151-4b8d-ae08-63cc8961a378</t>
+          <t>b8463e8d-daaa-4209-9944-0fb0587219a8</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="C566" t="inlineStr">
         <is>
-          <t>Minimize Machine Learning workspace instances: Minimize the number of workspaces, when possible, to reduce maintenance.</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>Limiting the number of workspaces reduces the maintenance effort and cost of operation. For requirements, such as security, you might need multiple separate workspaces. Minimize the number of workspaces when possible.</t>
-        </is>
-      </c>
+          <t>Protect integrity: Implement jailbreak risk detection to safeguard your language model deployments against prompt injection attacks.</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15383,21 +15343,17 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>bb6c4c2f-65f4-4fab-ada7-ebe079bde9cb</t>
+          <t>714249d8-2b60-4920-89a2-eab4a338ac02</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="C567" t="inlineStr">
         <is>
-          <t>Take advantage of model catalogs and registries: Take advantage of Machine Learning model catalogs and registries to store, version, and share machine learning assets.Use Machine Learning model catalogs to help you implement A/B testing and deployment of models.</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>Use Machine Learning model registries to store and version your machine learning models to track changes and maintain lineage with the job and datasets used for training. With Machine Learning model catalogs, your data science teams can discover, evaluate, and fine tune pretrained foundational machine learning models. Storing versioned models in Machine Learning model registries supports deployment strategies such as A/B releases, canary releases, and rollbacks.</t>
-        </is>
-      </c>
+          <t>Protect availability: Use security controls to prevent attacks that might exhaust model usage quotas. You might configure controls to isolate the service on a network. If the service must be accessible from the internet, consider using a gateway to block suspected abuse by using routing or throttling.</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15405,19 +15361,19 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>31841d05-3372-4bd4-b8bc-efcaaee1bd88</t>
+          <t>e0383d3b-71f1-4fda-9759-24cfd293abff</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="C568" t="inlineStr">
         <is>
-          <t>Monitor model performance: Monitor the performance of your deployed models, and detect data drift on datasets.</t>
+          <t>Secure keys: If your architecture requires Azure OpenAI key-based authentication, store those keys in Azure Key Vault, not in application code.</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Monitoring deployed models ensures your models meet the performance requirements.Monitoring data drift helps you detect changes in the input data that can lead to a decline in your model’s performance. Managing data drift helps you ensure that your model provides accurate results over time.</t>
+          <t>Separating secrets from code by storing them in Key Vault reduces the chance of leaking secrets. Separation also facilitates central management of secrets, easing responsibilities like key rotation.</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -15427,19 +15383,19 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>90a72a7e-6fb5-4e02-a159-7a4d907eb098</t>
+          <t>c4310e87-1366-4523-b2e1-244e1074fbb0</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="C569" t="inlineStr">
         <is>
-          <t>Monitor infrastructure: If your models are deployed to online endpoints, enable Application Insights to monitor online endpoints and deployments.Monitor training infrastructure to ensure you're meeting your baseline requirements.Ensure you're collecting resource logs for Machine Learning.</t>
+          <t>Restrict access: Disable public access to Azure OpenAI unless your workload requires it. Create private endpoints if you're connecting from consumers in an Azure virtual network.</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Monitoring endpoints gives you visibility into metrics such as request latency and requests per minute. You can compare your performance versus your baseline and use this information to make changes to compute resources accordingly. Monitoring metrics such as network bytes can alert you if you're approaching quota limits and prevent throttling.Likewise, monitoring your training environment provides you with the information to make changes to your training environment. Use that information to decide to scale in or out, scale up or down with different performant SKUs, or choose between CPUs or GPUs.</t>
+          <t>Controlling access to Azure OpenAI helps prevent attacks from unauthorized users. Using private endpoints ensures network traffic remains private between the application and the platform.</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -15449,19 +15405,19 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>b1d87076-b253-47ae-8727-97f804e49a3c</t>
+          <t>4a7a9a07-0229-4175-b784-9a99eded4d54</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="C570" t="inlineStr">
         <is>
-          <t>Curate model training environments: Use curated environments optimized for Machine Learning, when available.</t>
+          <t>Microsoft Entra ID: Use Microsoft Entra ID for authentication and to authorize access to Azure OpenAI by using role-based access control (RBAC). Disable local authentication in Azure AI Services and set `disableLocalAuth` to `true`. Grant identities that perform completions or image generation the Cognitive Services OpenAI User role. Grant model automation pipelines and ad-hoc data-science access a role like Cognitive Services OpenAI Contributor.</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Curated environments are pre-created environments provided by Machine Learning that speed up deployment time and reduce deployment and training latency. Using curated environments improves training and deployment success rates and avoids unnecessary image builds. Curated environments, such as Azure Container for PyTorch, can also be optimized for training large models on Machine Learning.</t>
+          <t>Using Microsoft Entra ID centralizes the identity-management component and eliminates the use of API keys. Using RBAC with Microsoft Entra ID ensures that users or groups have exactly the permissions they need to do their job. This kind of fine-grained access control isn't possible with Azure OpenAI API keys.</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -15471,17 +15427,21 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>4c6895ce-abd9-4c90-a386-c31bc0681869</t>
+          <t>d5892190-2da9-43f4-b1e1-76b38b369643</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="C571" t="inlineStr">
         <is>
-          <t>Performance targets: Determine the acceptable training time and retrain frequency for your model. Setting a clear target for training time, along with testing, helps you determine the compute resources, CPU versus GPU, and CPU SKUs required to meet the training time goal.</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
+          <t>Use customer-managed keys: Use customer-managed keys for fine-tuned models and training data that's uploaded to Azure OpenAI.</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Using customer-managed keys gives you greater flexibility to create, rotate, disable, and revoke access controls.</t>
+        </is>
+      </c>
       <c r="F571" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15489,17 +15449,21 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>82ffebb1-2e91-46a4-b796-3fa55c4c20e3</t>
+          <t>60a4703c-1086-45e1-9384-ebb32ab50696</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="C572" t="inlineStr">
         <is>
-          <t>Performance targets: Define the acceptable performance targets for your deployed models including response time, requests per second, error rate, and uptime. Performance targets act as a benchmark for your deployed model's efficiency. Targets can help you make CPU versus GPU determinations, CPU SKU choices, and scaling requirements.</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
+          <t>Protect against jailbreak attacks: Use Azure AI Content Safety Studio to detect jailbreak risks.</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Detect jailbreak attempts to identify and block prompts that try to bypass the safety mechanisms of your Azure OpenAI deployments.</t>
+        </is>
+      </c>
       <c r="F572" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15507,14 +15471,14 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>5e526216-1b94-4cfe-86ef-bbce971f7f3a</t>
+          <t>ce66eba7-5972-4cb5-8db0-b75c3720b220</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="C573" t="inlineStr">
         <is>
-          <t>Meet capacity requirements: Choose the right compute resources for model training.</t>
+          <t>Cost management: Develop your cost model, considering prompt sizes. Understanding prompt input and response sizes and how text translates into tokens helps you create a viable cost model.</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
@@ -15525,14 +15489,14 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>2d6ddbe2-2bcc-4629-a316-5d56d74ef68a</t>
+          <t>08f7b66c-7679-479b-8e2f-41b3305613dc</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="C574" t="inlineStr">
         <is>
-          <t>Meet capacity requirements: Choose the right compute resources for model deployments.</t>
+          <t>Usage optimization: Start with pay-as-you-go pricing for Azure OpenAI until your token usage is predictable.</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
@@ -15543,14 +15507,14 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>0ab74767-80ac-454e-aab6-b546e38411f8</t>
+          <t>3f66f351-a073-40bb-94d2-326e1ea1a696</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="C575" t="inlineStr">
         <is>
-          <t>Meet capacity requirements: Choose deployment environments with autoscaling capabilities to add and remove capacity as demand fluctuates.</t>
+          <t>Rate optimization: When your token usage is sufficiently high and predictable over a period of time, use the provisioned throughput pricing model for better cost optimization.</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
@@ -15561,14 +15525,14 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>d47bd862-5302-4ecb-a551-37cb0d15e802</t>
+          <t>3802ce2d-2a46-445d-92e2-2a23b2e40705</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="C576" t="inlineStr">
         <is>
-          <t>Achieve and sustain performance: Continuously monitor the performance of your deployed models, review results, and take appropriate actions.</t>
+          <t>Usage optimization: Consider model pricing and capabilities when you choose models. Start with less-costly models for less-complex tasks like text generation or completion tasks. For more complex tasks like language translation or content understanding, consider using more advanced models. Consider different model capabilities and maximum token usage limits when you choose a model that's appropriate for use cases like text embedding, image generation, or transcription scenarios. By carefully selecting the model that best fits your needs, you can optimize costs while still achieving the desired application performance.</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
@@ -15579,14 +15543,14 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>e10dead3-58c0-40b2-aa9b-39c64a68c555</t>
+          <t>2b2303c0-e057-431d-9a02-20a1a0b2b5b9</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="C577" t="inlineStr">
         <is>
-          <t>Achieve and sustain performance: Continuously monitor the performance of your infrastructure of deployed models, review results, and take appropriate actions. Monitor training infrastructure to ensure you're meeting your requirements for training time.</t>
+          <t>Usage optimization: Use the token-limiting constraints offered by the API calls, such as `max_tokens` and `n`, which indicate the number of completions to generate.</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
@@ -15597,21 +15561,17 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>e257de8e-a8ef-4b91-81a3-3d832682b1eb</t>
+          <t>c4104d7c-4a4f-4b8a-9928-558a7c5c61d8</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="C578" t="inlineStr">
         <is>
-          <t>Select appropriate compute services for model training: Consider Machine Learning compute clusters over compute instances for model training if you require autoscaling.Optimize your compute resources based on the training requirements. First choose between CPUs and GPUs. Default to CPUs, but consider GPUs for workloads such as deep learning, image or video processing, or large amounts of data. Next, choose the image SKU that best suits your workload.Use testing to choose the compute option that optimizes cost against training time when determining your baseline.</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>Selecting the right compute is critical as it directly impacts the training time. Choosing the right SKU and CPU versus GPU ensures your model training can meet your requirements and performance targets. Choosing a low-performance SKU that's overused can lead to prohibitively long training times and performance problems. Compute clusters provide the ability to improve performance by scaling out workloads that support horizontal scaling. This method provides flexibility for handling workloads with different demands and lets you add or remove machines as needed.</t>
-        </is>
-      </c>
+          <t>Usage optimization: Maximize Azure OpenAI price breakpoints, for example, fine-tuning and model breakpoints like image generation. Because fine-tuning is charged per hour, use as much time as you have available per hour to improve fine-tuning results while avoiding slipping into the next billing period. Similarly, the cost for generating 100 images is the same as the cost for 1 image. Maximize price breakpoints to your advantage.</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr"/>
       <c r="F578" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15619,21 +15579,17 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>352a223c-dabd-46da-8752-56a87c6f18b7</t>
+          <t>fb44ea80-44a3-465f-9d50-98b800a90fd6</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="C579" t="inlineStr">
         <is>
-          <t>Model deployment environment scaling: Use the deployment environment’s autoscale capabilities. For AKS deployment environments, use the cluster autoscaler to scale to meet demand. For online endpoints, automatically scale via integration with the Azure Monitor autoscale feature.</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>Autoscaling adjusts the number of instances of the deployed model to match demand.</t>
-        </is>
-      </c>
+          <t>Usage optimization: Remove unused fine-tuned models when they're no longer being consumed to avoid incurring an ongoing hosting fee.</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr"/>
       <c r="F579" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15641,21 +15597,17 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>683ae603-156f-4186-8a82-aa2907fbb9bd</t>
+          <t>5f027af8-e168-4b86-8255-4ea6f74cfd87</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="C580" t="inlineStr">
         <is>
-          <t>Monitor model performance: Monitor the performance of your deployed models.</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>Tracking the performance of models in production alerts you to potential problems such as data drift, prediction drift, data quality, and feature attribution drift.Monitoring data drift helps you detect changes in the input data that can lead to a decline in your model’s performance. Managing data drift helps you ensure that your model provides accurate results over time.</t>
-        </is>
-      </c>
+          <t>Adjust usage: Optimize prompt input and response length. Longer prompts raise costs by consuming more tokens. However, prompts that are missing sufficient context don't help the models yield good results. Create concise prompts that provide enough context for the model to generate a useful response. Also ensure that you optimize the limit of the response length.</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr"/>
       <c r="F580" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15663,21 +15615,17 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>eccdaab6-7458-4967-9cd4-da6a89e3ce8c</t>
+          <t>23756c91-3a66-4733-98b7-448bc8441f56</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="C581" t="inlineStr">
         <is>
-          <t>Monitor infrastructure: Monitor online endpoints and integrate with Monitor to track and monitor the appropriate metrics and logs. Enable Application Insights when creating online deployments.Monitor training infrastructure and review resource usage such as memory and CPU or GPU usage when training models to ensure you're meeting your baseline requirements.</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>Monitoring endpoints gives you visibility into metrics such as request latency and requests per minute. You can compare your performance versus your baseline and use this information to make changes to compute resources accordingly. Monitoring metrics such as network bytes can alert you if you're approaching quota limits and prevent throttling.Likewise, monitoring your training environment provides you with the information to make changes to your training environment. Use that information to decide to scale in or out, scale up or down with different performant SKUs, or choose between CPUs or GPUs.</t>
-        </is>
-      </c>
+          <t>Cost efficiency: Batch requests where possible to minimize the per-call overhead, which can reduce overall costs. Ensure that you optimize batch size.</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr"/>
       <c r="F581" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15685,14 +15633,14 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>76b80c26-8252-416e-aae1-ace03a9403dd</t>
+          <t>160154da-ea9e-4a84-ac35-8a731658c0fd</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="C582" t="inlineStr">
         <is>
-          <t>Resiliency: Choose the appropriate deployment option of either pay-as-you-go or provisioned throughput based on your use case. Because reserved capacity increases resiliency, choose provisioned throughput for production solutions. The pay-as-you-go approach is ideal for dev/test environments.</t>
+          <t>Cost efficiency: Because models have different fine-tuning costs, consider these costs if your solution requires fine-tuning.</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
@@ -15703,14 +15651,14 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>154d9075-f8f8-4dc8-b8f4-651d875d5dfe</t>
+          <t>739c80f6-0570-435b-ab82-2c8ce9d2deb8</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="C583" t="inlineStr">
         <is>
-          <t>Redundancy: Add the appropriate gateways in front of your Azure OpenAI deployments. The gateway must have the capability to withstand transient failures like throttling and also route to multiple Azure OpenAI instances. Consider routing to instances in different regions to build regional redundancy.</t>
+          <t>Monitor and optimize: Set up a cost-tracking system that monitors model usage. Use that information to help inform model choices and prompt sizes.</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
@@ -15721,17 +15669,21 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>571ddd3c-601e-46a7-bf80-c52f04a301fb</t>
+          <t>518fd651-b13e-427e-a0de-f634a014f5b2</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>Resiliency: If you're using provisioned throughput, consider also deploying a pay-as-you-go instance to handle overflow. You can route calls to the pay-as-you-go instance via your gateway when your provisioned throughput model is throttled.</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
+          <t>Design client code to set limits: Your custom clients should use the limit features of the Azure OpenAI completions API, such as maximum limit on the number of tokens per model (`max_tokens`) or number of completions to generation (`n`). Setting limits ensures that the server doesn't produce more than the client needs.</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Using API features to restrict usage aligns service consumption with client needs. This saves money by ensuring the model doesn't generate an overly long response that consumes more tokens than necessary.</t>
+        </is>
+      </c>
       <c r="F584" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15739,17 +15691,21 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
+          <t>afb53b41-825a-4310-b445-bf391792c568</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="C585" t="inlineStr">
         <is>
-          <t>Resiliency: Monitor capacity usage to ensure you aren't exceeding throughput limits. Regularly review capacity usage to achieve more accurate forecasting and help prevent service interruptions due to capacity constraints.</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
+          <t>Monitor pay-as-you-go usage: If you use the pay-as-you-go approach, monitor usage of TPM and RPM. Use that information to inform architectural design decisions such as what models to use, and to optimize prompt sizes.</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Continuously monitoring TPM and RPM gives you relevant metrics to optimize the cost of Azure OpenAI models. You can couple this monitoring with model features and model pricing to optimize model usage. You can also use this monitoring to optimize prompt sizes.</t>
+        </is>
+      </c>
       <c r="F585" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15757,17 +15713,21 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>7fd57f22-417b-47d5-88c9-ab7a2ceb5599</t>
+          <t>e91029f2-ddf4-41f3-8358-f31b5afbe8ba</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>Resiliency: Follow the guidance for fine-tuning with large data files and import the data from an Azure blob store. Large files, 100 MB or larger, can become unstable when uploaded through multipart forms because the requests are atomic and can't be retried or resumed.</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
+          <t>Monitor provisioned throughput usage: If you use provisioned throughput, monitor provision-managed utilization to ensure you're not underutilizing the provisioned throughput you purchased.</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Continuously monitoring provision-managed utilization gives you the information you need to understand if you're underutilizing your provisioned throughput.</t>
+        </is>
+      </c>
       <c r="F586" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15775,17 +15735,21 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
+          <t>06a0b95c-b014-4205-8d0c-f074ec393239</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="C587" t="inlineStr">
         <is>
-          <t>Recovery: Define a recovery strategy that includes a recovery plan for models that are fine-tuned and for training data uploaded to Azure OpenAI. Because Azure OpenAI doesn't have automatic failover, you must design a strategy that encompasses the entire service and all dependencies, such as storage that contains training data.</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
+          <t>Cost management: Use cost management features with OpenAI to monitor costs, set budgets to manage costs, and create alerts to notify stakeholders of risks or anomalies.</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Cost monitoring, setting budgets, and setting alerts provides governance with the appropriate accountability processes.</t>
+        </is>
+      </c>
       <c r="F587" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15793,21 +15757,17 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>088c617d-fce0-4fab-b4cd-9f9eb6a96cff</t>
+          <t>f18aba52-5587-43e6-b994-8cab7022167f</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="C588" t="inlineStr">
         <is>
-          <t>Monitor rate limits for pay-as-you-go: If you're using the pay-as-you-go approach, manage rate limits for your model deployments and monitor usage of tokens per minute (TPM) and requests per minute (RPM).</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>This important throughput information provides information required to ensure that you assign enough TPM from your quota to meet the demand for your deployments.Assigning enough quota prevents throttling of calls to your deployed models.</t>
-        </is>
-      </c>
+          <t>Azure DevOps culture: Ensure deployment of Azure OpenAI instances across your various environments, such as development, test, and production. Ensure that you have environments to support continuous learning and experimentation throughout the development cycle.</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr"/>
       <c r="F588" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15815,21 +15775,17 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>f109deb2-54f9-4405-a9f0-f90fd0f76adf</t>
+          <t>3c5f9e8e-c1a9-4c18-ac05-72877f24ff22</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="C589" t="inlineStr">
         <is>
-          <t>Monitor provision-managed utilization for provisioned throughput: If you're using the provisioned throughput payment model, monitor provision-managed utilization.</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>It's important to monitor provision-managed utilization to ensure it doesn't exceed 100%, to prevent throttling of calls to your deployed models.</t>
-        </is>
-      </c>
+          <t>Observability: Monitor, aggregate, and visualize appropriate metrics.</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr"/>
       <c r="F589" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15837,21 +15793,17 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>ef12f5c3-dbe2-4040-be82-724eebc6f87e</t>
+          <t>56e72e7c-32bb-414b-bf04-d2883871aacb</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="C590" t="inlineStr">
         <is>
-          <t>Tune content filters: Tune content filters to minimize false positives from overly aggressive filters.</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>Content filters block prompts or completions based on an opaque risk analysis. Ensure content filters are tuned to allow expected usage for your workload.</t>
-        </is>
-      </c>
+          <t>Observability: If Azure OpenAI diagnostics are insufficient for your needs, consider using a gateway like Azure API Management in front of Azure OpenAI to log both incoming prompts and outgoing responses where permitted. This information can help you understand the effectiveness of the model for incoming prompts.</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr"/>
       <c r="F590" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15859,14 +15811,14 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>efcf5f6a-02bb-4cc8-8018-055ebf2e57e0</t>
+          <t>63aedcb9-e01e-4df3-b9a6-13c13d6971d4</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="C591" t="inlineStr">
         <is>
-          <t>Protect confidentiality: If you upload training data to Azure OpenAI, use customer-managed keys for data encryption, implement a key-rotation strategy, and delete training, validation, and training results data. If you use an external data store for training data, follow security best practices for that store. For example, for Azure Blob Storage, use customer-managed keys for encryption and implement a key-rotation strategy. Use managed identity-based access, implement a network perimeter by using private endpoints, and enable access logs.</t>
+          <t>Deploy with confidence: Use infrastructure as code (IaC) to deploy Azure OpenAI, model deployments, and other infrastructure required for fine-tuning models.</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
@@ -15877,14 +15829,14 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>a61b826b-9f3b-4f51-8e0e-a32a92865386</t>
+          <t>fe7a8e0a-b53a-48f0-a204-4e1e7e20ea4b</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="C592" t="inlineStr">
         <is>
-          <t>Protect confidentiality: Guard against data exfiltration by limiting the outbound URLs that Azure OpenAI resources can access.</t>
+          <t>Deploy with confidence: Follow large language model operations (LLMOps) practices to operationalize the management of your Azure OpenAI LLMs, including deployment, fine-tuning, and prompt engineering.</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
@@ -15895,14 +15847,14 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>9f4bdfff-2c6c-4662-9139-1de51d2dbd20</t>
+          <t>3dffb456-4675-4acb-b797-a5bf591e003a</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="C593" t="inlineStr">
         <is>
-          <t>Protect integrity: Implement access controls to authenticate and authorize user access to the system by using the least-privilege principle and by using individual identities instead of keys.</t>
+          <t>Automate for efficiency: If you use key-based authentication, implement an automated key-rotation strategy.</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
@@ -15913,17 +15865,21 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>b8463e8d-daaa-4209-9944-0fb0587219a8</t>
+          <t>4c82d2b3-c083-4a0e-9cd2-92d2b00b4c96</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="C594" t="inlineStr">
         <is>
-          <t>Protect integrity: Implement jailbreak risk detection to safeguard your language model deployments against prompt injection attacks.</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr"/>
+          <t>Enable and configure Azure Diagnostics: Enable and configure Diagnostics for the Azure OpenAI Service.</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Diagnostics collects and analyzes metrics and logs, helping you monitor the availability, performance, and operation of Azure OpenAI.</t>
+        </is>
+      </c>
       <c r="F594" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15931,14 +15887,14 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>714249d8-2b60-4920-89a2-eab4a338ac02</t>
+          <t>ff3d2610-e8e8-4a78-aba5-556758a2798c</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="C595" t="inlineStr">
         <is>
-          <t>Protect availability: Use security controls to prevent attacks that might exhaust model usage quotas. You might configure controls to isolate the service on a network. If the service must be accessible from the internet, consider using a gateway to block suspected abuse by using routing or throttling.</t>
+          <t>Capacity: Estimate consumers' elasticity demands. Identify high-priority traffic that requires synchronous responses and low-priority traffic that can be asynchronous and batched.</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
@@ -15949,21 +15905,17 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>e0383d3b-71f1-4fda-9759-24cfd293abff</t>
+          <t>63dbbc6a-f840-4893-979c-2afcea82bf5f</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="C596" t="inlineStr">
         <is>
-          <t>Secure keys: If your architecture requires Azure OpenAI key-based authentication, store those keys in Azure Key Vault, not in application code.</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>Separating secrets from code by storing them in Key Vault reduces the chance of leaking secrets. Separation also facilitates central management of secrets, easing responsibilities like key rotation.</t>
-        </is>
-      </c>
+          <t>Capacity: Benchmark token consumption requirements based on estimated demands from consumers. Consider using the Azure OpenAI benchmarking tool to help you validate the throughput if you're using provisioned throughput unit (PTU) deployments.</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr"/>
       <c r="F596" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15971,21 +15923,17 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>c4310e87-1366-4523-b2e1-244e1074fbb0</t>
+          <t>14677a1d-0b65-455a-997b-1490c397fbc8</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="C597" t="inlineStr">
         <is>
-          <t>Restrict access: Disable public access to Azure OpenAI unless your workload requires it. Create private endpoints if you're connecting from consumers in an Azure virtual network.</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>Controlling access to Azure OpenAI helps prevent attacks from unauthorized users. Using private endpoints ensures network traffic remains private between the application and the platform.</t>
-        </is>
-      </c>
+          <t>Capacity: Use provisioned throughput for production workloads. Provisioned throughput offers dedicated memory and compute, reserved capacity, and consistent maximum latency for the specified model version. The pay-as-you-go offering can suffer from noisy neighbor problems like increased latency and throttling in regions under heavy use. Also, the pay-as-you-go approach doesn't offer guaranteed capacity.</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr"/>
       <c r="F597" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -15993,21 +15941,17 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>4a7a9a07-0229-4175-b784-9a99eded4d54</t>
+          <t>59c8767d-1b78-4016-92d5-ebd83032fafa</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="C598" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID: Use Microsoft Entra ID for authentication and to authorize access to Azure OpenAI by using role-based access control (RBAC). Disable local authentication in Azure AI Services and set `disableLocalAuth` to `true`. Grant identities that perform completions or image generation the Cognitive Services OpenAI User role. Grant model automation pipelines and ad-hoc data-science access a role like Cognitive Services OpenAI Contributor.</t>
-        </is>
-      </c>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>Using Microsoft Entra ID centralizes the identity-management component and eliminates the use of API keys. Using RBAC with Microsoft Entra ID ensures that users or groups have exactly the permissions they need to do their job. This kind of fine-grained access control isn't possible with Azure OpenAI API keys.</t>
-        </is>
-      </c>
+          <t>Capacity: Add the appropriate gateways in front of your Azure OpenAI deployments. Ensure that the gateway can route to multiple instances in the same or different regions.</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr"/>
       <c r="F598" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16015,21 +15959,17 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>d5892190-2da9-43f4-b1e1-76b38b369643</t>
+          <t>a318b299-9d54-4dfc-8f20-b00ceed43ed0</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="C599" t="inlineStr">
         <is>
-          <t>Use customer-managed keys: Use customer-managed keys for fine-tuned models and training data that's uploaded to Azure OpenAI.</t>
-        </is>
-      </c>
-      <c r="D599" t="inlineStr">
-        <is>
-          <t>Using customer-managed keys gives you greater flexibility to create, rotate, disable, and revoke access controls.</t>
-        </is>
-      </c>
+          <t>Capacity: Allocate PTUs to cover your predicted usage, and complement these PTUs with a TPM deployment to handle elasticity above that limit. This approach combines base throughput with elastic throughput for efficiency. Like other considerations, this approach requires a custom gateway implementation to route requests to the TPM deployment when the PTU limits are reached.</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr"/>
       <c r="F599" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16037,21 +15977,17 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>60a4703c-1086-45e1-9384-ebb32ab50696</t>
+          <t>ceb21879-94da-485e-a24b-b30180fb566c</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="C600" t="inlineStr">
         <is>
-          <t>Protect against jailbreak attacks: Use Azure AI Content Safety Studio to detect jailbreak risks.</t>
-        </is>
-      </c>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>Detect jailbreak attempts to identify and block prompts that try to bypass the safety mechanisms of your Azure OpenAI deployments.</t>
-        </is>
-      </c>
+          <t>Capacity: Send high-priority requests synchronously. Queue low-priority requests and send them through in batches when demand is low.</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr"/>
       <c r="F600" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16059,14 +15995,14 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>ce66eba7-5972-4cb5-8db0-b75c3720b220</t>
+          <t>dd313c03-7429-4cb1-84e9-d982664c2dfc</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="C601" t="inlineStr">
         <is>
-          <t>Cost management: Develop your cost model, considering prompt sizes. Understanding prompt input and response sizes and how text translates into tokens helps you create a viable cost model.</t>
+          <t>Capacity: Select a model that aligns with your performance requirements, considering the tradeoff between speed and output complexity. Model performance can vary significantly based on the chosen model type. Models designed for speed offer faster response times, which can be beneficial for applications that require quick interactions. Conversely, more sophisticated models might deliver higher-quality outputs at the expense of increased response time.</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
@@ -16077,14 +16013,14 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>08f7b66c-7679-479b-8e2f-41b3305613dc</t>
+          <t>cdf82e76-ee07-47e6-9985-6b1c0a39dd42</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="C602" t="inlineStr">
         <is>
-          <t>Usage optimization: Start with pay-as-you-go pricing for Azure OpenAI until your token usage is predictable.</t>
+          <t>Achieve performance: For applications like chatbots or conversational interfaces, consider implementing streaming. Streaming can enhance the perceived performance of Azure OpenAI applications by delivering responses to users in an incremental manner, improving the user experience.</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
@@ -16095,14 +16031,14 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>3f66f351-a073-40bb-94d2-326e1ea1a696</t>
+          <t>9aa6da24-6a00-4381-9da6-66c9d5cbf41f</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="C603" t="inlineStr">
         <is>
-          <t>Rate optimization: When your token usage is sufficiently high and predictable over a period of time, use the provisioned throughput pricing model for better cost optimization.</t>
+          <t>Achieve performance: Determine when to use fine-tuning before you commit to fine-tuning. Although there are good use cases for fine-tuning, such as when the information needed to steer the model is too long or complex to fit into the prompt, make sure that prompt engineering and retrieval-augmented generation (RAG) approaches don't work or are demonstrably more expensive.</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
@@ -16113,14 +16049,14 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>3802ce2d-2a46-445d-92e2-2a23b2e40705</t>
+          <t>456cbf54-9c2f-4c6e-9739-eca408fa6baf</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="C604" t="inlineStr">
         <is>
-          <t>Usage optimization: Consider model pricing and capabilities when you choose models. Start with less-costly models for less-complex tasks like text generation or completion tasks. For more complex tasks like language translation or content understanding, consider using more advanced models. Consider different model capabilities and maximum token usage limits when you choose a model that's appropriate for use cases like text embedding, image generation, or transcription scenarios. By carefully selecting the model that best fits your needs, you can optimize costs while still achieving the desired application performance.</t>
+          <t>Achieve performance: Consider using dedicated model deployments per consumer group to provide per-model usage isolation that can help prevent noisy neighbors between your consumer groups.</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
@@ -16131,14 +16067,14 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>2b2303c0-e057-431d-9a02-20a1a0b2b5b9</t>
+          <t>2dc38e31-8e03-40f4-842d-58ac317c5106</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="C605" t="inlineStr">
         <is>
-          <t>Usage optimization: Use the token-limiting constraints offered by the API calls, such as `max_tokens` and `n`, which indicate the number of completions to generate.</t>
+          <t>Review Virtual Machines quotas and limits that might pose design restrictions. VMs have specific limits and quotas, which vary based on the type of VM or the region. There might be subscription restrictions, such as the number of VMs per subscription or the number of cores per VM. If other workloads share your subscription, then your ability to consume data might be reduced.</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
@@ -16149,14 +16085,14 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>c4104d7c-4a4f-4b8a-9928-558a7c5c61d8</t>
+          <t>999ecfef-c272-4cd8-8bd0-9cd5335fb695</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="C606" t="inlineStr">
         <is>
-          <t>Usage optimization: Maximize Azure OpenAI price breakpoints, for example, fine-tuning and model breakpoints like image generation. Because fine-tuning is charged per hour, use as much time as you have available per hour to improve fine-tuning results while avoiding slipping into the next billing period. Similarly, the cost for generating 100 images is the same as the cost for 1 image. Maximize price breakpoints to your advantage.</t>
+          <t>Conduct a failure mode analysis to minimize points of failure by analyzing VM interactions with the network and storage components. Choose configurations like ephemeral operating system (OS) disks to localize disk access and avoid network hops. Add a load balancer to enhance self-preservation by distributing network traffic across multiple VMs, which improves availability and reliability.</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
@@ -16167,14 +16103,14 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>fb44ea80-44a3-465f-9d50-98b800a90fd6</t>
+          <t>bf605fe8-6171-4c01-8290-d6c79a21cf10</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="C607" t="inlineStr">
         <is>
-          <t>Usage optimization: Remove unused fine-tuned models when they're no longer being consumed to avoid incurring an ongoing hosting fee.</t>
+          <t>Calculate your composite service-level objectives (SLOs) based on Azure service-level agreements (SLAs). Ensure that your SLO isn't higher than the Azure SLAs to avoid unrealistic expectations and potential issues.</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
@@ -16185,14 +16121,14 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>5f027af8-e168-4b86-8255-4ea6f74cfd87</t>
+          <t>4cd18dd0-57e4-4fc9-a8ad-74c3333b6d8b</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="C608" t="inlineStr">
         <is>
-          <t>Adjust usage: Optimize prompt input and response length. Longer prompts raise costs by consuming more tokens. However, prompts that are missing sufficient context don't help the models yield good results. Create concise prompts that provide enough context for the model to generate a useful response. Also ensure that you optimize the limit of the response length.</t>
+          <t>Create state isolation. Workload data should be on a separate data disk to prevent interference with the OS disk. If a VM fails, you can create a new OS disk with the same data disk, which ensures resilience and fault isolation. For more information, see Ephemeral OS disks.</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
@@ -16203,14 +16139,14 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>23756c91-3a66-4733-98b7-448bc8441f56</t>
+          <t>90e0bce0-bc44-42ba-be28-2f3dde2f4b37</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="C609" t="inlineStr">
         <is>
-          <t>Cost efficiency: Batch requests where possible to minimize the per-call overhead, which can reduce overall costs. Ensure that you optimize batch size.</t>
+          <t>Make VMs and their dependencies redundant across zones. If a VM fails, the workload should continue to function because of redundancy. Include dependencies in your redundancy choices. For example, use the built-in redundancy options that are available with disks. Use zone-redundant IPs to ensure data availability and high uptime.</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
@@ -16221,14 +16157,14 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>160154da-ea9e-4a84-ac35-8a731658c0fd</t>
+          <t>6d76e7b9-52d3-4878-83ab-2a08df23c8f6</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="C610" t="inlineStr">
         <is>
-          <t>Cost efficiency: Because models have different fine-tuning costs, consider these costs if your solution requires fine-tuning.</t>
+          <t>Be ready to scale up and scale out to prevent service level degradation and to avoid failures. Virtual Machine Scale Sets have autoscale capabilities that create new instances as required and distribute the load across multiple VMs and availability zones.</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
@@ -16239,14 +16175,14 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>739c80f6-0570-435b-ab82-2c8ce9d2deb8</t>
+          <t>56d104f5-469e-4ead-bf17-7c81c746dabe</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="C611" t="inlineStr">
         <is>
-          <t>Monitor and optimize: Set up a cost-tracking system that monitors model usage. Use that information to help inform model choices and prompt sizes.</t>
+          <t>Explore the automatic recovery options. Azure supports health degradation monitoring and self-healing features for VMs. For example, scale sets provide automatic instance repairs. In more advanced scenarios, self-healing involves using Azure Site Recovery, having a passive standby to fail over to, or redeploying from infrastructure as code (IaC). The method that you choose should align with the business requirements and your organizational operations. For more information, see VM service disruptions.</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
@@ -16257,21 +16193,17 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>518fd651-b13e-427e-a0de-f634a014f5b2</t>
+          <t>3395416e-27c6-4ded-941a-de4e562c5c00</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="C612" t="inlineStr">
         <is>
-          <t>Design client code to set limits: Your custom clients should use the limit features of the Azure OpenAI completions API, such as maximum limit on the number of tokens per model (`max_tokens`) or number of completions to generation (`n`). Setting limits ensures that the server doesn't produce more than the client needs.</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>Using API features to restrict usage aligns service consumption with client needs. This saves money by ensuring the model doesn't generate an overly long response that consumes more tokens than necessary.</t>
-        </is>
-      </c>
+          <t>Rightsize the VMs and their dependencies. Understand your VM's expected work to ensure it's not undersized and can handle the maximum load. Have extra capacity to mitigate failures.</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr"/>
       <c r="F612" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16279,21 +16211,17 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>afb53b41-825a-4310-b445-bf391792c568</t>
+          <t>3d633098-6fc7-4752-907c-5a02d53ffba2</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="C613" t="inlineStr">
         <is>
-          <t>Monitor pay-as-you-go usage: If you use the pay-as-you-go approach, monitor usage of TPM and RPM. Use that information to inform architectural design decisions such as what models to use, and to optimize prompt sizes.</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>Continuously monitoring TPM and RPM gives you relevant metrics to optimize the cost of Azure OpenAI models. You can couple this monitoring with model features and model pricing to optimize model usage. You can also use this monitoring to optimize prompt sizes.</t>
-        </is>
-      </c>
+          <t>Create a comprehensive disaster recovery plan. Disaster preparedness involves creating a comprehensive plan and deciding on a technology for recovery.</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr"/>
       <c r="F613" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16301,21 +16229,17 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>e91029f2-ddf4-41f3-8358-f31b5afbe8ba</t>
+          <t>cbe651de-8754-4078-8066-803f94814634</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="C614" t="inlineStr">
         <is>
-          <t>Monitor provisioned throughput usage: If you use provisioned throughput, monitor provision-managed utilization to ensure you're not underutilizing the provisioned throughput you purchased.</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>Continuously monitoring provision-managed utilization gives you the information you need to understand if you're underutilizing your provisioned throughput.</t>
-        </is>
-      </c>
+          <t>Run operations with rigor. Reliability design choices must be supported by effective operations based on the principles of monitoring, resiliency testing in production, automated application VM patches and upgrades, and consistency of deployments. For operational guidance, see Operational Excellence.</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr"/>
       <c r="F614" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16323,19 +16247,19 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>06a0b95c-b014-4205-8d0c-f074ec393239</t>
+          <t>6bbb44ad-f6ed-4990-b519-a56e4d995170</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="C615" t="inlineStr">
         <is>
-          <t>Cost management: Use cost management features with OpenAI to monitor costs, set budgets to manage costs, and create alerts to notify stakeholders of risks or anomalies.</t>
+          <t>(Scale set) Use Virtual Machine Scale Sets in Flexible orchestration mode to deploy VMs.</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Cost monitoring, setting budgets, and setting alerts provides governance with the appropriate accountability processes.</t>
+          <t>Future-proof your application for scaling and take advantage of the high availability guarantees that spread VMs across fault domains in a region or an availability zone.</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -16345,17 +16269,21 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>f18aba52-5587-43e6-b994-8cab7022167f</t>
+          <t>bb45d3f7-dae7-4eb6-a823-76737e6d0d88</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="C616" t="inlineStr">
         <is>
-          <t>Azure DevOps culture: Ensure deployment of Azure OpenAI instances across your various environments, such as development, test, and production. Ensure that you have environments to support continuous learning and experimentation throughout the development cycle.</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr"/>
+          <t>(VMs) Implement heath endpoints that emit instance health statuses on VMs.  (Scale set) Enable automatic repairs on the scale set by specifying the preferred repair action.  Consider setting a time frame during which automatic repairs pause if the VM's state changes.</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Maintain availability even if an instance is deemed unhealthy. Automatic repairs initiate recovery by replacing the faulty instance. Setting a time window can prevent inadvertent or premature repair operations.</t>
+        </is>
+      </c>
       <c r="F616" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16363,17 +16291,21 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>3c5f9e8e-c1a9-4c18-ac05-72877f24ff22</t>
+          <t>29912435-4c36-465e-91e2-6c8fcb42b33f</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="C617" t="inlineStr">
         <is>
-          <t>Observability: Monitor, aggregate, and visualize appropriate metrics.</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr"/>
+          <t>(Scale set) Enable overprovisioning on scale sets.</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Overprovisioning reduces deployment times and has a cost benefit because the extra VMs aren't billed.</t>
+        </is>
+      </c>
       <c r="F617" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16381,17 +16313,21 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>56e72e7c-32bb-414b-bf04-d2883871aacb</t>
+          <t>71982e91-2b16-4f49-b91e-7c52a6e0042a</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="C618" t="inlineStr">
         <is>
-          <t>Observability: If Azure OpenAI diagnostics are insufficient for your needs, consider using a gateway like Azure API Management in front of Azure OpenAI to log both incoming prompts and outgoing responses where permitted. This information can help you understand the effectiveness of the model for incoming prompts.</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr"/>
+          <t>(Scale set) Allow Flexible orchestration to spread the VM instances across as many fault domains as possible.</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>This option isolates fault domains. During maintenance periods, when one fault domain is updated, VM instances are available in the other fault domains.</t>
+        </is>
+      </c>
       <c r="F618" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16399,17 +16335,21 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>63aedcb9-e01e-4df3-b9a6-13c13d6971d4</t>
+          <t>07b6117e-18f8-4df2-9816-9bba2f028219</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="C619" t="inlineStr">
         <is>
-          <t>Deploy with confidence: Use infrastructure as code (IaC) to deploy Azure OpenAI, model deployments, and other infrastructure required for fine-tuning models.</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr"/>
+          <t>(Scale set) Deploy across availability zones on scale sets. Set up at least two instances in each zone. Zone balancing equally spreads the instances across zones.</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>The VM instances are provisioned in physically separate locations within each Azure region that are tolerant to local failures.  Keep in mind that, depending on resource availability, there might be an uneven number of instances across zones. Zone balancing supports availability by making sure that, if one zone is down, the other zones have sufficient instances.  Two instances in each zone provide a buffer during upgrades.</t>
+        </is>
+      </c>
       <c r="F619" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16417,17 +16357,21 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>fe7a8e0a-b53a-48f0-a204-4e1e7e20ea4b</t>
+          <t>056b1e06-a521-4662-9c87-19371260efe6</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="C620" t="inlineStr">
         <is>
-          <t>Deploy with confidence: Follow large language model operations (LLMOps) practices to operationalize the management of your Azure OpenAI LLMs, including deployment, fine-tuning, and prompt engineering.</t>
-        </is>
-      </c>
-      <c r="D620" t="inlineStr"/>
+          <t>(VMs) Take advantage of the capacity reservations feature.</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Capacity is reserved for your use and is available within the scope of the applicable SLAs. You can delete capacity reservations when you no longer need them, and billing is consumption based.</t>
+        </is>
+      </c>
       <c r="F620" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16435,14 +16379,14 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>3dffb456-4675-4acb-b797-a5bf591e003a</t>
+          <t>2554bcd7-c6b8-4461-aaaa-071092d5483f</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="C621" t="inlineStr">
         <is>
-          <t>Automate for efficiency: If you use key-based authentication, implement an automated key-rotation strategy.</t>
+          <t>Review the security baselines for Linux and Windows VMs and Virtual Machine Scale Sets.</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
@@ -16453,21 +16397,17 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>4c82d2b3-c083-4a0e-9cd2-92d2b00b4c96</t>
+          <t>fa5e017f-a99c-4fcc-883b-e16427f4e05d</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="C622" t="inlineStr">
         <is>
-          <t>Enable and configure Azure Diagnostics: Enable and configure Diagnostics for the Azure OpenAI Service.</t>
-        </is>
-      </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>Diagnostics collects and analyzes metrics and logs, helping you monitor the availability, performance, and operation of Azure OpenAI.</t>
-        </is>
-      </c>
+          <t>Ensure timely and automated security patching and upgrades. Make sure updates are automatically rolled out and validated by using a well-defined process. Use a solution like Azure Automation to manage OS updates and maintain security compliance by making critical updates.</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr"/>
       <c r="F622" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16475,14 +16415,14 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>ff3d2610-e8e8-4a78-aba5-556758a2798c</t>
+          <t>63866f61-ef77-4793-9257-dfc53e87a550</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="C623" t="inlineStr">
         <is>
-          <t>Capacity: Estimate consumers' elasticity demands. Identify high-priority traffic that requires synchronous responses and low-priority traffic that can be asynchronous and batched.</t>
+          <t>Identify the VMs that hold state. Make sure that data is classified according to the sensitivity labels that your organization provided. Protect data by using security controls like appropriate levels of at-rest and in-transit encryption. If you have high sensitivity requirements, consider using high-security controls like double encryption and Azure confidential computing to protect data-in-use.</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
@@ -16493,14 +16433,14 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>63dbbc6a-f840-4893-979c-2afcea82bf5f</t>
+          <t>5bc85e31-f7fa-4102-8e43-6fbe7add0d89</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="C624" t="inlineStr">
         <is>
-          <t>Capacity: Benchmark token consumption requirements based on estimated demands from consumers. Consider using the Azure OpenAI benchmarking tool to help you validate the throughput if you're using provisioned throughput unit (PTU) deployments.</t>
+          <t>Provide segmentation to the VMs and scale sets by setting network boundaries and access controls. Place VMs in resource groups that share the same lifecycle.</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
@@ -16511,14 +16451,14 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>14677a1d-0b65-455a-997b-1490c397fbc8</t>
+          <t>d5320544-6d25-46c7-ab46-e81e5d85d9b3</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="C625" t="inlineStr">
         <is>
-          <t>Capacity: Use provisioned throughput for production workloads. Provisioned throughput offers dedicated memory and compute, reserved capacity, and consistent maximum latency for the specified model version. The pay-as-you-go offering can suffer from noisy neighbor problems like increased latency and throttling in regions under heavy use. Also, the pay-as-you-go approach doesn't offer guaranteed capacity.</t>
+          <t>Apply access controls to the identities that try to reach the VMs and also to the VMs that reach other resources. Use Microsoft Entra ID for authentication and authorization needs. Put strong passwords, multifactor authentication, and role-based access control (RBAC) in place for your VMs and their dependencies, like secrets, to permit allowed identities to perform only the operations that are expected of their roles.</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
@@ -16529,14 +16469,14 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>59c8767d-1b78-4016-92d5-ebd83032fafa</t>
+          <t>becd6031-a256-4186-995e-75817fc7783c</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="C626" t="inlineStr">
         <is>
-          <t>Capacity: Add the appropriate gateways in front of your Azure OpenAI deployments. Ensure that the gateway can route to multiple instances in the same or different regions.</t>
+          <t>Use network controls to restrict ingress and egress traffic. Isolate VMs and scale sets in Azure Virtual Network and define network security groups to filter traffic. Protect against distributed denial of service (DDoS) attacks. Use load balancers and firewall rules to protect against malicious traffic and data exfiltration attacks.</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
@@ -16547,14 +16487,14 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>a318b299-9d54-4dfc-8f20-b00ceed43ed0</t>
+          <t>cc96d188-8a1f-4b48-9525-d6f3f867f322</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="C627" t="inlineStr">
         <is>
-          <t>Capacity: Allocate PTUs to cover your predicted usage, and complement these PTUs with a TPM deployment to handle elasticity above that limit. This approach combines base throughput with elastic throughput for efficiency. Like other considerations, this approach requires a custom gateway implementation to route requests to the TPM deployment when the PTU limits are reached.</t>
+          <t>Reduce the attack surface by hardening OS images and removing unused components. Use smaller images and remove binaries that aren't required to run the workload. Tighten the VM configurations by removing features, like default accounts and ports, that you don't need.</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
@@ -16565,14 +16505,14 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>ceb21879-94da-485e-a24b-b30180fb566c</t>
+          <t>66e5f683-0d57-4ed1-b2bd-68e4549631bc</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="C628" t="inlineStr">
         <is>
-          <t>Capacity: Send high-priority requests synchronously. Queue low-priority requests and send them through in batches when demand is low.</t>
+          <t>Protect secrets such as the certificates that you need to protect data in transit. Consider using the Azure Key Vault extension for Windows or Linux that automatically refreshes the certificates stored in a key vault. When it detects a change in the certificates, the extension retrieves and installs the corresponding certificates.</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
@@ -16583,14 +16523,14 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>dd313c03-7429-4cb1-84e9-d982664c2dfc</t>
+          <t>961b264a-fddf-43d4-b137-a132429c2874</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="C629" t="inlineStr">
         <is>
-          <t>Capacity: Select a model that aligns with your performance requirements, considering the tradeoff between speed and output complexity. Model performance can vary significantly based on the chosen model type. Models designed for speed offer faster response times, which can be beneficial for applications that require quick interactions. Conversely, more sophisticated models might deliver higher-quality outputs at the expense of increased response time.</t>
+          <t>Threat detection. Monitor VMs for threats and misconfigurations. Use Defender for Servers to capture VM and OS changes, and maintain an audit trail of access, new accounts, and changes in permissions.</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
@@ -16601,14 +16541,14 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>cdf82e76-ee07-47e6-9985-6b1c0a39dd42</t>
+          <t>39b32108-5423-42aa-beaa-1601df1971f6</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="C630" t="inlineStr">
         <is>
-          <t>Achieve performance: For applications like chatbots or conversational interfaces, consider implementing streaming. Streaming can enhance the perceived performance of Azure OpenAI applications by delivering responses to users in an incremental manner, improving the user experience.</t>
+          <t>Threat prevention. Protect against malware attacks and malicious actors by implementing security controls like firewalls, antivirus software, and intrusion detection systems. Determine if a Trusted Execution Environment (TEE) is required.</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
@@ -16619,17 +16559,21 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>9aa6da24-6a00-4381-9da6-66c9d5cbf41f</t>
+          <t>fb9921a8-884c-40df-a588-a554143809f2</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="C631" t="inlineStr">
         <is>
-          <t>Achieve performance: Determine when to use fine-tuning before you commit to fine-tuning. Although there are good use cases for fine-tuning, such as when the information needed to steer the model is too long or complex to fit into the prompt, make sure that prompt engineering and retrieval-augmented generation (RAG) approaches don't work or are demonstrably more expensive.</t>
-        </is>
-      </c>
-      <c r="D631" t="inlineStr"/>
+          <t>(Scale set) Assign a managed identity to scale sets. All VMs in the scale set get the same identity through the specified VM profile.  (VMs) You can also assign a managed identity to individual VMs when you create them and then add it to a scale set if needed.</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>When VMs communicate with other resources, they cross a trust boundary. Scale sets and VMs should authenticate their identity before communication is allowed. Microsoft Entra ID handles that authentication by using managed identities.</t>
+        </is>
+      </c>
       <c r="F631" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16637,17 +16581,21 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>456cbf54-9c2f-4c6e-9739-eca408fa6baf</t>
+          <t>21e2209a-6217-464b-9886-1914124b0721</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="C632" t="inlineStr">
         <is>
-          <t>Achieve performance: Consider using dedicated model deployments per consumer group to provide per-model usage isolation that can help prevent noisy neighbors between your consumer groups.</t>
-        </is>
-      </c>
-      <c r="D632" t="inlineStr"/>
+          <t>(Scale set) Choose VM SKUs with security features. For example, some SKUs support BitLocker encryption, and confidential computing provides encryption of data-in-use.  Review the features to understand the limitations.</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Azure-provided features are based on signals that are captured across many tenants and can protect resources better than custom controls. You can also use policies to enforce those controls.</t>
+        </is>
+      </c>
       <c r="F632" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16655,17 +16603,21 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>2dc38e31-8e03-40f4-842d-58ac317c5106</t>
+          <t>f13132ec-ac80-4a27-a14e-b7b357523df1</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="C633" t="inlineStr">
         <is>
-          <t>Review Virtual Machines quotas and limits that might pose design restrictions. VMs have specific limits and quotas, which vary based on the type of VM or the region. There might be subscription restrictions, such as the number of VMs per subscription or the number of cores per VM. If other workloads share your subscription, then your ability to consume data might be reduced.</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr"/>
+          <t>(VMs, scale set) Apply organization-recommended tags in the provisioned resources.</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Tagging is a common way to segment and organize resources and can be crucial during incident management. For more information, see Purpose of naming and tagging.</t>
+        </is>
+      </c>
       <c r="F633" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16673,17 +16625,21 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>999ecfef-c272-4cd8-8bd0-9cd5335fb695</t>
+          <t>944802d9-671c-479f-b973-fd6111a18486</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="C634" t="inlineStr">
         <is>
-          <t>Conduct a failure mode analysis to minimize points of failure by analyzing VM interactions with the network and storage components. Choose configurations like ephemeral operating system (OS) disks to localize disk access and avoid network hops. Add a load balancer to enhance self-preservation by distributing network traffic across multiple VMs, which improves availability and reliability.</t>
-        </is>
-      </c>
-      <c r="D634" t="inlineStr"/>
+          <t>(VMs, scale set) Set a security profile with the security features that you want to enable in the VM configuration.  For example, when you specify encryption at host in the profile, the data that's stored on the VM host is encrypted at rest and flows are encrypted to the storage service.</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>The features in the security profile are automatically enabled when the VM is created.  For more information, see Azure security baseline for Virtual Machine Scale Sets.</t>
+        </is>
+      </c>
       <c r="F634" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16691,17 +16647,21 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>bf605fe8-6171-4c01-8290-d6c79a21cf10</t>
+          <t>a6b12603-c2e3-43fd-9a79-6e6317817278</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="C635" t="inlineStr">
         <is>
-          <t>Calculate your composite service-level objectives (SLOs) based on Azure service-level agreements (SLAs). Ensure that your SLO isn't higher than the Azure SLAs to avoid unrealistic expectations and potential issues.</t>
-        </is>
-      </c>
-      <c r="D635" t="inlineStr"/>
+          <t>(VMs) Choose secure networking options for your VM's network profile.  Don't directly associate public IP addresses to your VMs and don't enable IP forwarding.  Ensure that all virtual network interfaces have an associated network security group.</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>You can set segmentation controls in the networking profile.  Attackers scan public IP addresses, which makes VMs vulnerable to threats.</t>
+        </is>
+      </c>
       <c r="F635" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16709,17 +16669,21 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>4cd18dd0-57e4-4fc9-a8ad-74c3333b6d8b</t>
+          <t>3c83a4bb-2b58-4fae-9a65-37490fecaf1c</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="C636" t="inlineStr">
         <is>
-          <t>Create state isolation. Workload data should be on a separate data disk to prevent interference with the OS disk. If a VM fails, you can create a new OS disk with the same data disk, which ensures resilience and fault isolation. For more information, see Ephemeral OS disks.</t>
-        </is>
-      </c>
-      <c r="D636" t="inlineStr"/>
+          <t>(VMs) Choose secure storage options for your VM's storage profile.  Enable disk encryption and data-at-rest encryption by default. Disable public network access to the VM disks.</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Disabling public network access helps prevent unauthorized access to your data and resources.</t>
+        </is>
+      </c>
       <c r="F636" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16727,17 +16691,21 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>90e0bce0-bc44-42ba-be28-2f3dde2f4b37</t>
+          <t>fe1df647-99c3-43ea-b8ed-507b23f120e0</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="C637" t="inlineStr">
         <is>
-          <t>Make VMs and their dependencies redundant across zones. If a VM fails, the workload should continue to function because of redundancy. Include dependencies in your redundancy choices. For example, use the built-in redundancy options that are available with disks. Use zone-redundant IPs to ensure data availability and high uptime.</t>
-        </is>
-      </c>
-      <c r="D637" t="inlineStr"/>
+          <t>(VMs, scale set) Include extensions in your VMs that protect against threats.  For example,  - Key Vault extension for Windows and Linux  - Microsoft Entra ID authentication  - Microsoft Antimalware for Azure Cloud Services and Virtual Machines  - Azure Disk Encryption extension for Windows and Linux.</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>The extensions are used to bootstrap the VMs with the right software that protects access to and from the VMs.  Microsoft-provided extensions are updated frequently to keep up with the evolving security standards.</t>
+        </is>
+      </c>
       <c r="F637" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16745,14 +16713,14 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>6d76e7b9-52d3-4878-83ab-2a08df23c8f6</t>
+          <t>06c4068a-2562-4cc4-9269-8bdb6b349c3a</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="C638" t="inlineStr">
         <is>
-          <t>Be ready to scale up and scale out to prevent service level degradation and to avoid failures. Virtual Machine Scale Sets have autoscale capabilities that create new instances as required and distribute the load across multiple VMs and availability zones.</t>
+          <t>Estimate realistic costs. Use the pricing calculator to estimate the costs of your VMs. Identify the best VM for your workload by using the VM selector. For more information, see Linux and Windows pricing.</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
@@ -16763,14 +16731,14 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>56d104f5-469e-4ead-bf17-7c81c746dabe</t>
+          <t>3e760d37-8430-4da5-833d-95bff2d43e4f</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="C639" t="inlineStr">
         <is>
-          <t>Explore the automatic recovery options. Azure supports health degradation monitoring and self-healing features for VMs. For example, scale sets provide automatic instance repairs. In more advanced scenarios, self-healing involves using Azure Site Recovery, having a passive standby to fail over to, or redeploying from infrastructure as code (IaC). The method that you choose should align with the business requirements and your organizational operations. For more information, see VM service disruptions.</t>
+          <t>Implement cost guardrails. Use governance policies to restrict resource types, configurations, and locations. Use RBAC to block actions that can lead to overspending.</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
@@ -16781,14 +16749,14 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>3395416e-27c6-4ded-941a-de4e562c5c00</t>
+          <t>284bc1f9-59a6-491e-8070-d05e31e29ee7</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="C640" t="inlineStr">
         <is>
-          <t>Rightsize the VMs and their dependencies. Understand your VM's expected work to ensure it's not undersized and can handle the maximum load. Have extra capacity to mitigate failures.</t>
+          <t>Choose the right resources. Your selection of VM plan sizes and SKUs directly affect the overall cost. Choose VMs based on workload characteristics. Is the workload CPU intensive or does it run interruptible processes? Each SKU has associated disk options that affect the overall cost.</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
@@ -16799,14 +16767,14 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>3d633098-6fc7-4752-907c-5a02d53ffba2</t>
+          <t>353f0d7a-b104-43c3-b3e9-926af6458844</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="C641" t="inlineStr">
         <is>
-          <t>Create a comprehensive disaster recovery plan. Disaster preparedness involves creating a comprehensive plan and deciding on a technology for recovery.</t>
+          <t>Choose the right capabilities for dependent resources. Save on backup storage costs for the vault-standard tier by using Azure Backup storage with reserved capacity. It offers a discount when you commit to a reservation for either one year or three years.</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
@@ -16817,14 +16785,14 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>cbe651de-8754-4078-8066-803f94814634</t>
+          <t>dff9f383-b459-4359-907e-bd33a92d4bd6</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="C642" t="inlineStr">
         <is>
-          <t>Run operations with rigor. Reliability design choices must be supported by effective operations based on the principles of monitoring, resiliency testing in production, automated application VM patches and upgrades, and consistency of deployments. For operational guidance, see Operational Excellence.</t>
+          <t>Choose the right billing model. Evaluate whether commitment-based models for computing optimize costs based on the business requirements of workload. Consider these Azure options:</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
@@ -16835,21 +16803,17 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>6bbb44ad-f6ed-4990-b519-a56e4d995170</t>
+          <t>24cfa2c5-9e77-48e8-82ad-c5e98c636a69</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="C643" t="inlineStr">
         <is>
-          <t>(Scale set) Use Virtual Machine Scale Sets in Flexible orchestration mode to deploy VMs.</t>
-        </is>
-      </c>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>Future-proof your application for scaling and take advantage of the high availability guarantees that spread VMs across fault domains in a region or an availability zone.</t>
-        </is>
-      </c>
+          <t>Monitor usage. Continuously monitor usage patterns and detect unused or underutilized VMs. For those instances, shut down VM instances when they're not in use. Monitoring is a key approach of Operational Excellence. For more information, see the recommendations in Operational Excellence.</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="F643" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16857,21 +16821,17 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>bb45d3f7-dae7-4eb6-a823-76737e6d0d88</t>
+          <t>046215f1-13ee-4fbf-893d-eeafa28ab76b</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="C644" t="inlineStr">
         <is>
-          <t>(VMs) Implement heath endpoints that emit instance health statuses on VMs.  (Scale set) Enable automatic repairs on the scale set by specifying the preferred repair action.  Consider setting a time frame during which automatic repairs pause if the VM's state changes.</t>
-        </is>
-      </c>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>Maintain availability even if an instance is deemed unhealthy. Automatic repairs initiate recovery by replacing the faulty instance. Setting a time window can prevent inadvertent or premature repair operations.</t>
-        </is>
-      </c>
+          <t>Look for ways to optimize. Some strategies include choosing the most cost-effective approach between increasing resources in an existing system, or scaling up, and adding more instances of that system, or scaling out. You can offload demand by distributing it to other resources, or you can reduce demand by implementing priority queues, gateway offloading, buffering, and rate limiting. For more information, see the recommendations in Performance Efficiency.</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16879,19 +16839,19 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>29912435-4c36-465e-91e2-6c8fcb42b33f</t>
+          <t>877c04dd-441f-4202-9b87-9eeb3c60b564</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="C645" t="inlineStr">
         <is>
-          <t>(Scale set) Enable overprovisioning on scale sets.</t>
+          <t>(VMs, scale set) Choose the right VM plan size and SKU. Identify the best VM sizes for your workload.  Use the VM selector to identify the best VM for your workload. See Windows and Linux pricing.  For workloads like highly parallel batch processing jobs that can tolerate some interruptions, consider using Azure Spot Virtual Machines. Spot virtual machines are good for experimenting, developing, and testing large-scale solutions.</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Overprovisioning reduces deployment times and has a cost benefit because the extra VMs aren't billed.</t>
+          <t>SKUs are priced according to the capabilities that they offer. If you don't need advanced capabilities, don't overspend on SKUs.  Spot virtual machines take advantage of the surplus capacity in Azure at a lower cost.</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -16901,19 +16861,19 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>71982e91-2b16-4f49-b91e-7c52a6e0042a</t>
+          <t>90700d86-70f6-433f-b995-b9ad8cfdec84</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="C646" t="inlineStr">
         <is>
-          <t>(Scale set) Allow Flexible orchestration to spread the VM instances across as many fault domains as possible.</t>
+          <t>(VMs, scale set) Evaluate the disk options that are associated with your VM's SKUs.  Determine your performance needs while keeping in mind your storage capacity needs and accounting for fluctuating workload patterns.  For example, the Azure Premium SSD v2 disk allows you to granularly adjust your performance independent of the disk's size.</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>This option isolates fault domains. During maintenance periods, when one fault domain is updated, VM instances are available in the other fault domains.</t>
+          <t>Some high-performance disk types offer extra cost optimization features and strategies.  The Premium SSD v2 disk's adjustment capability can reduce costs because it provides high performance without overprovisioning, which could otherwise lead to underutilized resources.</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -16923,19 +16883,19 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>07b6117e-18f8-4df2-9816-9bba2f028219</t>
+          <t>14211a5a-ea48-4aa1-9f24-e46689328dda</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="C647" t="inlineStr">
         <is>
-          <t>(Scale set) Deploy across availability zones on scale sets. Set up at least two instances in each zone. Zone balancing equally spreads the instances across zones.</t>
+          <t>(Scale set) Mix regular VMs with spot virtual machines.  Flexible orchestration lets you distribute spot virtual machines based on a specified percentage.</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>The VM instances are provisioned in physically separate locations within each Azure region that are tolerant to local failures.  Keep in mind that, depending on resource availability, there might be an uneven number of instances across zones. Zone balancing supports availability by making sure that, if one zone is down, the other zones have sufficient instances.  Two instances in each zone provide a buffer during upgrades.</t>
+          <t>Reduce compute infrastructure costs by applying the deep discounts of spot virtual machines.</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -16945,19 +16905,19 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>056b1e06-a521-4662-9c87-19371260efe6</t>
+          <t>38d3a88b-a84f-46f3-95ce-76a4e245027b</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="C648" t="inlineStr">
         <is>
-          <t>(VMs) Take advantage of the capacity reservations feature.</t>
+          <t>(Scale set) Reduce the number of VM instances when demand decreases. Set a scale-in policy based on criteria.   Stop VMs during off-hours. You can use the Azure Automation Start/Stop feature and configure it according to your business needs.</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Capacity is reserved for your use and is available within the scope of the applicable SLAs. You can delete capacity reservations when you no longer need them, and billing is consumption based.</t>
+          <t>Scaling in or stopping resources when they're not in use reduces the number of VMs running in the scale set, which saves costs.  The Start/Stop feature is a low-cost automation option.</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -16967,17 +16927,21 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>2554bcd7-c6b8-4461-aaaa-071092d5483f</t>
+          <t>eccee9b1-70f3-4c96-8223-35e24d842201</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="C649" t="inlineStr">
         <is>
-          <t>Review the security baselines for Linux and Windows VMs and Virtual Machine Scale Sets.</t>
-        </is>
-      </c>
-      <c r="D649" t="inlineStr"/>
+          <t>(VMs, scale set) Take advantage of license mobility by using Azure Hybrid Benefit. VMs have a licensing option that allows you to bring your own on-premises Windows Server OS licenses to Azure.  Azure Hybrid Benefit also lets you bring certain Linux subscriptions to Azure.</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>You can maximize your on-premises licenses while getting the benefits of the cloud.</t>
+        </is>
+      </c>
       <c r="F649" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -16985,14 +16949,14 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>fa5e017f-a99c-4fcc-883b-e16427f4e05d</t>
+          <t>3c34c3e4-5715-472e-953e-2d5030bf18a0</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="C650" t="inlineStr">
         <is>
-          <t>Ensure timely and automated security patching and upgrades. Make sure updates are automatically rolled out and validated by using a well-defined process. Use a solution like Azure Automation to manage OS updates and maintain security compliance by making critical updates.</t>
+          <t>Monitor the VM instances. Collect logs and metrics from VM instances to monitor resource usage and measure the health of the instances. Some common metrics include CPU usage, number of requests, and input/output (I/O) latency. Set up Azure Monitor alerts to be notified about issues and to detect configuration changes in your environment.</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
@@ -17003,14 +16967,14 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>63866f61-ef77-4793-9257-dfc53e87a550</t>
+          <t>fc1734b9-fefe-403d-bfc9-c2beca6f12a2</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="C651" t="inlineStr">
         <is>
-          <t>Identify the VMs that hold state. Make sure that data is classified according to the sensitivity labels that your organization provided. Protect data by using security controls like appropriate levels of at-rest and in-transit encryption. If you have high sensitivity requirements, consider using high-security controls like double encryption and Azure confidential computing to protect data-in-use.</t>
+          <t>Monitor the health of the VMs and their dependencies.</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
@@ -17021,14 +16985,14 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>5bc85e31-f7fa-4102-8e43-6fbe7add0d89</t>
+          <t>724b847d-caf4-4e90-83e7-f4c71e68c4f7</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="C652" t="inlineStr">
         <is>
-          <t>Provide segmentation to the VMs and scale sets by setting network boundaries and access controls. Place VMs in resource groups that share the same lifecycle.</t>
+          <t>Create a maintenance plan that includes regular system patching as a part of routine operations. Include emergency processes that allow for immediate patch application. You can have custom processes to manage patching or partially delegate the task to Azure.</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
@@ -17039,14 +17003,14 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>d5320544-6d25-46c7-ab46-e81e5d85d9b3</t>
+          <t>f99e71a9-05ee-41c2-81b7-8d794763040b</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="C653" t="inlineStr">
         <is>
-          <t>Apply access controls to the identities that try to reach the VMs and also to the VMs that reach other resources. Use Microsoft Entra ID for authentication and authorization needs. Put strong passwords, multifactor authentication, and role-based access control (RBAC) in place for your VMs and their dependencies, like secrets, to permit allowed identities to perform only the operations that are expected of their roles.</t>
+          <t>Automate processes for bootstrapping, running scripts, and configuring VMs. You can automate processes by using extensions or custom scripts. We recommend the following options:</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
@@ -17057,14 +17021,14 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>becd6031-a256-4186-995e-75817fc7783c</t>
+          <t>ca34b9c2-69db-4256-a354-c491877f79ac</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="C654" t="inlineStr">
         <is>
-          <t>Use network controls to restrict ingress and egress traffic. Isolate VMs and scale sets in Azure Virtual Network and define network security groups to filter traffic. Protect against distributed denial of service (DDoS) attacks. Use load balancers and firewall rules to protect against malicious traffic and data exfiltration attacks.</t>
+          <t>Have processes for installing automatic updates. Consider using Automatic VM guest patching for a timely rollout of critical patches and security patches. Use Azure Update Manager to manage OS updates for your Windows and Linux virtual machines in Azure.</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
@@ -17075,14 +17039,14 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>cc96d188-8a1f-4b48-9525-d6f3f867f322</t>
+          <t>821779c7-588f-40af-a740-8dd41fb585fd</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="C655" t="inlineStr">
         <is>
-          <t>Reduce the attack surface by hardening OS images and removing unused components. Use smaller images and remove binaries that aren't required to run the workload. Tighten the VM configurations by removing features, like default accounts and ports, that you don't need.</t>
+          <t>Build a test environment that closely matches your production environment to test updates and changes before you deploy them to production. Have processes in place to test the security updates, performance baselines, and reliability faults. Take advantage of Azure Chaos Studio fault libraries to inject and simulate error conditions. For more information, see Azure Chaos Studio fault and action library.</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
@@ -17093,14 +17057,14 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>66e5f683-0d57-4ed1-b2bd-68e4549631bc</t>
+          <t>079c8821-00dd-4eaf-9cae-5a3dbfd6fdfa</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="C656" t="inlineStr">
         <is>
-          <t>Protect secrets such as the certificates that you need to protect data in transit. Consider using the Azure Key Vault extension for Windows or Linux that automatically refreshes the certificates stored in a key vault. When it detects a change in the certificates, the extension retrieves and installs the corresponding certificates.</t>
+          <t>Manage your quota. Plan what level of quota your workload requires and review that level regularly as the workload evolves. If you need to increase or decrease your quota, request those changes early.</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
@@ -17111,17 +17075,21 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>961b264a-fddf-43d4-b137-a132429c2874</t>
+          <t>77cdbef0-ba18-4ef0-9ef4-088931e331c7</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="C657" t="inlineStr">
         <is>
-          <t>Threat detection. Monitor VMs for threats and misconfigurations. Use Defender for Servers to capture VM and OS changes, and maintain an audit trail of access, new accounts, and changes in permissions.</t>
-        </is>
-      </c>
-      <c r="D657" t="inlineStr"/>
+          <t>(Scale set) Virtual Machine Scale Sets in Flexible orchestration mode can help simplify the deployment and management of your workload. For example, you can easily manage self-healing by using automatic repairs.</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Flexible orchestration can manage VM instances at scale. Handing individual VMs adds operational overhead.  For example, when you delete VM instances, the associated disks and NICs are also automatically deleted. VM instances are spread across multiple fault domains so that update operations don't disrupt service.</t>
+        </is>
+      </c>
       <c r="F657" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17129,17 +17097,21 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>39b32108-5423-42aa-beaa-1601df1971f6</t>
+          <t>3049efb5-d3ae-4e36-a8fa-12f2c4a44144</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="C658" t="inlineStr">
         <is>
-          <t>Threat prevention. Protect against malware attacks and malicious actors by implementing security controls like firewalls, antivirus software, and intrusion detection systems. Determine if a Trusted Execution Environment (TEE) is required.</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr"/>
+          <t>(Scale set) Keep your VMs up to date by setting an upgrade policy. We recommend rolling upgrades. However, if you need granular control, choose to upgrade manually.  For Flexible orchestration, you can use  Azure Update Manager.</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Security is the primary reason for upgrades. Security assurances for the instances shouldn't decay over time.  Rolling upgrades are done in batches, which ensures all instances aren't down at the same time.</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17147,19 +17119,19 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>fb9921a8-884c-40df-a588-a554143809f2</t>
+          <t>19de83a6-2f87-49b1-8241-d1d687f46658</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="C659" t="inlineStr">
         <is>
-          <t>(Scale set) Assign a managed identity to scale sets. All VMs in the scale set get the same identity through the specified VM profile.  (VMs) You can also assign a managed identity to individual VMs when you create them and then add it to a scale set if needed.</t>
+          <t>(VMs, scale set) Automatically deploy VM applications from the Azure Compute Gallery by defining the applications in the profile.</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>When VMs communicate with other resources, they cross a trust boundary. Scale sets and VMs should authenticate their identity before communication is allowed. Microsoft Entra ID handles that authentication by using managed identities.</t>
+          <t>The VMs in the scale set are created and the specified apps are preinstalled, which makes management easier.</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -17169,19 +17141,19 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>21e2209a-6217-464b-9886-1914124b0721</t>
+          <t>65c832e8-2882-45ed-b239-0e68f74975aa</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="C660" t="inlineStr">
         <is>
-          <t>(Scale set) Choose VM SKUs with security features. For example, some SKUs support BitLocker encryption, and confidential computing provides encryption of data-in-use.  Review the features to understand the limitations.</t>
+          <t>Install prebuilt software components as extensions as part of bootstrapping.  Azure supports many extensions that can be used to configure, monitor, secure, and provide utility applications for your VMs.   Enable automatic upgrades on extensions.</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Azure-provided features are based on signals that are captured across many tenants and can protect resources better than custom controls. You can also use policies to enforce those controls.</t>
+          <t>Extensions can help simplify the software installation at scale without you having to manually install, configure, or upgrade it on each VM.</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -17191,19 +17163,19 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>f13132ec-ac80-4a27-a14e-b7b357523df1</t>
+          <t>40266c61-9685-4ee1-8cb6-a899a6b573f2</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="C661" t="inlineStr">
         <is>
-          <t>(VMs, scale set) Apply organization-recommended tags in the provisioned resources.</t>
+          <t>(VMs, scale set) Monitor and measure the health of the VM instances.  Deploy the Monitor agent extension to your VMs to collect monitoring data from the guest OS with OS-specific data collection rules.  Enable VM insights to monitor health and performance and to view trends from the collected data. Use boot diagnostics to get information as VMs boot. Boot diagnostics also diagnose boot failures.</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Tagging is a common way to segment and organize resources and can be crucial during incident management. For more information, see Purpose of naming and tagging.</t>
+          <t>Monitoring data is at the core of incident resolution. A comprehensive monitoring stack provides information about how the VMs are performing and their health. By continuously monitoring the instances, you can be ready for or prevent failures like performance overload and reliability issues.</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -17213,21 +17185,17 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>944802d9-671c-479f-b973-fd6111a18486</t>
+          <t>72e210dc-5abb-4569-b650-ec27003bb1cf</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="C662" t="inlineStr">
         <is>
-          <t>(VMs, scale set) Set a security profile with the security features that you want to enable in the VM configuration.  For example, when you specify encryption at host in the profile, the data that's stored on the VM host is encrypted at rest and flows are encrypted to the storage service.</t>
-        </is>
-      </c>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>The features in the security profile are automatically enabled when the VM is created.  For more information, see Azure security baseline for Virtual Machine Scale Sets.</t>
-        </is>
-      </c>
+          <t>Define performance targets. Identify VM metrics to track and measure against performance indicators as response time, CPU utilization, and memory utilization, as well as workload metrics such as transactions per second, concurrent users, and availability and health.</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17235,21 +17203,17 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>a6b12603-c2e3-43fd-9a79-6e6317817278</t>
+          <t>0303e75c-321d-42b0-9226-b05f43633d50</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="C663" t="inlineStr">
         <is>
-          <t>(VMs) Choose secure networking options for your VM's network profile.  Don't directly associate public IP addresses to your VMs and don't enable IP forwarding.  Ensure that all virtual network interfaces have an associated network security group.</t>
-        </is>
-      </c>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>You can set segmentation controls in the networking profile.  Attackers scan public IP addresses, which makes VMs vulnerable to threats.</t>
-        </is>
-      </c>
+          <t>Factor in the performance profile of VMs, scale sets, and disk configuration in your capacity planning. Each SKU has a different profile of memory and CPU and behaves differently depending on the type of workload. Conduct pilots and proofs of concept to understand performance behavior under the specific workload.</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17257,21 +17221,17 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>3c83a4bb-2b58-4fae-9a65-37490fecaf1c</t>
+          <t>f2c0ba97-9170-43ab-90b5-b30f159913ba</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="C664" t="inlineStr">
         <is>
-          <t>(VMs) Choose secure storage options for your VM's storage profile.  Enable disk encryption and data-at-rest encryption by default. Disable public network access to the VM disks.</t>
-        </is>
-      </c>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>Disabling public network access helps prevent unauthorized access to your data and resources.</t>
-        </is>
-      </c>
+          <t>VM performance tuning. Take advantage of performance optimization and enhancing features as required by the workload. For example, use locally attached Non-Volatile Memory Express (NVMe) for high performance use cases and accelerated networking, and use Premium SSD v2 for better performance and scalability.</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17279,21 +17239,17 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>fe1df647-99c3-43ea-b8ed-507b23f120e0</t>
+          <t>ffee7b2f-b57c-40cc-a8ab-9044dead9dc7</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="C665" t="inlineStr">
         <is>
-          <t>(VMs, scale set) Include extensions in your VMs that protect against threats.  For example,  - Key Vault extension for Windows and Linux  - Microsoft Entra ID authentication  - Microsoft Antimalware for Azure Cloud Services and Virtual Machines  - Azure Disk Encryption extension for Windows and Linux.</t>
-        </is>
-      </c>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>The extensions are used to bootstrap the VMs with the right software that protects access to and from the VMs.  Microsoft-provided extensions are updated frequently to keep up with the evolving security standards.</t>
-        </is>
-      </c>
+          <t>Take the dependent services into account. Workload dependencies, like caching, network traffic, and content delivery networks, that interact with the VMs can affect performance. Also, consider geographical distribution, like zones and regions, which can add latency.</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17301,14 +17257,14 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>06c4068a-2562-4cc4-9269-8bdb6b349c3a</t>
+          <t>75cf3a03-3d7c-4199-8138-45ff62b1f7a5</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="C666" t="inlineStr">
         <is>
-          <t>Estimate realistic costs. Use the pricing calculator to estimate the costs of your VMs. Identify the best VM for your workload by using the VM selector. For more information, see Linux and Windows pricing.</t>
+          <t>Collect performance data. Follow the Operational Excellence best practices for monitoring and deploy the appropriate extensions to view metrics that track against performance indicators.</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
@@ -17319,14 +17275,14 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>3e760d37-8430-4da5-833d-95bff2d43e4f</t>
+          <t>739525ea-4d0a-4965-baef-ab0325fbed67</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="C667" t="inlineStr">
         <is>
-          <t>Implement cost guardrails. Use governance policies to restrict resource types, configurations, and locations. Use RBAC to block actions that can lead to overspending.</t>
+          <t>Proximity placement groups. Use proximity placement groups in workloads where low latency is required to ensure that VMs are physically located close to each other.</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
@@ -17337,17 +17293,21 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>284bc1f9-59a6-491e-8070-d05e31e29ee7</t>
+          <t>39acd43b-a405-439b-83c9-b9d79d9cdba6</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="C668" t="inlineStr">
         <is>
-          <t>Choose the right resources. Your selection of VM plan sizes and SKUs directly affect the overall cost. Choose VMs based on workload characteristics. Is the workload CPU intensive or does it run interruptible processes? Each SKU has associated disk options that affect the overall cost.</t>
-        </is>
-      </c>
-      <c r="D668" t="inlineStr"/>
+          <t>(VMs, scale set) Choose SKUs for VMs that align with your capacity planning. Have a good understanding of your workload requirements, including the number of cores, memory, storage, and network bandwidth so that you can filter out unsuitable SKUs.</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Rightsizing your VMs is a fundamental decision that significantly affects the performance of your workload. Without the right set of VMs, you might experience performance issues and accrue unnecessary costs.</t>
+        </is>
+      </c>
       <c r="F668" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17355,17 +17315,21 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>353f0d7a-b104-43c3-b3e9-926af6458844</t>
+          <t>67cc04db-4b74-40f4-9bf6-0ba5f758b45e</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="C669" t="inlineStr">
         <is>
-          <t>Choose the right capabilities for dependent resources. Save on backup storage costs for the vault-standard tier by using Azure Backup storage with reserved capacity. It offers a discount when you commit to a reservation for either one year or three years.</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr"/>
+          <t>(VMs, scale set) Deploy latency-sensitive workload VMs in proximity placement groups.</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Proximity placement groups reduce the physical distance between Azure compute resources, which can improve performance and reduce network latency between stand-alone VMs, VMs in multiple availability sets, or VMs in multiple scale sets.</t>
+        </is>
+      </c>
       <c r="F669" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17373,17 +17337,21 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>dff9f383-b459-4359-907e-bd33a92d4bd6</t>
+          <t>ef3de2ad-d5b6-4931-9fc7-28249d9300c0</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="C670" t="inlineStr">
         <is>
-          <t>Choose the right billing model. Evaluate whether commitment-based models for computing optimize costs based on the business requirements of workload. Consider these Azure options:</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr"/>
+          <t>(VMs, scale set)  Set the storage profile by analyzing the disk performance of existing workloads and the VM SKU.  Use Premium SSDs for production VMs. Adjust the performance of disks with Premium SSD v2. Use locally attached NVMe devices.</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Premium SSDs deliver high-performance and low-latency disk support VMs with I/O-intensive workloads.  Premium SSD v2 doesn't require disk resizing, which enables high performance without excessive over-provisioning and minimizes the cost of unused capacity.  When available on VM SKUs, locally attached NVMe or similar devices can offer high performance, especially for use cases that require high input/output operations per second (IOPS) and low latency.</t>
+        </is>
+      </c>
       <c r="F670" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17391,17 +17359,21 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>24cfa2c5-9e77-48e8-82ad-c5e98c636a69</t>
+          <t>a91aae92-2b2c-4c88-b268-2c70b995a952</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="C671" t="inlineStr">
         <is>
-          <t>Monitor usage. Continuously monitor usage patterns and detect unused or underutilized VMs. For those instances, shut down VM instances when they're not in use. Monitoring is a key approach of Operational Excellence. For more information, see the recommendations in Operational Excellence.</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr"/>
+          <t>(VMs) Consider enabling accelerated networking.</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>It enables single root I/O virtualization (SR-IOV) to a VM, which greatly improves its networking performance.</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -17409,587 +17381,27 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>046215f1-13ee-4fbf-893d-eeafa28ab76b</t>
+          <t>57e446da-1b2e-4bdc-abc9-3e978a11e940</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="C672" t="inlineStr">
         <is>
-          <t>Look for ways to optimize. Some strategies include choosing the most cost-effective approach between increasing resources in an existing system, or scaling up, and adding more instances of that system, or scaling out. You can offload demand by distributing it to other resources, or you can reduce demand by implementing priority queues, gateway offloading, buffering, and rate limiting. For more information, see the recommendations in Performance Efficiency.</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr"/>
+          <t>(VMs, scale set) Set autoscale rules to increase or decrease the number of VM instances in your scale set based on demand.</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>If your application demand increases, the load on the VM instances in your scale set increases. Autoscale rules ensure that you have enough resources to meet the demand.</t>
+        </is>
+      </c>
       <c r="F672" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
-        <is>
-          <t>877c04dd-441f-4202-9b87-9eeb3c60b564</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>(VMs, scale set) Choose the right VM plan size and SKU. Identify the best VM sizes for your workload.  Use the VM selector to identify the best VM for your workload. See Windows and Linux pricing.  For workloads like highly parallel batch processing jobs that can tolerate some interruptions, consider using Azure Spot Virtual Machines. Spot virtual machines are good for experimenting, developing, and testing large-scale solutions.</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>SKUs are priced according to the capabilities that they offer. If you don't need advanced capabilities, don't overspend on SKUs.  Spot virtual machines take advantage of the surplus capacity in Azure at a lower cost.</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>90700d86-70f6-433f-b995-b9ad8cfdec84</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>(VMs, scale set) Evaluate the disk options that are associated with your VM's SKUs.  Determine your performance needs while keeping in mind your storage capacity needs and accounting for fluctuating workload patterns.  For example, the Azure Premium SSD v2 disk allows you to granularly adjust your performance independent of the disk's size.</t>
-        </is>
-      </c>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>Some high-performance disk types offer extra cost optimization features and strategies.  The Premium SSD v2 disk's adjustment capability can reduce costs because it provides high performance without overprovisioning, which could otherwise lead to underutilized resources.</t>
-        </is>
-      </c>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>14211a5a-ea48-4aa1-9f24-e46689328dda</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>(Scale set) Mix regular VMs with spot virtual machines.  Flexible orchestration lets you distribute spot virtual machines based on a specified percentage.</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>Reduce compute infrastructure costs by applying the deep discounts of spot virtual machines.</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>38d3a88b-a84f-46f3-95ce-76a4e245027b</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>(Scale set) Reduce the number of VM instances when demand decreases. Set a scale-in policy based on criteria.   Stop VMs during off-hours. You can use the Azure Automation Start/Stop feature and configure it according to your business needs.</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>Scaling in or stopping resources when they're not in use reduces the number of VMs running in the scale set, which saves costs.  The Start/Stop feature is a low-cost automation option.</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>eccee9b1-70f3-4c96-8223-35e24d842201</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>(VMs, scale set) Take advantage of license mobility by using Azure Hybrid Benefit. VMs have a licensing option that allows you to bring your own on-premises Windows Server OS licenses to Azure.  Azure Hybrid Benefit also lets you bring certain Linux subscriptions to Azure.</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>You can maximize your on-premises licenses while getting the benefits of the cloud.</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>3c34c3e4-5715-472e-953e-2d5030bf18a0</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>Monitor the VM instances. Collect logs and metrics from VM instances to monitor resource usage and measure the health of the instances. Some common metrics include CPU usage, number of requests, and input/output (I/O) latency. Set up Azure Monitor alerts to be notified about issues and to detect configuration changes in your environment.</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>fc1734b9-fefe-403d-bfc9-c2beca6f12a2</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>Monitor the health of the VMs and their dependencies.</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="F679" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>724b847d-caf4-4e90-83e7-f4c71e68c4f7</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Create a maintenance plan that includes regular system patching as a part of routine operations. Include emergency processes that allow for immediate patch application. You can have custom processes to manage patching or partially delegate the task to Azure.</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="F680" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>f99e71a9-05ee-41c2-81b7-8d794763040b</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>Automate processes for bootstrapping, running scripts, and configuring VMs. You can automate processes by using extensions or custom scripts. We recommend the following options:</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>ca34b9c2-69db-4256-a354-c491877f79ac</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>Have processes for installing automatic updates. Consider using Automatic VM guest patching for a timely rollout of critical patches and security patches. Use Azure Update Manager to manage OS updates for your Windows and Linux virtual machines in Azure.</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>821779c7-588f-40af-a740-8dd41fb585fd</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Build a test environment that closely matches your production environment to test updates and changes before you deploy them to production. Have processes in place to test the security updates, performance baselines, and reliability faults. Take advantage of Azure Chaos Studio fault libraries to inject and simulate error conditions. For more information, see Azure Chaos Studio fault and action library.</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>079c8821-00dd-4eaf-9cae-5a3dbfd6fdfa</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Manage your quota. Plan what level of quota your workload requires and review that level regularly as the workload evolves. If you need to increase or decrease your quota, request those changes early.</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>77cdbef0-ba18-4ef0-9ef4-088931e331c7</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>(Scale set) Virtual Machine Scale Sets in Flexible orchestration mode can help simplify the deployment and management of your workload. For example, you can easily manage self-healing by using automatic repairs.</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>Flexible orchestration can manage VM instances at scale. Handing individual VMs adds operational overhead.  For example, when you delete VM instances, the associated disks and NICs are also automatically deleted. VM instances are spread across multiple fault domains so that update operations don't disrupt service.</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>3049efb5-d3ae-4e36-a8fa-12f2c4a44144</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>(Scale set) Keep your VMs up to date by setting an upgrade policy. We recommend rolling upgrades. However, if you need granular control, choose to upgrade manually.  For Flexible orchestration, you can use  Azure Update Manager.</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>Security is the primary reason for upgrades. Security assurances for the instances shouldn't decay over time.  Rolling upgrades are done in batches, which ensures all instances aren't down at the same time.</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>19de83a6-2f87-49b1-8241-d1d687f46658</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>(VMs, scale set) Automatically deploy VM applications from the Azure Compute Gallery by defining the applications in the profile.</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr">
-        <is>
-          <t>The VMs in the scale set are created and the specified apps are preinstalled, which makes management easier.</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>65c832e8-2882-45ed-b239-0e68f74975aa</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Install prebuilt software components as extensions as part of bootstrapping.  Azure supports many extensions that can be used to configure, monitor, secure, and provide utility applications for your VMs.   Enable automatic upgrades on extensions.</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>Extensions can help simplify the software installation at scale without you having to manually install, configure, or upgrade it on each VM.</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>40266c61-9685-4ee1-8cb6-a899a6b573f2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>(VMs, scale set) Monitor and measure the health of the VM instances.  Deploy the Monitor agent extension to your VMs to collect monitoring data from the guest OS with OS-specific data collection rules.  Enable VM insights to monitor health and performance and to view trends from the collected data. Use boot diagnostics to get information as VMs boot. Boot diagnostics also diagnose boot failures.</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>Monitoring data is at the core of incident resolution. A comprehensive monitoring stack provides information about how the VMs are performing and their health. By continuously monitoring the instances, you can be ready for or prevent failures like performance overload and reliability issues.</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>72e210dc-5abb-4569-b650-ec27003bb1cf</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>Define performance targets. Identify VM metrics to track and measure against performance indicators as response time, CPU utilization, and memory utilization, as well as workload metrics such as transactions per second, concurrent users, and availability and health.</t>
-        </is>
-      </c>
-      <c r="D690" t="inlineStr"/>
-      <c r="F690" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>0303e75c-321d-42b0-9226-b05f43633d50</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Factor in the performance profile of VMs, scale sets, and disk configuration in your capacity planning. Each SKU has a different profile of memory and CPU and behaves differently depending on the type of workload. Conduct pilots and proofs of concept to understand performance behavior under the specific workload.</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="F691" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>f2c0ba97-9170-43ab-90b5-b30f159913ba</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>VM performance tuning. Take advantage of performance optimization and enhancing features as required by the workload. For example, use locally attached Non-Volatile Memory Express (NVMe) for high performance use cases and accelerated networking, and use Premium SSD v2 for better performance and scalability.</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="F692" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>ffee7b2f-b57c-40cc-a8ab-9044dead9dc7</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Take the dependent services into account. Workload dependencies, like caching, network traffic, and content delivery networks, that interact with the VMs can affect performance. Also, consider geographical distribution, like zones and regions, which can add latency.</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="F693" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>75cf3a03-3d7c-4199-8138-45ff62b1f7a5</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>Collect performance data. Follow the Operational Excellence best practices for monitoring and deploy the appropriate extensions to view metrics that track against performance indicators.</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="F694" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>739525ea-4d0a-4965-baef-ab0325fbed67</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>Proximity placement groups. Use proximity placement groups in workloads where low latency is required to ensure that VMs are physically located close to each other.</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="F695" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>39acd43b-a405-439b-83c9-b9d79d9cdba6</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>(VMs, scale set) Choose SKUs for VMs that align with your capacity planning. Have a good understanding of your workload requirements, including the number of cores, memory, storage, and network bandwidth so that you can filter out unsuitable SKUs.</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>Rightsizing your VMs is a fundamental decision that significantly affects the performance of your workload. Without the right set of VMs, you might experience performance issues and accrue unnecessary costs.</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>67cc04db-4b74-40f4-9bf6-0ba5f758b45e</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>(VMs, scale set) Deploy latency-sensitive workload VMs in proximity placement groups.</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>Proximity placement groups reduce the physical distance between Azure compute resources, which can improve performance and reduce network latency between stand-alone VMs, VMs in multiple availability sets, or VMs in multiple scale sets.</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>ef3de2ad-d5b6-4931-9fc7-28249d9300c0</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>(VMs, scale set)  Set the storage profile by analyzing the disk performance of existing workloads and the VM SKU.  Use Premium SSDs for production VMs. Adjust the performance of disks with Premium SSD v2. Use locally attached NVMe devices.</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>Premium SSDs deliver high-performance and low-latency disk support VMs with I/O-intensive workloads.  Premium SSD v2 doesn't require disk resizing, which enables high performance without excessive over-provisioning and minimizes the cost of unused capacity.  When available on VM SKUs, locally attached NVMe or similar devices can offer high performance, especially for use cases that require high input/output operations per second (IOPS) and low latency.</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>a91aae92-2b2c-4c88-b268-2c70b995a952</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>(VMs) Consider enabling accelerated networking.</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>It enables single root I/O virtualization (SR-IOV) to a VM, which greatly improves its networking performance.</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>57e446da-1b2e-4bdc-abc9-3e978a11e940</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>(VMs, scale set) Set autoscale rules to increase or decrease the number of VM instances in your scale set based on demand.</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>If your application demand increases, the load on the VM instances in your scale set increases. Autoscale rules ensure that you have enough resources to meet the demand.</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
-      <c r="L700" t="inlineStr">
         <is>
           <t>785858b0-2f0b-476d-9f1e-af92b57314c9</t>
         </is>
@@ -18121,7 +17533,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F701" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F673" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
